--- a/Table/Table_xls/z装备系统相关配置表/t套装效果表.xlsx
+++ b/Table/Table_xls/z装备系统相关配置表/t套装效果表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table_xls\z装备系统相关配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\外包\我叫MT\project_table\Table\Table_xls\z装备系统相关配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442D6BB3-5013-4B39-B4F7-151F88F67677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CCADAA-1833-47F7-84CC-50F8C15C2CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -379,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +415,20 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -832,19 +846,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D386" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="G403" sqref="G403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="11" customWidth="1"/>
-    <col min="2" max="3" width="20.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="11" customWidth="1"/>
     <col min="4" max="4" width="22.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
@@ -854,7 +869,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -877,11 +892,11 @@
       <c r="C2" s="4">
         <v>110000</v>
       </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4</v>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -894,11 +909,11 @@
       <c r="C3" s="4">
         <v>110001</v>
       </c>
-      <c r="D3" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4</v>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -911,11 +926,11 @@
       <c r="C4" s="4">
         <v>110002</v>
       </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4</v>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -928,11 +943,11 @@
       <c r="C5" s="4">
         <v>110003</v>
       </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -945,11 +960,11 @@
       <c r="C6" s="4">
         <v>110004</v>
       </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -962,11 +977,11 @@
       <c r="C7" s="4">
         <v>110005</v>
       </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4</v>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -979,11 +994,11 @@
       <c r="C8" s="4">
         <v>110006</v>
       </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -996,28 +1011,28 @@
       <c r="C9" s="4">
         <v>110007</v>
       </c>
-      <c r="D9" s="5">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>110011</v>
-      </c>
-      <c r="C10" s="4">
-        <v>110011</v>
-      </c>
-      <c r="D10" s="5">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
+      <c r="B10" s="6">
+        <v>120000</v>
+      </c>
+      <c r="C10" s="6">
+        <v>120000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1025,16 +1040,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>120000</v>
+        <v>120001</v>
       </c>
       <c r="C11" s="6">
-        <v>120000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
+        <v>120001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1042,16 +1057,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>120001</v>
+        <v>120002</v>
       </c>
       <c r="C12" s="6">
-        <v>120001</v>
-      </c>
-      <c r="D12" s="5">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4</v>
+        <v>120002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1059,16 +1074,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>120002</v>
+        <v>120003</v>
       </c>
       <c r="C13" s="6">
-        <v>120002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
+        <v>120003</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1076,16 +1091,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>120003</v>
+        <v>120004</v>
       </c>
       <c r="C14" s="6">
-        <v>120003</v>
-      </c>
-      <c r="D14" s="5">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4</v>
+        <v>120004</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1093,16 +1108,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>120004</v>
+        <v>120005</v>
       </c>
       <c r="C15" s="6">
-        <v>120004</v>
-      </c>
-      <c r="D15" s="5">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
+        <v>120005</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1110,16 +1125,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>120005</v>
+        <v>120006</v>
       </c>
       <c r="C16" s="6">
-        <v>120005</v>
-      </c>
-      <c r="D16" s="5">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4</v>
+        <v>120006</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1127,33 +1142,33 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>120006</v>
+        <v>120007</v>
       </c>
       <c r="C17" s="6">
-        <v>120006</v>
-      </c>
-      <c r="D17" s="5">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5">
-        <v>4</v>
+        <v>120007</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
-        <v>120007</v>
-      </c>
-      <c r="C18" s="6">
-        <v>120007</v>
-      </c>
-      <c r="D18" s="5">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4</v>
+      <c r="B18" s="4">
+        <v>130000</v>
+      </c>
+      <c r="C18" s="4">
+        <v>130000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1161,16 +1176,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>130000</v>
+        <v>130001</v>
       </c>
       <c r="C19" s="4">
-        <v>130000</v>
-      </c>
-      <c r="D19" s="5">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
+        <v>130001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1178,16 +1193,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>130001</v>
+        <v>130002</v>
       </c>
       <c r="C20" s="4">
-        <v>130001</v>
-      </c>
-      <c r="D20" s="5">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4</v>
+        <v>130002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1195,16 +1210,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>130002</v>
+        <v>130003</v>
       </c>
       <c r="C21" s="4">
-        <v>130002</v>
-      </c>
-      <c r="D21" s="5">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4</v>
+        <v>130003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1212,16 +1227,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>130003</v>
+        <v>130004</v>
       </c>
       <c r="C22" s="4">
-        <v>130003</v>
-      </c>
-      <c r="D22" s="5">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4</v>
+        <v>130004</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1229,16 +1244,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>130004</v>
+        <v>130005</v>
       </c>
       <c r="C23" s="4">
-        <v>130004</v>
-      </c>
-      <c r="D23" s="5">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5">
-        <v>4</v>
+        <v>130005</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1246,16 +1261,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>130005</v>
+        <v>130006</v>
       </c>
       <c r="C24" s="4">
-        <v>130005</v>
-      </c>
-      <c r="D24" s="5">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5">
-        <v>4</v>
+        <v>130006</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1263,50 +1278,50 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>130006</v>
+        <v>130007</v>
       </c>
       <c r="C25" s="4">
-        <v>130006</v>
-      </c>
-      <c r="D25" s="5">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5">
-        <v>4</v>
+        <v>130007</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <v>130007</v>
-      </c>
-      <c r="C26" s="4">
-        <v>130007</v>
-      </c>
-      <c r="D26" s="5">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5">
-        <v>4</v>
+      <c r="B26" s="6">
+        <v>140000</v>
+      </c>
+      <c r="C26" s="6">
+        <v>140000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <v>130011</v>
-      </c>
-      <c r="C27" s="4">
-        <v>130011</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4</v>
+      <c r="B27" s="6">
+        <v>140001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>140001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1314,16 +1329,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>140000</v>
+        <v>140002</v>
       </c>
       <c r="C28" s="6">
-        <v>140000</v>
-      </c>
-      <c r="D28" s="5">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5">
-        <v>4</v>
+        <v>140002</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1331,16 +1346,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>140001</v>
+        <v>140003</v>
       </c>
       <c r="C29" s="6">
-        <v>140001</v>
-      </c>
-      <c r="D29" s="5">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5">
-        <v>4</v>
+        <v>140003</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1348,16 +1363,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>140002</v>
+        <v>140004</v>
       </c>
       <c r="C30" s="6">
-        <v>140002</v>
-      </c>
-      <c r="D30" s="5">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5">
-        <v>4</v>
+        <v>140004</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1365,16 +1380,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>140003</v>
+        <v>140005</v>
       </c>
       <c r="C31" s="6">
-        <v>140003</v>
-      </c>
-      <c r="D31" s="5">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
-        <v>4</v>
+        <v>140005</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1382,16 +1397,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>140004</v>
+        <v>140006</v>
       </c>
       <c r="C32" s="6">
-        <v>140004</v>
-      </c>
-      <c r="D32" s="5">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5">
-        <v>4</v>
+        <v>140006</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1399,50 +1414,50 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>140005</v>
+        <v>140007</v>
       </c>
       <c r="C33" s="6">
-        <v>140005</v>
-      </c>
-      <c r="D33" s="5">
-        <v>10</v>
-      </c>
-      <c r="E33" s="5">
-        <v>4</v>
+        <v>140007</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
-        <v>140006</v>
-      </c>
-      <c r="C34" s="6">
-        <v>140006</v>
-      </c>
-      <c r="D34" s="5">
-        <v>10</v>
-      </c>
-      <c r="E34" s="5">
-        <v>4</v>
+      <c r="B34" s="4">
+        <v>150000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>150000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>140007</v>
-      </c>
-      <c r="C35" s="6">
-        <v>140007</v>
-      </c>
-      <c r="D35" s="5">
-        <v>10</v>
-      </c>
-      <c r="E35" s="5">
-        <v>4</v>
+      <c r="B35" s="4">
+        <v>150001</v>
+      </c>
+      <c r="C35" s="4">
+        <v>150001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1450,33 +1465,33 @@
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>150000</v>
+        <v>150002</v>
       </c>
       <c r="C36" s="4">
-        <v>150000</v>
-      </c>
-      <c r="D36" s="5">
-        <v>10</v>
-      </c>
-      <c r="E36" s="5">
-        <v>4</v>
+        <v>150002</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
-        <v>150001</v>
-      </c>
-      <c r="C37" s="4">
-        <v>150001</v>
-      </c>
-      <c r="D37" s="5">
-        <v>10</v>
-      </c>
-      <c r="E37" s="5">
-        <v>4</v>
+      <c r="B37" s="6">
+        <v>150003</v>
+      </c>
+      <c r="C37" s="6">
+        <v>150003</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1484,16 +1499,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>150002</v>
+        <v>150004</v>
       </c>
       <c r="C38" s="4">
-        <v>150002</v>
-      </c>
-      <c r="D38" s="5">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5">
-        <v>4</v>
+        <v>150004</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1501,16 +1516,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>150003</v>
+        <v>150005</v>
       </c>
       <c r="C39" s="6">
-        <v>150003</v>
-      </c>
-      <c r="D39" s="5">
-        <v>10</v>
-      </c>
-      <c r="E39" s="5">
-        <v>4</v>
+        <v>150005</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1518,16 +1533,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>150004</v>
+        <v>150006</v>
       </c>
       <c r="C40" s="4">
-        <v>150004</v>
-      </c>
-      <c r="D40" s="5">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5">
-        <v>4</v>
+        <v>150006</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1535,33 +1550,33 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <v>150005</v>
+        <v>150007</v>
       </c>
       <c r="C41" s="6">
-        <v>150005</v>
-      </c>
-      <c r="D41" s="5">
-        <v>10</v>
-      </c>
-      <c r="E41" s="5">
-        <v>4</v>
+        <v>150007</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
-        <v>150006</v>
-      </c>
-      <c r="C42" s="4">
-        <v>150006</v>
-      </c>
-      <c r="D42" s="5">
-        <v>10</v>
-      </c>
-      <c r="E42" s="5">
-        <v>4</v>
+      <c r="B42" s="6">
+        <v>160000</v>
+      </c>
+      <c r="C42" s="6">
+        <v>160000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1569,16 +1584,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="6">
-        <v>150007</v>
+        <v>160001</v>
       </c>
       <c r="C43" s="6">
-        <v>150007</v>
-      </c>
-      <c r="D43" s="5">
-        <v>10</v>
-      </c>
-      <c r="E43" s="5">
-        <v>4</v>
+        <v>160001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1586,16 +1601,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="6">
-        <v>160000</v>
+        <v>160002</v>
       </c>
       <c r="C44" s="6">
-        <v>160000</v>
-      </c>
-      <c r="D44" s="5">
-        <v>10</v>
-      </c>
-      <c r="E44" s="5">
-        <v>4</v>
+        <v>160002</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1603,16 +1618,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="6">
-        <v>160001</v>
+        <v>160003</v>
       </c>
       <c r="C45" s="6">
-        <v>160001</v>
-      </c>
-      <c r="D45" s="5">
-        <v>10</v>
-      </c>
-      <c r="E45" s="5">
-        <v>4</v>
+        <v>160003</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1620,16 +1635,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="6">
-        <v>160002</v>
+        <v>160004</v>
       </c>
       <c r="C46" s="6">
-        <v>160002</v>
-      </c>
-      <c r="D46" s="5">
-        <v>10</v>
-      </c>
-      <c r="E46" s="5">
-        <v>4</v>
+        <v>160004</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1637,16 +1652,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="6">
-        <v>160003</v>
+        <v>160005</v>
       </c>
       <c r="C47" s="6">
-        <v>160003</v>
-      </c>
-      <c r="D47" s="5">
-        <v>10</v>
-      </c>
-      <c r="E47" s="5">
-        <v>4</v>
+        <v>160005</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1654,16 +1669,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="6">
-        <v>160004</v>
+        <v>160006</v>
       </c>
       <c r="C48" s="6">
-        <v>160004</v>
-      </c>
-      <c r="D48" s="5">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5">
-        <v>4</v>
+        <v>160006</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1671,16 +1686,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="6">
-        <v>160005</v>
+        <v>160007</v>
       </c>
       <c r="C49" s="6">
-        <v>160005</v>
-      </c>
-      <c r="D49" s="5">
-        <v>10</v>
-      </c>
-      <c r="E49" s="5">
-        <v>4</v>
+        <v>160007</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1688,16 +1703,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="6">
-        <v>160006</v>
+        <v>161000</v>
       </c>
       <c r="C50" s="6">
-        <v>160006</v>
-      </c>
-      <c r="D50" s="5">
-        <v>10</v>
-      </c>
-      <c r="E50" s="5">
-        <v>4</v>
+        <v>161000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1705,16 +1720,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="6">
-        <v>160007</v>
+        <v>161001</v>
       </c>
       <c r="C51" s="6">
-        <v>160007</v>
-      </c>
-      <c r="D51" s="5">
-        <v>10</v>
-      </c>
-      <c r="E51" s="5">
-        <v>4</v>
+        <v>161001</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1722,16 +1737,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="6">
-        <v>161000</v>
+        <v>161002</v>
       </c>
       <c r="C52" s="6">
-        <v>161000</v>
-      </c>
-      <c r="D52" s="5">
-        <v>10</v>
-      </c>
-      <c r="E52" s="5">
-        <v>4</v>
+        <v>161002</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1739,16 +1754,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="6">
-        <v>161001</v>
+        <v>161003</v>
       </c>
       <c r="C53" s="6">
-        <v>161001</v>
-      </c>
-      <c r="D53" s="5">
-        <v>10</v>
-      </c>
-      <c r="E53" s="5">
-        <v>4</v>
+        <v>161003</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1756,16 +1771,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="6">
-        <v>161002</v>
+        <v>161004</v>
       </c>
       <c r="C54" s="6">
-        <v>161002</v>
-      </c>
-      <c r="D54" s="5">
-        <v>10</v>
-      </c>
-      <c r="E54" s="5">
-        <v>4</v>
+        <v>161004</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1773,16 +1788,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="6">
-        <v>161003</v>
+        <v>161005</v>
       </c>
       <c r="C55" s="6">
-        <v>161003</v>
-      </c>
-      <c r="D55" s="5">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5">
-        <v>4</v>
+        <v>161005</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1790,16 +1805,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="6">
-        <v>161004</v>
+        <v>161006</v>
       </c>
       <c r="C56" s="6">
-        <v>161004</v>
-      </c>
-      <c r="D56" s="5">
-        <v>10</v>
-      </c>
-      <c r="E56" s="5">
-        <v>4</v>
+        <v>161006</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1807,16 +1822,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="6">
-        <v>161005</v>
+        <v>161007</v>
       </c>
       <c r="C57" s="6">
-        <v>161005</v>
-      </c>
-      <c r="D57" s="5">
-        <v>10</v>
-      </c>
-      <c r="E57" s="5">
-        <v>4</v>
+        <v>161007</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1824,16 +1839,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="6">
-        <v>161006</v>
+        <v>162000</v>
       </c>
       <c r="C58" s="6">
-        <v>161006</v>
-      </c>
-      <c r="D58" s="5">
-        <v>10</v>
-      </c>
-      <c r="E58" s="5">
-        <v>4</v>
+        <v>162000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1841,16 +1856,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="6">
-        <v>161007</v>
+        <v>162001</v>
       </c>
       <c r="C59" s="6">
-        <v>161007</v>
-      </c>
-      <c r="D59" s="5">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5">
-        <v>4</v>
+        <v>162001</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1858,16 +1873,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="6">
-        <v>162000</v>
+        <v>162002</v>
       </c>
       <c r="C60" s="6">
-        <v>162000</v>
-      </c>
-      <c r="D60" s="5">
-        <v>10</v>
-      </c>
-      <c r="E60" s="5">
-        <v>4</v>
+        <v>162002</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1875,16 +1890,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="6">
-        <v>162001</v>
+        <v>162003</v>
       </c>
       <c r="C61" s="6">
-        <v>162001</v>
-      </c>
-      <c r="D61" s="5">
-        <v>10</v>
-      </c>
-      <c r="E61" s="5">
-        <v>4</v>
+        <v>162003</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1892,16 +1907,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="6">
-        <v>162002</v>
+        <v>162004</v>
       </c>
       <c r="C62" s="6">
-        <v>162002</v>
-      </c>
-      <c r="D62" s="5">
-        <v>10</v>
-      </c>
-      <c r="E62" s="5">
-        <v>4</v>
+        <v>162004</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1909,16 +1924,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="6">
-        <v>162003</v>
+        <v>162005</v>
       </c>
       <c r="C63" s="6">
-        <v>162003</v>
-      </c>
-      <c r="D63" s="5">
-        <v>10</v>
-      </c>
-      <c r="E63" s="5">
-        <v>4</v>
+        <v>162005</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1926,16 +1941,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="6">
-        <v>162004</v>
+        <v>162006</v>
       </c>
       <c r="C64" s="6">
-        <v>162004</v>
-      </c>
-      <c r="D64" s="5">
-        <v>10</v>
-      </c>
-      <c r="E64" s="5">
-        <v>4</v>
+        <v>162006</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1943,16 +1958,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="6">
-        <v>162005</v>
+        <v>162007</v>
       </c>
       <c r="C65" s="6">
-        <v>162005</v>
-      </c>
-      <c r="D65" s="5">
-        <v>10</v>
-      </c>
-      <c r="E65" s="5">
-        <v>4</v>
+        <v>162007</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1960,16 +1975,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="6">
-        <v>162006</v>
+        <v>163000</v>
       </c>
       <c r="C66" s="6">
-        <v>162006</v>
-      </c>
-      <c r="D66" s="5">
-        <v>10</v>
-      </c>
-      <c r="E66" s="5">
-        <v>4</v>
+        <v>163000</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1977,16 +1992,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="6">
-        <v>162007</v>
+        <v>163001</v>
       </c>
       <c r="C67" s="6">
-        <v>162007</v>
-      </c>
-      <c r="D67" s="5">
-        <v>10</v>
-      </c>
-      <c r="E67" s="5">
-        <v>4</v>
+        <v>163001</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1994,16 +2009,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="6">
-        <v>163000</v>
+        <v>163002</v>
       </c>
       <c r="C68" s="6">
-        <v>163000</v>
-      </c>
-      <c r="D68" s="5">
-        <v>10</v>
-      </c>
-      <c r="E68" s="5">
-        <v>4</v>
+        <v>163002</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2011,16 +2026,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="6">
-        <v>163001</v>
+        <v>163003</v>
       </c>
       <c r="C69" s="6">
-        <v>163001</v>
-      </c>
-      <c r="D69" s="5">
-        <v>10</v>
-      </c>
-      <c r="E69" s="5">
-        <v>4</v>
+        <v>163003</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2028,16 +2043,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="6">
-        <v>163002</v>
+        <v>163004</v>
       </c>
       <c r="C70" s="6">
-        <v>163002</v>
-      </c>
-      <c r="D70" s="5">
-        <v>10</v>
-      </c>
-      <c r="E70" s="5">
-        <v>4</v>
+        <v>163004</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2045,16 +2060,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="6">
-        <v>163003</v>
+        <v>163005</v>
       </c>
       <c r="C71" s="6">
-        <v>163003</v>
-      </c>
-      <c r="D71" s="5">
-        <v>10</v>
-      </c>
-      <c r="E71" s="5">
-        <v>4</v>
+        <v>163005</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2062,16 +2077,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="6">
-        <v>163004</v>
+        <v>163006</v>
       </c>
       <c r="C72" s="6">
-        <v>163004</v>
-      </c>
-      <c r="D72" s="5">
-        <v>10</v>
-      </c>
-      <c r="E72" s="5">
-        <v>4</v>
+        <v>163006</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2079,849 +2094,849 @@
         <v>72</v>
       </c>
       <c r="B73" s="6">
-        <v>163005</v>
+        <v>163007</v>
       </c>
       <c r="C73" s="6">
-        <v>163005</v>
-      </c>
-      <c r="D73" s="5">
-        <v>10</v>
-      </c>
-      <c r="E73" s="5">
-        <v>4</v>
+        <v>163007</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="6">
-        <v>163006</v>
-      </c>
-      <c r="C74" s="6">
-        <v>163006</v>
-      </c>
-      <c r="D74" s="5">
-        <v>10</v>
-      </c>
-      <c r="E74" s="5">
-        <v>4</v>
+      <c r="B74" s="15">
+        <v>164000</v>
+      </c>
+      <c r="C74" s="15">
+        <v>164000</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="6">
-        <v>163007</v>
-      </c>
-      <c r="C75" s="6">
-        <v>163007</v>
-      </c>
-      <c r="D75" s="5">
-        <v>10</v>
-      </c>
-      <c r="E75" s="5">
-        <v>4</v>
+      <c r="B75" s="15">
+        <v>164001</v>
+      </c>
+      <c r="C75" s="15">
+        <v>164001</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="6">
-        <v>164000</v>
-      </c>
-      <c r="C76" s="6">
-        <v>164000</v>
-      </c>
-      <c r="D76" s="5">
-        <v>10</v>
-      </c>
-      <c r="E76" s="5">
-        <v>4</v>
+      <c r="B76" s="15">
+        <v>164002</v>
+      </c>
+      <c r="C76" s="15">
+        <v>164002</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="6">
-        <v>164001</v>
-      </c>
-      <c r="C77" s="6">
-        <v>164001</v>
-      </c>
-      <c r="D77" s="5">
-        <v>10</v>
-      </c>
-      <c r="E77" s="5">
-        <v>4</v>
+      <c r="B77" s="15">
+        <v>164003</v>
+      </c>
+      <c r="C77" s="15">
+        <v>164003</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="6">
-        <v>164002</v>
-      </c>
-      <c r="C78" s="6">
-        <v>164002</v>
-      </c>
-      <c r="D78" s="5">
-        <v>10</v>
-      </c>
-      <c r="E78" s="5">
-        <v>4</v>
+      <c r="B78" s="15">
+        <v>164004</v>
+      </c>
+      <c r="C78" s="15">
+        <v>164004</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="6">
-        <v>164003</v>
-      </c>
-      <c r="C79" s="6">
-        <v>164003</v>
-      </c>
-      <c r="D79" s="5">
-        <v>10</v>
-      </c>
-      <c r="E79" s="5">
-        <v>4</v>
+      <c r="B79" s="15">
+        <v>164005</v>
+      </c>
+      <c r="C79" s="15">
+        <v>164005</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="6">
-        <v>164004</v>
-      </c>
-      <c r="C80" s="6">
-        <v>164004</v>
-      </c>
-      <c r="D80" s="5">
-        <v>10</v>
-      </c>
-      <c r="E80" s="5">
-        <v>4</v>
+      <c r="B80" s="15">
+        <v>164006</v>
+      </c>
+      <c r="C80" s="15">
+        <v>164006</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="6">
-        <v>164005</v>
-      </c>
-      <c r="C81" s="6">
-        <v>164005</v>
-      </c>
-      <c r="D81" s="5">
-        <v>10</v>
-      </c>
-      <c r="E81" s="5">
-        <v>4</v>
+      <c r="B81" s="15">
+        <v>164007</v>
+      </c>
+      <c r="C81" s="15">
+        <v>164007</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="6">
-        <v>164006</v>
-      </c>
-      <c r="C82" s="6">
-        <v>164006</v>
-      </c>
-      <c r="D82" s="5">
-        <v>10</v>
-      </c>
-      <c r="E82" s="5">
-        <v>4</v>
+      <c r="B82" s="15">
+        <v>165000</v>
+      </c>
+      <c r="C82" s="15">
+        <v>165000</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="6">
-        <v>164007</v>
-      </c>
-      <c r="C83" s="6">
-        <v>164007</v>
-      </c>
-      <c r="D83" s="5">
-        <v>10</v>
-      </c>
-      <c r="E83" s="5">
-        <v>4</v>
+      <c r="B83" s="15">
+        <v>165001</v>
+      </c>
+      <c r="C83" s="15">
+        <v>165001</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="6">
-        <v>165000</v>
-      </c>
-      <c r="C84" s="6">
-        <v>165000</v>
-      </c>
-      <c r="D84" s="5">
-        <v>10</v>
-      </c>
-      <c r="E84" s="5">
-        <v>4</v>
+      <c r="B84" s="15">
+        <v>165002</v>
+      </c>
+      <c r="C84" s="15">
+        <v>165002</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="6">
-        <v>165001</v>
-      </c>
-      <c r="C85" s="6">
-        <v>165001</v>
-      </c>
-      <c r="D85" s="5">
-        <v>10</v>
-      </c>
-      <c r="E85" s="5">
-        <v>4</v>
+      <c r="B85" s="15">
+        <v>165003</v>
+      </c>
+      <c r="C85" s="15">
+        <v>165003</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="6">
-        <v>165002</v>
-      </c>
-      <c r="C86" s="6">
-        <v>165002</v>
-      </c>
-      <c r="D86" s="5">
-        <v>10</v>
-      </c>
-      <c r="E86" s="5">
-        <v>4</v>
+      <c r="B86" s="15">
+        <v>165004</v>
+      </c>
+      <c r="C86" s="15">
+        <v>165004</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="6">
-        <v>165003</v>
-      </c>
-      <c r="C87" s="6">
-        <v>165003</v>
-      </c>
-      <c r="D87" s="5">
-        <v>10</v>
-      </c>
-      <c r="E87" s="5">
-        <v>4</v>
+      <c r="B87" s="15">
+        <v>165005</v>
+      </c>
+      <c r="C87" s="15">
+        <v>165005</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="6">
-        <v>165004</v>
-      </c>
-      <c r="C88" s="6">
-        <v>165004</v>
-      </c>
-      <c r="D88" s="5">
-        <v>10</v>
-      </c>
-      <c r="E88" s="5">
-        <v>4</v>
+      <c r="B88" s="15">
+        <v>165006</v>
+      </c>
+      <c r="C88" s="15">
+        <v>165006</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="6">
-        <v>165005</v>
-      </c>
-      <c r="C89" s="6">
-        <v>165005</v>
-      </c>
-      <c r="D89" s="5">
-        <v>10</v>
-      </c>
-      <c r="E89" s="5">
-        <v>4</v>
+      <c r="B89" s="15">
+        <v>165007</v>
+      </c>
+      <c r="C89" s="15">
+        <v>165007</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="6">
-        <v>165006</v>
-      </c>
-      <c r="C90" s="6">
-        <v>165006</v>
-      </c>
-      <c r="D90" s="5">
-        <v>10</v>
-      </c>
-      <c r="E90" s="5">
-        <v>4</v>
+      <c r="B90" s="15">
+        <v>166000</v>
+      </c>
+      <c r="C90" s="15">
+        <v>166000</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="6">
-        <v>165007</v>
-      </c>
-      <c r="C91" s="6">
-        <v>165007</v>
-      </c>
-      <c r="D91" s="5">
-        <v>10</v>
-      </c>
-      <c r="E91" s="5">
-        <v>4</v>
+      <c r="B91" s="15">
+        <v>166001</v>
+      </c>
+      <c r="C91" s="15">
+        <v>166001</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="6">
-        <v>166000</v>
-      </c>
-      <c r="C92" s="6">
-        <v>166000</v>
-      </c>
-      <c r="D92" s="5">
-        <v>10</v>
-      </c>
-      <c r="E92" s="5">
-        <v>4</v>
+      <c r="B92" s="15">
+        <v>166002</v>
+      </c>
+      <c r="C92" s="15">
+        <v>166002</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="6">
-        <v>166001</v>
-      </c>
-      <c r="C93" s="6">
-        <v>166001</v>
-      </c>
-      <c r="D93" s="5">
-        <v>10</v>
-      </c>
-      <c r="E93" s="5">
-        <v>4</v>
+      <c r="B93" s="15">
+        <v>166003</v>
+      </c>
+      <c r="C93" s="15">
+        <v>166003</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="6">
-        <v>166002</v>
-      </c>
-      <c r="C94" s="6">
-        <v>166002</v>
-      </c>
-      <c r="D94" s="5">
-        <v>10</v>
-      </c>
-      <c r="E94" s="5">
-        <v>4</v>
+      <c r="B94" s="15">
+        <v>166004</v>
+      </c>
+      <c r="C94" s="15">
+        <v>166004</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="6">
-        <v>166003</v>
-      </c>
-      <c r="C95" s="6">
-        <v>166003</v>
-      </c>
-      <c r="D95" s="5">
-        <v>10</v>
-      </c>
-      <c r="E95" s="5">
-        <v>4</v>
+      <c r="B95" s="15">
+        <v>166005</v>
+      </c>
+      <c r="C95" s="15">
+        <v>166005</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="6">
-        <v>166004</v>
-      </c>
-      <c r="C96" s="6">
-        <v>166004</v>
-      </c>
-      <c r="D96" s="5">
-        <v>10</v>
-      </c>
-      <c r="E96" s="5">
-        <v>4</v>
+      <c r="B96" s="15">
+        <v>166006</v>
+      </c>
+      <c r="C96" s="15">
+        <v>166006</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="6">
-        <v>166005</v>
-      </c>
-      <c r="C97" s="6">
-        <v>166005</v>
-      </c>
-      <c r="D97" s="5">
-        <v>10</v>
-      </c>
-      <c r="E97" s="5">
-        <v>4</v>
+      <c r="B97" s="15">
+        <v>166007</v>
+      </c>
+      <c r="C97" s="15">
+        <v>166007</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="6">
-        <v>166006</v>
-      </c>
-      <c r="C98" s="6">
-        <v>166006</v>
-      </c>
-      <c r="D98" s="5">
-        <v>10</v>
-      </c>
-      <c r="E98" s="5">
-        <v>4</v>
+      <c r="B98" s="15">
+        <v>167000</v>
+      </c>
+      <c r="C98" s="15">
+        <v>167000</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="6">
-        <v>166007</v>
-      </c>
-      <c r="C99" s="6">
-        <v>166007</v>
-      </c>
-      <c r="D99" s="5">
-        <v>10</v>
-      </c>
-      <c r="E99" s="5">
-        <v>4</v>
+      <c r="B99" s="15">
+        <v>167001</v>
+      </c>
+      <c r="C99" s="15">
+        <v>167001</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="6">
-        <v>167000</v>
-      </c>
-      <c r="C100" s="6">
-        <v>167000</v>
-      </c>
-      <c r="D100" s="5">
-        <v>10</v>
-      </c>
-      <c r="E100" s="5">
-        <v>4</v>
+      <c r="B100" s="15">
+        <v>167002</v>
+      </c>
+      <c r="C100" s="15">
+        <v>167002</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="6">
-        <v>167001</v>
-      </c>
-      <c r="C101" s="6">
-        <v>167001</v>
-      </c>
-      <c r="D101" s="5">
-        <v>10</v>
-      </c>
-      <c r="E101" s="5">
-        <v>4</v>
+      <c r="B101" s="15">
+        <v>167003</v>
+      </c>
+      <c r="C101" s="15">
+        <v>167003</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="6">
-        <v>167002</v>
-      </c>
-      <c r="C102" s="6">
-        <v>167002</v>
-      </c>
-      <c r="D102" s="5">
-        <v>10</v>
-      </c>
-      <c r="E102" s="5">
-        <v>4</v>
+      <c r="B102" s="15">
+        <v>167004</v>
+      </c>
+      <c r="C102" s="15">
+        <v>167004</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="6">
-        <v>167003</v>
-      </c>
-      <c r="C103" s="6">
-        <v>167003</v>
-      </c>
-      <c r="D103" s="5">
-        <v>10</v>
-      </c>
-      <c r="E103" s="5">
-        <v>4</v>
+      <c r="B103" s="15">
+        <v>167005</v>
+      </c>
+      <c r="C103" s="15">
+        <v>167005</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="6">
-        <v>167004</v>
-      </c>
-      <c r="C104" s="6">
-        <v>167004</v>
-      </c>
-      <c r="D104" s="5">
-        <v>10</v>
-      </c>
-      <c r="E104" s="5">
-        <v>4</v>
+      <c r="B104" s="15">
+        <v>167006</v>
+      </c>
+      <c r="C104" s="15">
+        <v>167006</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="6">
-        <v>167005</v>
-      </c>
-      <c r="C105" s="6">
-        <v>167005</v>
-      </c>
-      <c r="D105" s="5">
-        <v>10</v>
-      </c>
-      <c r="E105" s="5">
-        <v>4</v>
+      <c r="B105" s="15">
+        <v>167007</v>
+      </c>
+      <c r="C105" s="15">
+        <v>167007</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="6">
-        <v>167006</v>
-      </c>
-      <c r="C106" s="6">
-        <v>167006</v>
-      </c>
-      <c r="D106" s="5">
-        <v>10</v>
-      </c>
-      <c r="E106" s="5">
-        <v>4</v>
+      <c r="B106" s="15">
+        <v>168000</v>
+      </c>
+      <c r="C106" s="15">
+        <v>168000</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="6">
-        <v>167007</v>
-      </c>
-      <c r="C107" s="6">
-        <v>167007</v>
-      </c>
-      <c r="D107" s="5">
-        <v>10</v>
-      </c>
-      <c r="E107" s="5">
-        <v>4</v>
+      <c r="B107" s="15">
+        <v>168001</v>
+      </c>
+      <c r="C107" s="15">
+        <v>168001</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="6">
-        <v>168000</v>
-      </c>
-      <c r="C108" s="6">
-        <v>168000</v>
-      </c>
-      <c r="D108" s="5">
-        <v>10</v>
-      </c>
-      <c r="E108" s="5">
-        <v>4</v>
+      <c r="B108" s="15">
+        <v>168002</v>
+      </c>
+      <c r="C108" s="15">
+        <v>168002</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="6">
-        <v>168001</v>
-      </c>
-      <c r="C109" s="6">
-        <v>168001</v>
-      </c>
-      <c r="D109" s="5">
-        <v>10</v>
-      </c>
-      <c r="E109" s="5">
-        <v>4</v>
+      <c r="B109" s="15">
+        <v>168003</v>
+      </c>
+      <c r="C109" s="15">
+        <v>168003</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="6">
-        <v>168002</v>
-      </c>
-      <c r="C110" s="6">
-        <v>168002</v>
-      </c>
-      <c r="D110" s="5">
-        <v>10</v>
-      </c>
-      <c r="E110" s="5">
-        <v>4</v>
+      <c r="B110" s="15">
+        <v>168004</v>
+      </c>
+      <c r="C110" s="15">
+        <v>168004</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
-        <v>168003</v>
-      </c>
-      <c r="C111" s="6">
-        <v>168003</v>
-      </c>
-      <c r="D111" s="5">
-        <v>10</v>
-      </c>
-      <c r="E111" s="5">
-        <v>4</v>
+      <c r="B111" s="15">
+        <v>168005</v>
+      </c>
+      <c r="C111" s="15">
+        <v>168005</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="6">
-        <v>168004</v>
-      </c>
-      <c r="C112" s="6">
-        <v>168004</v>
-      </c>
-      <c r="D112" s="5">
-        <v>10</v>
-      </c>
-      <c r="E112" s="5">
-        <v>4</v>
+      <c r="B112" s="15">
+        <v>168006</v>
+      </c>
+      <c r="C112" s="15">
+        <v>168006</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="6">
-        <v>168005</v>
-      </c>
-      <c r="C113" s="6">
-        <v>168005</v>
-      </c>
-      <c r="D113" s="5">
-        <v>10</v>
-      </c>
-      <c r="E113" s="5">
-        <v>4</v>
+      <c r="B113" s="15">
+        <v>168007</v>
+      </c>
+      <c r="C113" s="15">
+        <v>168007</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="6">
-        <v>168006</v>
-      </c>
-      <c r="C114" s="6">
-        <v>168006</v>
-      </c>
-      <c r="D114" s="5">
-        <v>10</v>
-      </c>
-      <c r="E114" s="5">
-        <v>4</v>
+      <c r="B114" s="15">
+        <v>169000</v>
+      </c>
+      <c r="C114" s="15">
+        <v>169000</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="6">
-        <v>168007</v>
-      </c>
-      <c r="C115" s="6">
-        <v>168007</v>
-      </c>
-      <c r="D115" s="5">
-        <v>10</v>
-      </c>
-      <c r="E115" s="5">
-        <v>4</v>
+      <c r="B115" s="15">
+        <v>169001</v>
+      </c>
+      <c r="C115" s="15">
+        <v>169001</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="6">
-        <v>169000</v>
-      </c>
-      <c r="C116" s="6">
-        <v>169000</v>
-      </c>
-      <c r="D116" s="5">
-        <v>10</v>
-      </c>
-      <c r="E116" s="5">
-        <v>4</v>
+      <c r="B116" s="15">
+        <v>169002</v>
+      </c>
+      <c r="C116" s="15">
+        <v>169002</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="6">
-        <v>169001</v>
-      </c>
-      <c r="C117" s="6">
-        <v>169001</v>
-      </c>
-      <c r="D117" s="5">
-        <v>10</v>
-      </c>
-      <c r="E117" s="5">
-        <v>4</v>
+      <c r="B117" s="15">
+        <v>169003</v>
+      </c>
+      <c r="C117" s="15">
+        <v>169003</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="6">
-        <v>169002</v>
-      </c>
-      <c r="C118" s="6">
-        <v>169002</v>
-      </c>
-      <c r="D118" s="5">
-        <v>10</v>
-      </c>
-      <c r="E118" s="5">
-        <v>4</v>
+      <c r="B118" s="15">
+        <v>169004</v>
+      </c>
+      <c r="C118" s="15">
+        <v>169004</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="6">
-        <v>169003</v>
-      </c>
-      <c r="C119" s="6">
-        <v>169003</v>
-      </c>
-      <c r="D119" s="5">
-        <v>10</v>
-      </c>
-      <c r="E119" s="5">
-        <v>4</v>
+      <c r="B119" s="15">
+        <v>169005</v>
+      </c>
+      <c r="C119" s="15">
+        <v>169005</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="6">
-        <v>169004</v>
-      </c>
-      <c r="C120" s="6">
-        <v>169004</v>
-      </c>
-      <c r="D120" s="5">
-        <v>10</v>
-      </c>
-      <c r="E120" s="5">
-        <v>4</v>
+      <c r="B120" s="15">
+        <v>169006</v>
+      </c>
+      <c r="C120" s="15">
+        <v>169006</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="6">
-        <v>169005</v>
-      </c>
-      <c r="C121" s="6">
-        <v>169005</v>
-      </c>
-      <c r="D121" s="5">
-        <v>10</v>
-      </c>
-      <c r="E121" s="5">
-        <v>4</v>
+      <c r="B121" s="15">
+        <v>169007</v>
+      </c>
+      <c r="C121" s="15">
+        <v>169007</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="6">
-        <v>169006</v>
-      </c>
-      <c r="C122" s="6">
-        <v>169006</v>
-      </c>
-      <c r="D122" s="5">
-        <v>10</v>
-      </c>
-      <c r="E122" s="5">
-        <v>4</v>
+      <c r="B122" s="4">
+        <v>171006</v>
+      </c>
+      <c r="C122" s="4">
+        <v>171006</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2929,16 +2944,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="6">
-        <v>169007</v>
+        <v>172006</v>
       </c>
       <c r="C123" s="6">
-        <v>169007</v>
-      </c>
-      <c r="D123" s="5">
-        <v>10</v>
-      </c>
-      <c r="E123" s="5">
-        <v>4</v>
+        <v>172006</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -2946,16 +2961,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="4">
-        <v>171006</v>
+        <v>173006</v>
       </c>
       <c r="C124" s="4">
-        <v>171006</v>
-      </c>
-      <c r="D124" s="5">
-        <v>10</v>
-      </c>
-      <c r="E124" s="5">
-        <v>4</v>
+        <v>173006</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2963,16 +2978,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="6">
-        <v>172006</v>
+        <v>174006</v>
       </c>
       <c r="C125" s="6">
-        <v>172006</v>
-      </c>
-      <c r="D125" s="5">
-        <v>10</v>
-      </c>
-      <c r="E125" s="5">
-        <v>4</v>
+        <v>174006</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -2980,16 +2995,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="4">
-        <v>173006</v>
+        <v>175006</v>
       </c>
       <c r="C126" s="4">
-        <v>173006</v>
-      </c>
-      <c r="D126" s="5">
-        <v>10</v>
-      </c>
-      <c r="E126" s="5">
-        <v>4</v>
+        <v>175006</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -2997,33 +3012,33 @@
         <v>126</v>
       </c>
       <c r="B127" s="6">
-        <v>174006</v>
+        <v>176006</v>
       </c>
       <c r="C127" s="6">
-        <v>174006</v>
-      </c>
-      <c r="D127" s="5">
-        <v>10</v>
-      </c>
-      <c r="E127" s="5">
-        <v>4</v>
+        <v>176006</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="4">
-        <v>175006</v>
-      </c>
-      <c r="C128" s="4">
-        <v>175006</v>
-      </c>
-      <c r="D128" s="5">
-        <v>10</v>
-      </c>
-      <c r="E128" s="5">
-        <v>4</v>
+      <c r="B128" s="6">
+        <v>177006</v>
+      </c>
+      <c r="C128" s="6">
+        <v>177006</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -3031,16 +3046,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="6">
-        <v>176006</v>
+        <v>178006</v>
       </c>
       <c r="C129" s="6">
-        <v>176006</v>
-      </c>
-      <c r="D129" s="5">
-        <v>10</v>
-      </c>
-      <c r="E129" s="5">
-        <v>4</v>
+        <v>178006</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3048,16 +3063,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="6">
-        <v>177006</v>
+        <v>179006</v>
       </c>
       <c r="C130" s="6">
-        <v>177006</v>
-      </c>
-      <c r="D130" s="5">
-        <v>10</v>
-      </c>
-      <c r="E130" s="5">
-        <v>4</v>
+        <v>179006</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3065,16 +3080,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="6">
-        <v>178006</v>
+        <v>181006</v>
       </c>
       <c r="C131" s="6">
-        <v>178006</v>
-      </c>
-      <c r="D131" s="5">
-        <v>10</v>
-      </c>
-      <c r="E131" s="5">
-        <v>4</v>
+        <v>181006</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3082,16 +3097,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="6">
-        <v>179006</v>
+        <v>182006</v>
       </c>
       <c r="C132" s="6">
-        <v>179006</v>
-      </c>
-      <c r="D132" s="5">
-        <v>10</v>
-      </c>
-      <c r="E132" s="5">
-        <v>4</v>
+        <v>182006</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3099,16 +3114,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="6">
-        <v>181006</v>
+        <v>184006</v>
       </c>
       <c r="C133" s="6">
-        <v>181006</v>
-      </c>
-      <c r="D133" s="5">
-        <v>10</v>
-      </c>
-      <c r="E133" s="5">
-        <v>4</v>
+        <v>184006</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3116,16 +3131,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="6">
-        <v>185006</v>
+        <v>186006</v>
       </c>
       <c r="C134" s="6">
-        <v>185006</v>
-      </c>
-      <c r="D134" s="5">
-        <v>10</v>
-      </c>
-      <c r="E134" s="5">
-        <v>4</v>
+        <v>186006</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3133,16 +3148,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="6">
-        <v>184006</v>
+        <v>187006</v>
       </c>
       <c r="C135" s="6">
-        <v>184006</v>
-      </c>
-      <c r="D135" s="5">
-        <v>10</v>
-      </c>
-      <c r="E135" s="5">
-        <v>4</v>
+        <v>187006</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -3150,49 +3165,4571 @@
         <v>135</v>
       </c>
       <c r="B136" s="6">
+        <v>188006</v>
+      </c>
+      <c r="C136" s="6">
+        <v>188006</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>138</v>
+      </c>
+      <c r="B137" s="4">
+        <v>110000</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0</v>
+      </c>
+      <c r="D137" s="5">
+        <v>10</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="3">
+        <v>139</v>
+      </c>
+      <c r="B138" s="4">
+        <v>110001</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0</v>
+      </c>
+      <c r="D138" s="5">
+        <v>10</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="3">
+        <v>140</v>
+      </c>
+      <c r="B139" s="4">
+        <v>110002</v>
+      </c>
+      <c r="C139" s="4">
+        <v>0</v>
+      </c>
+      <c r="D139" s="5">
+        <v>10</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="3">
+        <v>141</v>
+      </c>
+      <c r="B140" s="4">
+        <v>110003</v>
+      </c>
+      <c r="C140" s="4">
+        <v>0</v>
+      </c>
+      <c r="D140" s="5">
+        <v>10</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="3">
+        <v>142</v>
+      </c>
+      <c r="B141" s="4">
+        <v>110004</v>
+      </c>
+      <c r="C141" s="4">
+        <v>0</v>
+      </c>
+      <c r="D141" s="5">
+        <v>10</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>143</v>
+      </c>
+      <c r="B142" s="4">
+        <v>110005</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0</v>
+      </c>
+      <c r="D142" s="5">
+        <v>10</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="3">
+        <v>144</v>
+      </c>
+      <c r="B143" s="4">
+        <v>110006</v>
+      </c>
+      <c r="C143" s="4">
+        <v>0</v>
+      </c>
+      <c r="D143" s="5">
+        <v>10</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>145</v>
+      </c>
+      <c r="B144" s="4">
+        <v>110007</v>
+      </c>
+      <c r="C144" s="4">
+        <v>0</v>
+      </c>
+      <c r="D144" s="5">
+        <v>10</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>146</v>
+      </c>
+      <c r="B145" s="6">
+        <v>120000</v>
+      </c>
+      <c r="C145" s="4">
+        <v>0</v>
+      </c>
+      <c r="D145" s="5">
+        <v>10</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>147</v>
+      </c>
+      <c r="B146" s="6">
+        <v>120001</v>
+      </c>
+      <c r="C146" s="4">
+        <v>0</v>
+      </c>
+      <c r="D146" s="5">
+        <v>10</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>148</v>
+      </c>
+      <c r="B147" s="6">
+        <v>120002</v>
+      </c>
+      <c r="C147" s="4">
+        <v>0</v>
+      </c>
+      <c r="D147" s="5">
+        <v>10</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>149</v>
+      </c>
+      <c r="B148" s="6">
+        <v>120003</v>
+      </c>
+      <c r="C148" s="4">
+        <v>0</v>
+      </c>
+      <c r="D148" s="5">
+        <v>10</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" s="3">
+        <v>150</v>
+      </c>
+      <c r="B149" s="6">
+        <v>120004</v>
+      </c>
+      <c r="C149" s="4">
+        <v>0</v>
+      </c>
+      <c r="D149" s="5">
+        <v>10</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>151</v>
+      </c>
+      <c r="B150" s="6">
+        <v>120005</v>
+      </c>
+      <c r="C150" s="4">
+        <v>0</v>
+      </c>
+      <c r="D150" s="5">
+        <v>10</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>152</v>
+      </c>
+      <c r="B151" s="6">
+        <v>120006</v>
+      </c>
+      <c r="C151" s="4">
+        <v>0</v>
+      </c>
+      <c r="D151" s="5">
+        <v>10</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>153</v>
+      </c>
+      <c r="B152" s="6">
+        <v>120007</v>
+      </c>
+      <c r="C152" s="4">
+        <v>0</v>
+      </c>
+      <c r="D152" s="5">
+        <v>10</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>154</v>
+      </c>
+      <c r="B153" s="4">
+        <v>130000</v>
+      </c>
+      <c r="C153" s="4">
+        <v>0</v>
+      </c>
+      <c r="D153" s="5">
+        <v>10</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>155</v>
+      </c>
+      <c r="B154" s="4">
+        <v>130001</v>
+      </c>
+      <c r="C154" s="4">
+        <v>0</v>
+      </c>
+      <c r="D154" s="5">
+        <v>10</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>156</v>
+      </c>
+      <c r="B155" s="4">
+        <v>130002</v>
+      </c>
+      <c r="C155" s="4">
+        <v>0</v>
+      </c>
+      <c r="D155" s="5">
+        <v>10</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>157</v>
+      </c>
+      <c r="B156" s="4">
+        <v>130003</v>
+      </c>
+      <c r="C156" s="4">
+        <v>0</v>
+      </c>
+      <c r="D156" s="5">
+        <v>10</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>158</v>
+      </c>
+      <c r="B157" s="4">
+        <v>130004</v>
+      </c>
+      <c r="C157" s="4">
+        <v>0</v>
+      </c>
+      <c r="D157" s="5">
+        <v>10</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>159</v>
+      </c>
+      <c r="B158" s="4">
+        <v>130005</v>
+      </c>
+      <c r="C158" s="4">
+        <v>0</v>
+      </c>
+      <c r="D158" s="5">
+        <v>10</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>160</v>
+      </c>
+      <c r="B159" s="4">
+        <v>130006</v>
+      </c>
+      <c r="C159" s="4">
+        <v>0</v>
+      </c>
+      <c r="D159" s="5">
+        <v>10</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>161</v>
+      </c>
+      <c r="B160" s="4">
+        <v>130007</v>
+      </c>
+      <c r="C160" s="4">
+        <v>0</v>
+      </c>
+      <c r="D160" s="5">
+        <v>10</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>162</v>
+      </c>
+      <c r="B161" s="6">
+        <v>140000</v>
+      </c>
+      <c r="C161" s="4">
+        <v>0</v>
+      </c>
+      <c r="D161" s="5">
+        <v>10</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>163</v>
+      </c>
+      <c r="B162" s="6">
+        <v>140001</v>
+      </c>
+      <c r="C162" s="4">
+        <v>0</v>
+      </c>
+      <c r="D162" s="5">
+        <v>10</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>164</v>
+      </c>
+      <c r="B163" s="6">
+        <v>140002</v>
+      </c>
+      <c r="C163" s="4">
+        <v>0</v>
+      </c>
+      <c r="D163" s="5">
+        <v>10</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>165</v>
+      </c>
+      <c r="B164" s="6">
+        <v>140003</v>
+      </c>
+      <c r="C164" s="4">
+        <v>0</v>
+      </c>
+      <c r="D164" s="5">
+        <v>10</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>166</v>
+      </c>
+      <c r="B165" s="6">
+        <v>140004</v>
+      </c>
+      <c r="C165" s="4">
+        <v>0</v>
+      </c>
+      <c r="D165" s="5">
+        <v>10</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>167</v>
+      </c>
+      <c r="B166" s="6">
+        <v>140005</v>
+      </c>
+      <c r="C166" s="4">
+        <v>0</v>
+      </c>
+      <c r="D166" s="5">
+        <v>10</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>168</v>
+      </c>
+      <c r="B167" s="6">
+        <v>140006</v>
+      </c>
+      <c r="C167" s="4">
+        <v>0</v>
+      </c>
+      <c r="D167" s="5">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>169</v>
+      </c>
+      <c r="B168" s="6">
+        <v>140007</v>
+      </c>
+      <c r="C168" s="4">
+        <v>0</v>
+      </c>
+      <c r="D168" s="5">
+        <v>10</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>170</v>
+      </c>
+      <c r="B169" s="4">
+        <v>150000</v>
+      </c>
+      <c r="C169" s="4">
+        <v>0</v>
+      </c>
+      <c r="D169" s="5">
+        <v>10</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>171</v>
+      </c>
+      <c r="B170" s="4">
+        <v>150001</v>
+      </c>
+      <c r="C170" s="4">
+        <v>0</v>
+      </c>
+      <c r="D170" s="5">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>172</v>
+      </c>
+      <c r="B171" s="4">
+        <v>150002</v>
+      </c>
+      <c r="C171" s="4">
+        <v>0</v>
+      </c>
+      <c r="D171" s="5">
+        <v>10</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>173</v>
+      </c>
+      <c r="B172" s="6">
+        <v>150003</v>
+      </c>
+      <c r="C172" s="4">
+        <v>0</v>
+      </c>
+      <c r="D172" s="5">
+        <v>10</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>174</v>
+      </c>
+      <c r="B173" s="4">
+        <v>150004</v>
+      </c>
+      <c r="C173" s="4">
+        <v>0</v>
+      </c>
+      <c r="D173" s="5">
+        <v>10</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>175</v>
+      </c>
+      <c r="B174" s="6">
+        <v>150005</v>
+      </c>
+      <c r="C174" s="4">
+        <v>0</v>
+      </c>
+      <c r="D174" s="5">
+        <v>10</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>176</v>
+      </c>
+      <c r="B175" s="4">
+        <v>150006</v>
+      </c>
+      <c r="C175" s="4">
+        <v>0</v>
+      </c>
+      <c r="D175" s="5">
+        <v>10</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>177</v>
+      </c>
+      <c r="B176" s="6">
+        <v>150007</v>
+      </c>
+      <c r="C176" s="4">
+        <v>0</v>
+      </c>
+      <c r="D176" s="5">
+        <v>10</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>178</v>
+      </c>
+      <c r="B177" s="6">
+        <v>160000</v>
+      </c>
+      <c r="C177" s="4">
+        <v>0</v>
+      </c>
+      <c r="D177" s="5">
+        <v>10</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="3">
+        <v>179</v>
+      </c>
+      <c r="B178" s="6">
+        <v>160001</v>
+      </c>
+      <c r="C178" s="4">
+        <v>0</v>
+      </c>
+      <c r="D178" s="5">
+        <v>10</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="3">
+        <v>180</v>
+      </c>
+      <c r="B179" s="6">
+        <v>160002</v>
+      </c>
+      <c r="C179" s="4">
+        <v>0</v>
+      </c>
+      <c r="D179" s="5">
+        <v>10</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="3">
+        <v>181</v>
+      </c>
+      <c r="B180" s="6">
+        <v>160003</v>
+      </c>
+      <c r="C180" s="4">
+        <v>0</v>
+      </c>
+      <c r="D180" s="5">
+        <v>10</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="3">
+        <v>182</v>
+      </c>
+      <c r="B181" s="6">
+        <v>160004</v>
+      </c>
+      <c r="C181" s="4">
+        <v>0</v>
+      </c>
+      <c r="D181" s="5">
+        <v>10</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" s="3">
+        <v>183</v>
+      </c>
+      <c r="B182" s="6">
+        <v>160005</v>
+      </c>
+      <c r="C182" s="4">
+        <v>0</v>
+      </c>
+      <c r="D182" s="5">
+        <v>10</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" s="3">
+        <v>184</v>
+      </c>
+      <c r="B183" s="6">
+        <v>160006</v>
+      </c>
+      <c r="C183" s="4">
+        <v>0</v>
+      </c>
+      <c r="D183" s="5">
+        <v>10</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184" s="3">
+        <v>185</v>
+      </c>
+      <c r="B184" s="6">
+        <v>160007</v>
+      </c>
+      <c r="C184" s="4">
+        <v>0</v>
+      </c>
+      <c r="D184" s="5">
+        <v>10</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="3">
+        <v>186</v>
+      </c>
+      <c r="B185" s="6">
+        <v>161000</v>
+      </c>
+      <c r="C185" s="4">
+        <v>0</v>
+      </c>
+      <c r="D185" s="5">
+        <v>10</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="3">
+        <v>187</v>
+      </c>
+      <c r="B186" s="6">
+        <v>161001</v>
+      </c>
+      <c r="C186" s="4">
+        <v>0</v>
+      </c>
+      <c r="D186" s="5">
+        <v>10</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="3">
+        <v>188</v>
+      </c>
+      <c r="B187" s="6">
+        <v>161002</v>
+      </c>
+      <c r="C187" s="4">
+        <v>0</v>
+      </c>
+      <c r="D187" s="5">
+        <v>10</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="3">
+        <v>189</v>
+      </c>
+      <c r="B188" s="6">
+        <v>161003</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0</v>
+      </c>
+      <c r="D188" s="5">
+        <v>10</v>
+      </c>
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="3">
+        <v>190</v>
+      </c>
+      <c r="B189" s="6">
+        <v>161004</v>
+      </c>
+      <c r="C189" s="4">
+        <v>0</v>
+      </c>
+      <c r="D189" s="5">
+        <v>10</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="3">
+        <v>191</v>
+      </c>
+      <c r="B190" s="6">
+        <v>161005</v>
+      </c>
+      <c r="C190" s="4">
+        <v>0</v>
+      </c>
+      <c r="D190" s="5">
+        <v>10</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" s="3">
+        <v>192</v>
+      </c>
+      <c r="B191" s="6">
+        <v>161006</v>
+      </c>
+      <c r="C191" s="4">
+        <v>0</v>
+      </c>
+      <c r="D191" s="5">
+        <v>10</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" s="3">
+        <v>193</v>
+      </c>
+      <c r="B192" s="6">
+        <v>161007</v>
+      </c>
+      <c r="C192" s="4">
+        <v>0</v>
+      </c>
+      <c r="D192" s="5">
+        <v>10</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193" s="3">
+        <v>194</v>
+      </c>
+      <c r="B193" s="6">
+        <v>162000</v>
+      </c>
+      <c r="C193" s="4">
+        <v>0</v>
+      </c>
+      <c r="D193" s="5">
+        <v>10</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="3">
+        <v>195</v>
+      </c>
+      <c r="B194" s="6">
+        <v>162001</v>
+      </c>
+      <c r="C194" s="4">
+        <v>0</v>
+      </c>
+      <c r="D194" s="5">
+        <v>10</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="3">
+        <v>196</v>
+      </c>
+      <c r="B195" s="6">
+        <v>162002</v>
+      </c>
+      <c r="C195" s="4">
+        <v>0</v>
+      </c>
+      <c r="D195" s="5">
+        <v>10</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="3">
+        <v>197</v>
+      </c>
+      <c r="B196" s="6">
+        <v>162003</v>
+      </c>
+      <c r="C196" s="4">
+        <v>0</v>
+      </c>
+      <c r="D196" s="5">
+        <v>10</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="3">
+        <v>198</v>
+      </c>
+      <c r="B197" s="6">
+        <v>162004</v>
+      </c>
+      <c r="C197" s="4">
+        <v>0</v>
+      </c>
+      <c r="D197" s="5">
+        <v>10</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" s="3">
+        <v>199</v>
+      </c>
+      <c r="B198" s="6">
+        <v>162005</v>
+      </c>
+      <c r="C198" s="4">
+        <v>0</v>
+      </c>
+      <c r="D198" s="5">
+        <v>10</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" s="3">
+        <v>200</v>
+      </c>
+      <c r="B199" s="6">
+        <v>162006</v>
+      </c>
+      <c r="C199" s="4">
+        <v>0</v>
+      </c>
+      <c r="D199" s="5">
+        <v>10</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="3">
+        <v>201</v>
+      </c>
+      <c r="B200" s="6">
+        <v>162007</v>
+      </c>
+      <c r="C200" s="4">
+        <v>0</v>
+      </c>
+      <c r="D200" s="5">
+        <v>10</v>
+      </c>
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" s="3">
+        <v>202</v>
+      </c>
+      <c r="B201" s="6">
+        <v>163000</v>
+      </c>
+      <c r="C201" s="4">
+        <v>0</v>
+      </c>
+      <c r="D201" s="5">
+        <v>10</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202" s="3">
+        <v>203</v>
+      </c>
+      <c r="B202" s="6">
+        <v>163001</v>
+      </c>
+      <c r="C202" s="4">
+        <v>0</v>
+      </c>
+      <c r="D202" s="5">
+        <v>10</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203" s="3">
+        <v>204</v>
+      </c>
+      <c r="B203" s="6">
+        <v>163002</v>
+      </c>
+      <c r="C203" s="4">
+        <v>0</v>
+      </c>
+      <c r="D203" s="5">
+        <v>10</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204" s="3">
+        <v>205</v>
+      </c>
+      <c r="B204" s="6">
+        <v>163003</v>
+      </c>
+      <c r="C204" s="4">
+        <v>0</v>
+      </c>
+      <c r="D204" s="5">
+        <v>10</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205" s="3">
+        <v>206</v>
+      </c>
+      <c r="B205" s="6">
+        <v>163004</v>
+      </c>
+      <c r="C205" s="4">
+        <v>0</v>
+      </c>
+      <c r="D205" s="5">
+        <v>10</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206" s="3">
+        <v>207</v>
+      </c>
+      <c r="B206" s="6">
+        <v>163005</v>
+      </c>
+      <c r="C206" s="4">
+        <v>0</v>
+      </c>
+      <c r="D206" s="5">
+        <v>10</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207" s="3">
+        <v>208</v>
+      </c>
+      <c r="B207" s="6">
+        <v>163006</v>
+      </c>
+      <c r="C207" s="4">
+        <v>0</v>
+      </c>
+      <c r="D207" s="5">
+        <v>10</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208" s="3">
+        <v>209</v>
+      </c>
+      <c r="B208" s="6">
+        <v>163007</v>
+      </c>
+      <c r="C208" s="4">
+        <v>0</v>
+      </c>
+      <c r="D208" s="5">
+        <v>10</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209" s="3">
+        <v>212</v>
+      </c>
+      <c r="B209" s="15">
+        <v>164002</v>
+      </c>
+      <c r="C209" s="4">
+        <v>0</v>
+      </c>
+      <c r="D209" s="5">
+        <v>10</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210" s="3">
+        <v>213</v>
+      </c>
+      <c r="B210" s="15">
+        <v>164003</v>
+      </c>
+      <c r="C210" s="4">
+        <v>0</v>
+      </c>
+      <c r="D210" s="5">
+        <v>10</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211" s="3">
+        <v>214</v>
+      </c>
+      <c r="B211" s="15">
+        <v>164004</v>
+      </c>
+      <c r="C211" s="4">
+        <v>0</v>
+      </c>
+      <c r="D211" s="5">
+        <v>10</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212" s="3">
+        <v>215</v>
+      </c>
+      <c r="B212" s="15">
+        <v>164005</v>
+      </c>
+      <c r="C212" s="4">
+        <v>0</v>
+      </c>
+      <c r="D212" s="5">
+        <v>10</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213" s="3">
+        <v>216</v>
+      </c>
+      <c r="B213" s="15">
+        <v>164006</v>
+      </c>
+      <c r="C213" s="4">
+        <v>0</v>
+      </c>
+      <c r="D213" s="5">
+        <v>10</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214" s="3">
+        <v>217</v>
+      </c>
+      <c r="B214" s="15">
+        <v>164007</v>
+      </c>
+      <c r="C214" s="4">
+        <v>0</v>
+      </c>
+      <c r="D214" s="5">
+        <v>10</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215" s="3">
+        <v>218</v>
+      </c>
+      <c r="B215" s="15">
+        <v>165000</v>
+      </c>
+      <c r="C215" s="4">
+        <v>0</v>
+      </c>
+      <c r="D215" s="5">
+        <v>10</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216" s="3">
+        <v>219</v>
+      </c>
+      <c r="B216" s="15">
+        <v>165001</v>
+      </c>
+      <c r="C216" s="4">
+        <v>0</v>
+      </c>
+      <c r="D216" s="5">
+        <v>10</v>
+      </c>
+      <c r="E216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217" s="3">
+        <v>220</v>
+      </c>
+      <c r="B217" s="15">
+        <v>165002</v>
+      </c>
+      <c r="C217" s="4">
+        <v>0</v>
+      </c>
+      <c r="D217" s="5">
+        <v>10</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218" s="3">
+        <v>221</v>
+      </c>
+      <c r="B218" s="15">
+        <v>165003</v>
+      </c>
+      <c r="C218" s="4">
+        <v>0</v>
+      </c>
+      <c r="D218" s="5">
+        <v>10</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219" s="3">
+        <v>222</v>
+      </c>
+      <c r="B219" s="15">
+        <v>165004</v>
+      </c>
+      <c r="C219" s="4">
+        <v>0</v>
+      </c>
+      <c r="D219" s="5">
+        <v>10</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220" s="3">
+        <v>223</v>
+      </c>
+      <c r="B220" s="15">
+        <v>165005</v>
+      </c>
+      <c r="C220" s="4">
+        <v>0</v>
+      </c>
+      <c r="D220" s="5">
+        <v>10</v>
+      </c>
+      <c r="E220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221" s="3">
+        <v>224</v>
+      </c>
+      <c r="B221" s="15">
+        <v>165006</v>
+      </c>
+      <c r="C221" s="4">
+        <v>0</v>
+      </c>
+      <c r="D221" s="5">
+        <v>10</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222" s="3">
+        <v>225</v>
+      </c>
+      <c r="B222" s="15">
+        <v>165007</v>
+      </c>
+      <c r="C222" s="4">
+        <v>0</v>
+      </c>
+      <c r="D222" s="5">
+        <v>10</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223" s="3">
+        <v>226</v>
+      </c>
+      <c r="B223" s="15">
+        <v>166000</v>
+      </c>
+      <c r="C223" s="4">
+        <v>0</v>
+      </c>
+      <c r="D223" s="5">
+        <v>10</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224" s="3">
+        <v>227</v>
+      </c>
+      <c r="B224" s="15">
+        <v>166001</v>
+      </c>
+      <c r="C224" s="4">
+        <v>0</v>
+      </c>
+      <c r="D224" s="5">
+        <v>10</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225" s="3">
+        <v>228</v>
+      </c>
+      <c r="B225" s="15">
+        <v>166002</v>
+      </c>
+      <c r="C225" s="4">
+        <v>0</v>
+      </c>
+      <c r="D225" s="5">
+        <v>10</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226" s="3">
+        <v>229</v>
+      </c>
+      <c r="B226" s="15">
+        <v>166003</v>
+      </c>
+      <c r="C226" s="4">
+        <v>0</v>
+      </c>
+      <c r="D226" s="5">
+        <v>10</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227" s="3">
+        <v>230</v>
+      </c>
+      <c r="B227" s="15">
+        <v>166004</v>
+      </c>
+      <c r="C227" s="4">
+        <v>0</v>
+      </c>
+      <c r="D227" s="5">
+        <v>10</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228" s="3">
+        <v>231</v>
+      </c>
+      <c r="B228" s="15">
+        <v>166005</v>
+      </c>
+      <c r="C228" s="4">
+        <v>0</v>
+      </c>
+      <c r="D228" s="5">
+        <v>10</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229" s="3">
+        <v>232</v>
+      </c>
+      <c r="B229" s="15">
+        <v>166006</v>
+      </c>
+      <c r="C229" s="4">
+        <v>0</v>
+      </c>
+      <c r="D229" s="5">
+        <v>10</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A230" s="3">
+        <v>233</v>
+      </c>
+      <c r="B230" s="15">
+        <v>166007</v>
+      </c>
+      <c r="C230" s="4">
+        <v>0</v>
+      </c>
+      <c r="D230" s="5">
+        <v>10</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A231" s="3">
+        <v>234</v>
+      </c>
+      <c r="B231" s="15">
+        <v>167000</v>
+      </c>
+      <c r="C231" s="4">
+        <v>0</v>
+      </c>
+      <c r="D231" s="5">
+        <v>10</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A232" s="3">
+        <v>235</v>
+      </c>
+      <c r="B232" s="15">
+        <v>167001</v>
+      </c>
+      <c r="C232" s="4">
+        <v>0</v>
+      </c>
+      <c r="D232" s="5">
+        <v>10</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A233" s="3">
+        <v>236</v>
+      </c>
+      <c r="B233" s="15">
+        <v>167002</v>
+      </c>
+      <c r="C233" s="4">
+        <v>0</v>
+      </c>
+      <c r="D233" s="5">
+        <v>10</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234" s="3">
+        <v>237</v>
+      </c>
+      <c r="B234" s="15">
+        <v>167003</v>
+      </c>
+      <c r="C234" s="4">
+        <v>0</v>
+      </c>
+      <c r="D234" s="5">
+        <v>10</v>
+      </c>
+      <c r="E234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A235" s="3">
+        <v>238</v>
+      </c>
+      <c r="B235" s="15">
+        <v>167004</v>
+      </c>
+      <c r="C235" s="4">
+        <v>0</v>
+      </c>
+      <c r="D235" s="5">
+        <v>10</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A236" s="3">
+        <v>239</v>
+      </c>
+      <c r="B236" s="15">
+        <v>167005</v>
+      </c>
+      <c r="C236" s="4">
+        <v>0</v>
+      </c>
+      <c r="D236" s="5">
+        <v>10</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A237" s="3">
+        <v>240</v>
+      </c>
+      <c r="B237" s="15">
+        <v>167006</v>
+      </c>
+      <c r="C237" s="4">
+        <v>0</v>
+      </c>
+      <c r="D237" s="5">
+        <v>10</v>
+      </c>
+      <c r="E237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A238" s="3">
+        <v>241</v>
+      </c>
+      <c r="B238" s="15">
+        <v>167007</v>
+      </c>
+      <c r="C238" s="4">
+        <v>0</v>
+      </c>
+      <c r="D238" s="5">
+        <v>10</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A239" s="3">
+        <v>242</v>
+      </c>
+      <c r="B239" s="15">
+        <v>168000</v>
+      </c>
+      <c r="C239" s="4">
+        <v>0</v>
+      </c>
+      <c r="D239" s="5">
+        <v>10</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A240" s="3">
+        <v>243</v>
+      </c>
+      <c r="B240" s="15">
+        <v>168001</v>
+      </c>
+      <c r="C240" s="4">
+        <v>0</v>
+      </c>
+      <c r="D240" s="5">
+        <v>10</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A241" s="3">
+        <v>244</v>
+      </c>
+      <c r="B241" s="15">
+        <v>168002</v>
+      </c>
+      <c r="C241" s="4">
+        <v>0</v>
+      </c>
+      <c r="D241" s="5">
+        <v>10</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A242" s="3">
+        <v>245</v>
+      </c>
+      <c r="B242" s="15">
+        <v>168003</v>
+      </c>
+      <c r="C242" s="4">
+        <v>0</v>
+      </c>
+      <c r="D242" s="5">
+        <v>10</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A243" s="3">
+        <v>246</v>
+      </c>
+      <c r="B243" s="15">
+        <v>168004</v>
+      </c>
+      <c r="C243" s="4">
+        <v>0</v>
+      </c>
+      <c r="D243" s="5">
+        <v>10</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A244" s="3">
+        <v>247</v>
+      </c>
+      <c r="B244" s="15">
+        <v>168005</v>
+      </c>
+      <c r="C244" s="4">
+        <v>0</v>
+      </c>
+      <c r="D244" s="5">
+        <v>10</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A245" s="3">
+        <v>248</v>
+      </c>
+      <c r="B245" s="15">
+        <v>168006</v>
+      </c>
+      <c r="C245" s="4">
+        <v>0</v>
+      </c>
+      <c r="D245" s="5">
+        <v>10</v>
+      </c>
+      <c r="E245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A246" s="3">
+        <v>249</v>
+      </c>
+      <c r="B246" s="15">
+        <v>168007</v>
+      </c>
+      <c r="C246" s="4">
+        <v>0</v>
+      </c>
+      <c r="D246" s="5">
+        <v>10</v>
+      </c>
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A247" s="3">
+        <v>250</v>
+      </c>
+      <c r="B247" s="15">
+        <v>169000</v>
+      </c>
+      <c r="C247" s="4">
+        <v>0</v>
+      </c>
+      <c r="D247" s="5">
+        <v>10</v>
+      </c>
+      <c r="E247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A248" s="3">
+        <v>251</v>
+      </c>
+      <c r="B248" s="15">
+        <v>169001</v>
+      </c>
+      <c r="C248" s="4">
+        <v>0</v>
+      </c>
+      <c r="D248" s="5">
+        <v>10</v>
+      </c>
+      <c r="E248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A249" s="3">
+        <v>252</v>
+      </c>
+      <c r="B249" s="15">
+        <v>169002</v>
+      </c>
+      <c r="C249" s="4">
+        <v>0</v>
+      </c>
+      <c r="D249" s="5">
+        <v>10</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A250" s="3">
+        <v>253</v>
+      </c>
+      <c r="B250" s="15">
+        <v>169003</v>
+      </c>
+      <c r="C250" s="4">
+        <v>0</v>
+      </c>
+      <c r="D250" s="5">
+        <v>10</v>
+      </c>
+      <c r="E250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A251" s="3">
+        <v>254</v>
+      </c>
+      <c r="B251" s="15">
+        <v>169004</v>
+      </c>
+      <c r="C251" s="4">
+        <v>0</v>
+      </c>
+      <c r="D251" s="5">
+        <v>10</v>
+      </c>
+      <c r="E251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A252" s="3">
+        <v>255</v>
+      </c>
+      <c r="B252" s="15">
+        <v>169005</v>
+      </c>
+      <c r="C252" s="4">
+        <v>0</v>
+      </c>
+      <c r="D252" s="5">
+        <v>10</v>
+      </c>
+      <c r="E252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A253" s="3">
+        <v>256</v>
+      </c>
+      <c r="B253" s="15">
+        <v>169006</v>
+      </c>
+      <c r="C253" s="4">
+        <v>0</v>
+      </c>
+      <c r="D253" s="5">
+        <v>10</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A254" s="3">
+        <v>257</v>
+      </c>
+      <c r="B254" s="15">
+        <v>169007</v>
+      </c>
+      <c r="C254" s="4">
+        <v>0</v>
+      </c>
+      <c r="D254" s="5">
+        <v>10</v>
+      </c>
+      <c r="E254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A255" s="3">
+        <v>258</v>
+      </c>
+      <c r="B255" s="4">
+        <v>171006</v>
+      </c>
+      <c r="C255" s="4">
+        <v>0</v>
+      </c>
+      <c r="D255" s="5">
+        <v>10</v>
+      </c>
+      <c r="E255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A256" s="3">
+        <v>259</v>
+      </c>
+      <c r="B256" s="6">
+        <v>172006</v>
+      </c>
+      <c r="C256" s="4">
+        <v>0</v>
+      </c>
+      <c r="D256" s="5">
+        <v>10</v>
+      </c>
+      <c r="E256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A257" s="3">
+        <v>260</v>
+      </c>
+      <c r="B257" s="4">
+        <v>173006</v>
+      </c>
+      <c r="C257" s="4">
+        <v>0</v>
+      </c>
+      <c r="D257" s="5">
+        <v>10</v>
+      </c>
+      <c r="E257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A258" s="3">
+        <v>261</v>
+      </c>
+      <c r="B258" s="6">
+        <v>174006</v>
+      </c>
+      <c r="C258" s="4">
+        <v>0</v>
+      </c>
+      <c r="D258" s="5">
+        <v>10</v>
+      </c>
+      <c r="E258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A259" s="3">
+        <v>262</v>
+      </c>
+      <c r="B259" s="4">
+        <v>175006</v>
+      </c>
+      <c r="C259" s="4">
+        <v>0</v>
+      </c>
+      <c r="D259" s="5">
+        <v>10</v>
+      </c>
+      <c r="E259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A260" s="3">
+        <v>263</v>
+      </c>
+      <c r="B260" s="6">
+        <v>176006</v>
+      </c>
+      <c r="C260" s="4">
+        <v>0</v>
+      </c>
+      <c r="D260" s="5">
+        <v>10</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A261" s="3">
+        <v>264</v>
+      </c>
+      <c r="B261" s="6">
+        <v>177006</v>
+      </c>
+      <c r="C261" s="4">
+        <v>0</v>
+      </c>
+      <c r="D261" s="5">
+        <v>10</v>
+      </c>
+      <c r="E261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A262" s="3">
+        <v>265</v>
+      </c>
+      <c r="B262" s="6">
+        <v>178006</v>
+      </c>
+      <c r="C262" s="4">
+        <v>0</v>
+      </c>
+      <c r="D262" s="5">
+        <v>10</v>
+      </c>
+      <c r="E262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A263" s="3">
+        <v>266</v>
+      </c>
+      <c r="B263" s="6">
+        <v>179006</v>
+      </c>
+      <c r="C263" s="4">
+        <v>0</v>
+      </c>
+      <c r="D263" s="5">
+        <v>10</v>
+      </c>
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A264" s="3">
+        <v>267</v>
+      </c>
+      <c r="B264" s="6">
+        <v>181006</v>
+      </c>
+      <c r="C264" s="4">
+        <v>0</v>
+      </c>
+      <c r="D264" s="5">
+        <v>10</v>
+      </c>
+      <c r="E264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A265" s="3">
+        <v>268</v>
+      </c>
+      <c r="B265" s="6">
+        <v>182006</v>
+      </c>
+      <c r="C265" s="4">
+        <v>0</v>
+      </c>
+      <c r="D265" s="5">
+        <v>10</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A266" s="3">
+        <v>269</v>
+      </c>
+      <c r="B266" s="6">
+        <v>184006</v>
+      </c>
+      <c r="C266" s="4">
+        <v>0</v>
+      </c>
+      <c r="D266" s="5">
+        <v>10</v>
+      </c>
+      <c r="E266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A267" s="3">
+        <v>270</v>
+      </c>
+      <c r="B267" s="6">
         <v>186006</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C267" s="4">
+        <v>0</v>
+      </c>
+      <c r="D267" s="5">
+        <v>10</v>
+      </c>
+      <c r="E267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A268" s="3">
+        <v>271</v>
+      </c>
+      <c r="B268" s="6">
+        <v>187006</v>
+      </c>
+      <c r="C268" s="4">
+        <v>0</v>
+      </c>
+      <c r="D268" s="5">
+        <v>10</v>
+      </c>
+      <c r="E268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A269" s="3">
+        <v>272</v>
+      </c>
+      <c r="B269" s="6">
+        <v>188006</v>
+      </c>
+      <c r="C269" s="4">
+        <v>0</v>
+      </c>
+      <c r="D269" s="5">
+        <v>10</v>
+      </c>
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A270" s="3">
+        <v>273</v>
+      </c>
+      <c r="B270" s="4">
+        <v>110000</v>
+      </c>
+      <c r="C270" s="4">
+        <v>0</v>
+      </c>
+      <c r="D270" s="5">
+        <v>10</v>
+      </c>
+      <c r="E270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A271" s="3">
+        <v>274</v>
+      </c>
+      <c r="B271" s="4">
+        <v>110001</v>
+      </c>
+      <c r="C271" s="4">
+        <v>0</v>
+      </c>
+      <c r="D271" s="5">
+        <v>10</v>
+      </c>
+      <c r="E271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A272" s="3">
+        <v>275</v>
+      </c>
+      <c r="B272" s="4">
+        <v>110002</v>
+      </c>
+      <c r="C272" s="4">
+        <v>0</v>
+      </c>
+      <c r="D272" s="12">
+        <v>0</v>
+      </c>
+      <c r="E272" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A273" s="3">
+        <v>276</v>
+      </c>
+      <c r="B273" s="4">
+        <v>110003</v>
+      </c>
+      <c r="C273" s="4">
+        <v>0</v>
+      </c>
+      <c r="D273" s="12">
+        <v>0</v>
+      </c>
+      <c r="E273" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A274" s="3">
+        <v>277</v>
+      </c>
+      <c r="B274" s="4">
+        <v>110004</v>
+      </c>
+      <c r="C274" s="4">
+        <v>0</v>
+      </c>
+      <c r="D274" s="12">
+        <v>0</v>
+      </c>
+      <c r="E274" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A275" s="3">
+        <v>278</v>
+      </c>
+      <c r="B275" s="4">
+        <v>110005</v>
+      </c>
+      <c r="C275" s="4">
+        <v>0</v>
+      </c>
+      <c r="D275" s="12">
+        <v>0</v>
+      </c>
+      <c r="E275" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A276" s="3">
+        <v>279</v>
+      </c>
+      <c r="B276" s="4">
+        <v>110006</v>
+      </c>
+      <c r="C276" s="4">
+        <v>0</v>
+      </c>
+      <c r="D276" s="12">
+        <v>0</v>
+      </c>
+      <c r="E276" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A277" s="3">
+        <v>280</v>
+      </c>
+      <c r="B277" s="4">
+        <v>110007</v>
+      </c>
+      <c r="C277" s="4">
+        <v>0</v>
+      </c>
+      <c r="D277" s="12">
+        <v>0</v>
+      </c>
+      <c r="E277" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A278" s="3">
+        <v>281</v>
+      </c>
+      <c r="B278" s="6">
+        <v>120000</v>
+      </c>
+      <c r="C278" s="4">
+        <v>0</v>
+      </c>
+      <c r="D278" s="12">
+        <v>0</v>
+      </c>
+      <c r="E278" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A279" s="3">
+        <v>282</v>
+      </c>
+      <c r="B279" s="6">
+        <v>120001</v>
+      </c>
+      <c r="C279" s="4">
+        <v>0</v>
+      </c>
+      <c r="D279" s="12">
+        <v>0</v>
+      </c>
+      <c r="E279" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A280" s="3">
+        <v>283</v>
+      </c>
+      <c r="B280" s="6">
+        <v>120002</v>
+      </c>
+      <c r="C280" s="4">
+        <v>0</v>
+      </c>
+      <c r="D280" s="12">
+        <v>0</v>
+      </c>
+      <c r="E280" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A281" s="3">
+        <v>284</v>
+      </c>
+      <c r="B281" s="6">
+        <v>120003</v>
+      </c>
+      <c r="C281" s="4">
+        <v>0</v>
+      </c>
+      <c r="D281" s="12">
+        <v>0</v>
+      </c>
+      <c r="E281" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A282" s="3">
+        <v>285</v>
+      </c>
+      <c r="B282" s="6">
+        <v>120004</v>
+      </c>
+      <c r="C282" s="4">
+        <v>0</v>
+      </c>
+      <c r="D282" s="12">
+        <v>0</v>
+      </c>
+      <c r="E282" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A283" s="3">
+        <v>286</v>
+      </c>
+      <c r="B283" s="6">
+        <v>120005</v>
+      </c>
+      <c r="C283" s="4">
+        <v>0</v>
+      </c>
+      <c r="D283" s="12">
+        <v>0</v>
+      </c>
+      <c r="E283" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A284" s="3">
+        <v>287</v>
+      </c>
+      <c r="B284" s="6">
+        <v>120006</v>
+      </c>
+      <c r="C284" s="4">
+        <v>0</v>
+      </c>
+      <c r="D284" s="12">
+        <v>0</v>
+      </c>
+      <c r="E284" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A285" s="3">
+        <v>288</v>
+      </c>
+      <c r="B285" s="6">
+        <v>120007</v>
+      </c>
+      <c r="C285" s="4">
+        <v>0</v>
+      </c>
+      <c r="D285" s="12">
+        <v>0</v>
+      </c>
+      <c r="E285" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A286" s="3">
+        <v>289</v>
+      </c>
+      <c r="B286" s="4">
+        <v>130000</v>
+      </c>
+      <c r="C286" s="4">
+        <v>0</v>
+      </c>
+      <c r="D286" s="12">
+        <v>0</v>
+      </c>
+      <c r="E286" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A287" s="3">
+        <v>290</v>
+      </c>
+      <c r="B287" s="4">
+        <v>130001</v>
+      </c>
+      <c r="C287" s="4">
+        <v>0</v>
+      </c>
+      <c r="D287" s="12">
+        <v>0</v>
+      </c>
+      <c r="E287" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A288" s="3">
+        <v>291</v>
+      </c>
+      <c r="B288" s="4">
+        <v>130002</v>
+      </c>
+      <c r="C288" s="4">
+        <v>0</v>
+      </c>
+      <c r="D288" s="12">
+        <v>0</v>
+      </c>
+      <c r="E288" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A289" s="3">
+        <v>292</v>
+      </c>
+      <c r="B289" s="4">
+        <v>130003</v>
+      </c>
+      <c r="C289" s="4">
+        <v>0</v>
+      </c>
+      <c r="D289" s="12">
+        <v>0</v>
+      </c>
+      <c r="E289" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A290" s="3">
+        <v>293</v>
+      </c>
+      <c r="B290" s="4">
+        <v>130004</v>
+      </c>
+      <c r="C290" s="4">
+        <v>0</v>
+      </c>
+      <c r="D290" s="12">
+        <v>0</v>
+      </c>
+      <c r="E290" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A291" s="3">
+        <v>294</v>
+      </c>
+      <c r="B291" s="4">
+        <v>130005</v>
+      </c>
+      <c r="C291" s="4">
+        <v>0</v>
+      </c>
+      <c r="D291" s="12">
+        <v>0</v>
+      </c>
+      <c r="E291" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A292" s="3">
+        <v>295</v>
+      </c>
+      <c r="B292" s="4">
+        <v>130006</v>
+      </c>
+      <c r="C292" s="4">
+        <v>0</v>
+      </c>
+      <c r="D292" s="12">
+        <v>0</v>
+      </c>
+      <c r="E292" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A293" s="3">
+        <v>296</v>
+      </c>
+      <c r="B293" s="4">
+        <v>130007</v>
+      </c>
+      <c r="C293" s="4">
+        <v>0</v>
+      </c>
+      <c r="D293" s="12">
+        <v>0</v>
+      </c>
+      <c r="E293" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A294" s="3">
+        <v>297</v>
+      </c>
+      <c r="B294" s="6">
+        <v>140000</v>
+      </c>
+      <c r="C294" s="4">
+        <v>0</v>
+      </c>
+      <c r="D294" s="12">
+        <v>0</v>
+      </c>
+      <c r="E294" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A295" s="3">
+        <v>298</v>
+      </c>
+      <c r="B295" s="6">
+        <v>140001</v>
+      </c>
+      <c r="C295" s="4">
+        <v>0</v>
+      </c>
+      <c r="D295" s="12">
+        <v>0</v>
+      </c>
+      <c r="E295" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A296" s="3">
+        <v>299</v>
+      </c>
+      <c r="B296" s="6">
+        <v>140002</v>
+      </c>
+      <c r="C296" s="4">
+        <v>0</v>
+      </c>
+      <c r="D296" s="12">
+        <v>0</v>
+      </c>
+      <c r="E296" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A297" s="3">
+        <v>300</v>
+      </c>
+      <c r="B297" s="6">
+        <v>140003</v>
+      </c>
+      <c r="C297" s="4">
+        <v>0</v>
+      </c>
+      <c r="D297" s="12">
+        <v>0</v>
+      </c>
+      <c r="E297" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A298" s="3">
+        <v>301</v>
+      </c>
+      <c r="B298" s="6">
+        <v>140004</v>
+      </c>
+      <c r="C298" s="4">
+        <v>0</v>
+      </c>
+      <c r="D298" s="12">
+        <v>0</v>
+      </c>
+      <c r="E298" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A299" s="3">
+        <v>302</v>
+      </c>
+      <c r="B299" s="6">
+        <v>140005</v>
+      </c>
+      <c r="C299" s="4">
+        <v>0</v>
+      </c>
+      <c r="D299" s="12">
+        <v>0</v>
+      </c>
+      <c r="E299" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A300" s="3">
+        <v>303</v>
+      </c>
+      <c r="B300" s="6">
+        <v>140006</v>
+      </c>
+      <c r="C300" s="4">
+        <v>0</v>
+      </c>
+      <c r="D300" s="12">
+        <v>0</v>
+      </c>
+      <c r="E300" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A301" s="3">
+        <v>304</v>
+      </c>
+      <c r="B301" s="6">
+        <v>140007</v>
+      </c>
+      <c r="C301" s="4">
+        <v>0</v>
+      </c>
+      <c r="D301" s="12">
+        <v>0</v>
+      </c>
+      <c r="E301" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A302" s="3">
+        <v>305</v>
+      </c>
+      <c r="B302" s="4">
+        <v>150000</v>
+      </c>
+      <c r="C302" s="4">
+        <v>0</v>
+      </c>
+      <c r="D302" s="12">
+        <v>0</v>
+      </c>
+      <c r="E302" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A303" s="3">
+        <v>306</v>
+      </c>
+      <c r="B303" s="4">
+        <v>150001</v>
+      </c>
+      <c r="C303" s="4">
+        <v>0</v>
+      </c>
+      <c r="D303" s="12">
+        <v>0</v>
+      </c>
+      <c r="E303" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A304" s="3">
+        <v>307</v>
+      </c>
+      <c r="B304" s="4">
+        <v>150002</v>
+      </c>
+      <c r="C304" s="4">
+        <v>0</v>
+      </c>
+      <c r="D304" s="12">
+        <v>0</v>
+      </c>
+      <c r="E304" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A305" s="3">
+        <v>308</v>
+      </c>
+      <c r="B305" s="6">
+        <v>150003</v>
+      </c>
+      <c r="C305" s="4">
+        <v>0</v>
+      </c>
+      <c r="D305" s="12">
+        <v>0</v>
+      </c>
+      <c r="E305" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A306" s="3">
+        <v>309</v>
+      </c>
+      <c r="B306" s="4">
+        <v>150004</v>
+      </c>
+      <c r="C306" s="4">
+        <v>0</v>
+      </c>
+      <c r="D306" s="12">
+        <v>0</v>
+      </c>
+      <c r="E306" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A307" s="3">
+        <v>310</v>
+      </c>
+      <c r="B307" s="6">
+        <v>150005</v>
+      </c>
+      <c r="C307" s="4">
+        <v>0</v>
+      </c>
+      <c r="D307" s="12">
+        <v>0</v>
+      </c>
+      <c r="E307" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A308" s="3">
+        <v>311</v>
+      </c>
+      <c r="B308" s="4">
+        <v>150006</v>
+      </c>
+      <c r="C308" s="4">
+        <v>0</v>
+      </c>
+      <c r="D308" s="12">
+        <v>0</v>
+      </c>
+      <c r="E308" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A309" s="3">
+        <v>312</v>
+      </c>
+      <c r="B309" s="6">
+        <v>150007</v>
+      </c>
+      <c r="C309" s="4">
+        <v>0</v>
+      </c>
+      <c r="D309" s="12">
+        <v>0</v>
+      </c>
+      <c r="E309" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A310" s="3">
+        <v>313</v>
+      </c>
+      <c r="B310" s="6">
+        <v>160000</v>
+      </c>
+      <c r="C310" s="4">
+        <v>0</v>
+      </c>
+      <c r="D310" s="12">
+        <v>0</v>
+      </c>
+      <c r="E310" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A311" s="3">
+        <v>314</v>
+      </c>
+      <c r="B311" s="6">
+        <v>160001</v>
+      </c>
+      <c r="C311" s="4">
+        <v>0</v>
+      </c>
+      <c r="D311" s="12">
+        <v>0</v>
+      </c>
+      <c r="E311" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A312" s="3">
+        <v>315</v>
+      </c>
+      <c r="B312" s="6">
+        <v>160002</v>
+      </c>
+      <c r="C312" s="4">
+        <v>0</v>
+      </c>
+      <c r="D312" s="12">
+        <v>0</v>
+      </c>
+      <c r="E312" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A313" s="3">
+        <v>316</v>
+      </c>
+      <c r="B313" s="6">
+        <v>160003</v>
+      </c>
+      <c r="C313" s="4">
+        <v>0</v>
+      </c>
+      <c r="D313" s="12">
+        <v>0</v>
+      </c>
+      <c r="E313" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A314" s="3">
+        <v>317</v>
+      </c>
+      <c r="B314" s="6">
+        <v>160004</v>
+      </c>
+      <c r="C314" s="4">
+        <v>0</v>
+      </c>
+      <c r="D314" s="12">
+        <v>0</v>
+      </c>
+      <c r="E314" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A315" s="3">
+        <v>318</v>
+      </c>
+      <c r="B315" s="6">
+        <v>160005</v>
+      </c>
+      <c r="C315" s="4">
+        <v>0</v>
+      </c>
+      <c r="D315" s="12">
+        <v>0</v>
+      </c>
+      <c r="E315" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A316" s="3">
+        <v>319</v>
+      </c>
+      <c r="B316" s="6">
+        <v>160006</v>
+      </c>
+      <c r="C316" s="4">
+        <v>0</v>
+      </c>
+      <c r="D316" s="12">
+        <v>0</v>
+      </c>
+      <c r="E316" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A317" s="3">
+        <v>320</v>
+      </c>
+      <c r="B317" s="6">
+        <v>160007</v>
+      </c>
+      <c r="C317" s="4">
+        <v>0</v>
+      </c>
+      <c r="D317" s="12">
+        <v>0</v>
+      </c>
+      <c r="E317" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A318" s="3">
+        <v>321</v>
+      </c>
+      <c r="B318" s="6">
+        <v>161000</v>
+      </c>
+      <c r="C318" s="4">
+        <v>0</v>
+      </c>
+      <c r="D318" s="12">
+        <v>0</v>
+      </c>
+      <c r="E318" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A319" s="3">
+        <v>322</v>
+      </c>
+      <c r="B319" s="6">
+        <v>161001</v>
+      </c>
+      <c r="C319" s="4">
+        <v>0</v>
+      </c>
+      <c r="D319" s="12">
+        <v>0</v>
+      </c>
+      <c r="E319" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A320" s="3">
+        <v>323</v>
+      </c>
+      <c r="B320" s="6">
+        <v>161002</v>
+      </c>
+      <c r="C320" s="4">
+        <v>0</v>
+      </c>
+      <c r="D320" s="12">
+        <v>0</v>
+      </c>
+      <c r="E320" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A321" s="3">
+        <v>324</v>
+      </c>
+      <c r="B321" s="6">
+        <v>161003</v>
+      </c>
+      <c r="C321" s="4">
+        <v>0</v>
+      </c>
+      <c r="D321" s="12">
+        <v>0</v>
+      </c>
+      <c r="E321" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A322" s="3">
+        <v>325</v>
+      </c>
+      <c r="B322" s="6">
+        <v>161004</v>
+      </c>
+      <c r="C322" s="4">
+        <v>0</v>
+      </c>
+      <c r="D322" s="12">
+        <v>0</v>
+      </c>
+      <c r="E322" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A323" s="3">
+        <v>326</v>
+      </c>
+      <c r="B323" s="6">
+        <v>161005</v>
+      </c>
+      <c r="C323" s="4">
+        <v>0</v>
+      </c>
+      <c r="D323" s="12">
+        <v>0</v>
+      </c>
+      <c r="E323" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A324" s="3">
+        <v>327</v>
+      </c>
+      <c r="B324" s="6">
+        <v>161006</v>
+      </c>
+      <c r="C324" s="4">
+        <v>0</v>
+      </c>
+      <c r="D324" s="12">
+        <v>0</v>
+      </c>
+      <c r="E324" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A325" s="3">
+        <v>328</v>
+      </c>
+      <c r="B325" s="6">
+        <v>161007</v>
+      </c>
+      <c r="C325" s="4">
+        <v>0</v>
+      </c>
+      <c r="D325" s="12">
+        <v>0</v>
+      </c>
+      <c r="E325" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A326" s="3">
+        <v>329</v>
+      </c>
+      <c r="B326" s="6">
+        <v>162000</v>
+      </c>
+      <c r="C326" s="4">
+        <v>0</v>
+      </c>
+      <c r="D326" s="12">
+        <v>0</v>
+      </c>
+      <c r="E326" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A327" s="3">
+        <v>330</v>
+      </c>
+      <c r="B327" s="6">
+        <v>162001</v>
+      </c>
+      <c r="C327" s="4">
+        <v>0</v>
+      </c>
+      <c r="D327" s="12">
+        <v>0</v>
+      </c>
+      <c r="E327" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A328" s="3">
+        <v>331</v>
+      </c>
+      <c r="B328" s="6">
+        <v>162002</v>
+      </c>
+      <c r="C328" s="4">
+        <v>0</v>
+      </c>
+      <c r="D328" s="12">
+        <v>0</v>
+      </c>
+      <c r="E328" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A329" s="3">
+        <v>332</v>
+      </c>
+      <c r="B329" s="6">
+        <v>162003</v>
+      </c>
+      <c r="C329" s="4">
+        <v>0</v>
+      </c>
+      <c r="D329" s="12">
+        <v>0</v>
+      </c>
+      <c r="E329" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A330" s="3">
+        <v>333</v>
+      </c>
+      <c r="B330" s="6">
+        <v>162004</v>
+      </c>
+      <c r="C330" s="4">
+        <v>0</v>
+      </c>
+      <c r="D330" s="12">
+        <v>0</v>
+      </c>
+      <c r="E330" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A331" s="3">
+        <v>334</v>
+      </c>
+      <c r="B331" s="6">
+        <v>162005</v>
+      </c>
+      <c r="C331" s="4">
+        <v>0</v>
+      </c>
+      <c r="D331" s="12">
+        <v>0</v>
+      </c>
+      <c r="E331" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A332" s="3">
+        <v>335</v>
+      </c>
+      <c r="B332" s="6">
+        <v>162006</v>
+      </c>
+      <c r="C332" s="4">
+        <v>0</v>
+      </c>
+      <c r="D332" s="12">
+        <v>0</v>
+      </c>
+      <c r="E332" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A333" s="3">
+        <v>336</v>
+      </c>
+      <c r="B333" s="6">
+        <v>162007</v>
+      </c>
+      <c r="C333" s="4">
+        <v>0</v>
+      </c>
+      <c r="D333" s="12">
+        <v>0</v>
+      </c>
+      <c r="E333" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A334" s="3">
+        <v>337</v>
+      </c>
+      <c r="B334" s="6">
+        <v>163000</v>
+      </c>
+      <c r="C334" s="4">
+        <v>0</v>
+      </c>
+      <c r="D334" s="12">
+        <v>0</v>
+      </c>
+      <c r="E334" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A335" s="3">
+        <v>338</v>
+      </c>
+      <c r="B335" s="6">
+        <v>163001</v>
+      </c>
+      <c r="C335" s="4">
+        <v>0</v>
+      </c>
+      <c r="D335" s="12">
+        <v>0</v>
+      </c>
+      <c r="E335" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A336" s="3">
+        <v>339</v>
+      </c>
+      <c r="B336" s="6">
+        <v>163002</v>
+      </c>
+      <c r="C336" s="4">
+        <v>0</v>
+      </c>
+      <c r="D336" s="12">
+        <v>0</v>
+      </c>
+      <c r="E336" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A337" s="3">
+        <v>340</v>
+      </c>
+      <c r="B337" s="6">
+        <v>163003</v>
+      </c>
+      <c r="C337" s="4">
+        <v>0</v>
+      </c>
+      <c r="D337" s="12">
+        <v>0</v>
+      </c>
+      <c r="E337" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A338" s="3">
+        <v>341</v>
+      </c>
+      <c r="B338" s="6">
+        <v>163004</v>
+      </c>
+      <c r="C338" s="4">
+        <v>0</v>
+      </c>
+      <c r="D338" s="12">
+        <v>0</v>
+      </c>
+      <c r="E338" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A339" s="3">
+        <v>342</v>
+      </c>
+      <c r="B339" s="6">
+        <v>163005</v>
+      </c>
+      <c r="C339" s="4">
+        <v>0</v>
+      </c>
+      <c r="D339" s="12">
+        <v>0</v>
+      </c>
+      <c r="E339" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A340" s="3">
+        <v>343</v>
+      </c>
+      <c r="B340" s="6">
+        <v>163006</v>
+      </c>
+      <c r="C340" s="4">
+        <v>0</v>
+      </c>
+      <c r="D340" s="12">
+        <v>0</v>
+      </c>
+      <c r="E340" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A341" s="3">
+        <v>344</v>
+      </c>
+      <c r="B341" s="6">
+        <v>163007</v>
+      </c>
+      <c r="C341" s="4">
+        <v>0</v>
+      </c>
+      <c r="D341" s="12">
+        <v>0</v>
+      </c>
+      <c r="E341" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A342" s="3">
+        <v>345</v>
+      </c>
+      <c r="B342" s="15">
+        <v>164000</v>
+      </c>
+      <c r="C342" s="4">
+        <v>0</v>
+      </c>
+      <c r="D342" s="12">
+        <v>0</v>
+      </c>
+      <c r="E342" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A343" s="3">
+        <v>346</v>
+      </c>
+      <c r="B343" s="15">
+        <v>164001</v>
+      </c>
+      <c r="C343" s="4">
+        <v>0</v>
+      </c>
+      <c r="D343" s="12">
+        <v>0</v>
+      </c>
+      <c r="E343" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A344" s="3">
+        <v>347</v>
+      </c>
+      <c r="B344" s="15">
+        <v>164002</v>
+      </c>
+      <c r="C344" s="4">
+        <v>0</v>
+      </c>
+      <c r="D344" s="12">
+        <v>0</v>
+      </c>
+      <c r="E344" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A345" s="3">
+        <v>348</v>
+      </c>
+      <c r="B345" s="15">
+        <v>164003</v>
+      </c>
+      <c r="C345" s="4">
+        <v>0</v>
+      </c>
+      <c r="D345" s="12">
+        <v>0</v>
+      </c>
+      <c r="E345" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A346" s="3">
+        <v>349</v>
+      </c>
+      <c r="B346" s="15">
+        <v>164004</v>
+      </c>
+      <c r="C346" s="4">
+        <v>0</v>
+      </c>
+      <c r="D346" s="12">
+        <v>0</v>
+      </c>
+      <c r="E346" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A347" s="3">
+        <v>350</v>
+      </c>
+      <c r="B347" s="15">
+        <v>164005</v>
+      </c>
+      <c r="C347" s="4">
+        <v>0</v>
+      </c>
+      <c r="D347" s="12">
+        <v>0</v>
+      </c>
+      <c r="E347" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A348" s="3">
+        <v>351</v>
+      </c>
+      <c r="B348" s="15">
+        <v>164006</v>
+      </c>
+      <c r="C348" s="4">
+        <v>0</v>
+      </c>
+      <c r="D348" s="12">
+        <v>0</v>
+      </c>
+      <c r="E348" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A349" s="3">
+        <v>352</v>
+      </c>
+      <c r="B349" s="15">
+        <v>164007</v>
+      </c>
+      <c r="C349" s="4">
+        <v>0</v>
+      </c>
+      <c r="D349" s="12">
+        <v>0</v>
+      </c>
+      <c r="E349" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A350" s="3">
+        <v>353</v>
+      </c>
+      <c r="B350" s="15">
+        <v>165000</v>
+      </c>
+      <c r="C350" s="4">
+        <v>0</v>
+      </c>
+      <c r="D350" s="12">
+        <v>0</v>
+      </c>
+      <c r="E350" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A351" s="3">
+        <v>354</v>
+      </c>
+      <c r="B351" s="15">
+        <v>165001</v>
+      </c>
+      <c r="C351" s="4">
+        <v>0</v>
+      </c>
+      <c r="D351" s="12">
+        <v>0</v>
+      </c>
+      <c r="E351" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A352" s="3">
+        <v>355</v>
+      </c>
+      <c r="B352" s="15">
+        <v>165002</v>
+      </c>
+      <c r="C352" s="4">
+        <v>0</v>
+      </c>
+      <c r="D352" s="12">
+        <v>0</v>
+      </c>
+      <c r="E352" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A353" s="3">
+        <v>356</v>
+      </c>
+      <c r="B353" s="15">
+        <v>165003</v>
+      </c>
+      <c r="C353" s="4">
+        <v>0</v>
+      </c>
+      <c r="D353" s="12">
+        <v>0</v>
+      </c>
+      <c r="E353" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A354" s="3">
+        <v>357</v>
+      </c>
+      <c r="B354" s="15">
+        <v>165004</v>
+      </c>
+      <c r="C354" s="4">
+        <v>0</v>
+      </c>
+      <c r="D354" s="12">
+        <v>0</v>
+      </c>
+      <c r="E354" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A355" s="3">
+        <v>358</v>
+      </c>
+      <c r="B355" s="15">
+        <v>165005</v>
+      </c>
+      <c r="C355" s="4">
+        <v>0</v>
+      </c>
+      <c r="D355" s="12">
+        <v>0</v>
+      </c>
+      <c r="E355" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A356" s="3">
+        <v>359</v>
+      </c>
+      <c r="B356" s="15">
+        <v>165006</v>
+      </c>
+      <c r="C356" s="4">
+        <v>0</v>
+      </c>
+      <c r="D356" s="12">
+        <v>0</v>
+      </c>
+      <c r="E356" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A357" s="3">
+        <v>360</v>
+      </c>
+      <c r="B357" s="15">
+        <v>165007</v>
+      </c>
+      <c r="C357" s="4">
+        <v>0</v>
+      </c>
+      <c r="D357" s="12">
+        <v>0</v>
+      </c>
+      <c r="E357" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A358" s="3">
+        <v>361</v>
+      </c>
+      <c r="B358" s="15">
+        <v>166000</v>
+      </c>
+      <c r="C358" s="4">
+        <v>0</v>
+      </c>
+      <c r="D358" s="12">
+        <v>0</v>
+      </c>
+      <c r="E358" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A359" s="3">
+        <v>362</v>
+      </c>
+      <c r="B359" s="15">
+        <v>166001</v>
+      </c>
+      <c r="C359" s="4">
+        <v>0</v>
+      </c>
+      <c r="D359" s="12">
+        <v>0</v>
+      </c>
+      <c r="E359" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A360" s="3">
+        <v>363</v>
+      </c>
+      <c r="B360" s="15">
+        <v>166002</v>
+      </c>
+      <c r="C360" s="4">
+        <v>0</v>
+      </c>
+      <c r="D360" s="12">
+        <v>0</v>
+      </c>
+      <c r="E360" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A361" s="3">
+        <v>364</v>
+      </c>
+      <c r="B361" s="15">
+        <v>166003</v>
+      </c>
+      <c r="C361" s="4">
+        <v>0</v>
+      </c>
+      <c r="D361" s="12">
+        <v>0</v>
+      </c>
+      <c r="E361" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A362" s="3">
+        <v>365</v>
+      </c>
+      <c r="B362" s="15">
+        <v>166004</v>
+      </c>
+      <c r="C362" s="4">
+        <v>0</v>
+      </c>
+      <c r="D362" s="12">
+        <v>0</v>
+      </c>
+      <c r="E362" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A363" s="3">
+        <v>366</v>
+      </c>
+      <c r="B363" s="15">
+        <v>166005</v>
+      </c>
+      <c r="C363" s="4">
+        <v>0</v>
+      </c>
+      <c r="D363" s="12">
+        <v>0</v>
+      </c>
+      <c r="E363" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A364" s="3">
+        <v>367</v>
+      </c>
+      <c r="B364" s="15">
+        <v>166006</v>
+      </c>
+      <c r="C364" s="4">
+        <v>0</v>
+      </c>
+      <c r="D364" s="12">
+        <v>0</v>
+      </c>
+      <c r="E364" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A365" s="3">
+        <v>368</v>
+      </c>
+      <c r="B365" s="15">
+        <v>166007</v>
+      </c>
+      <c r="C365" s="4">
+        <v>0</v>
+      </c>
+      <c r="D365" s="12">
+        <v>0</v>
+      </c>
+      <c r="E365" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A366" s="3">
+        <v>369</v>
+      </c>
+      <c r="B366" s="15">
+        <v>167000</v>
+      </c>
+      <c r="C366" s="4">
+        <v>0</v>
+      </c>
+      <c r="D366" s="12">
+        <v>0</v>
+      </c>
+      <c r="E366" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A367" s="3">
+        <v>370</v>
+      </c>
+      <c r="B367" s="15">
+        <v>167001</v>
+      </c>
+      <c r="C367" s="4">
+        <v>0</v>
+      </c>
+      <c r="D367" s="12">
+        <v>0</v>
+      </c>
+      <c r="E367" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A368" s="3">
+        <v>371</v>
+      </c>
+      <c r="B368" s="15">
+        <v>167002</v>
+      </c>
+      <c r="C368" s="4">
+        <v>0</v>
+      </c>
+      <c r="D368" s="12">
+        <v>0</v>
+      </c>
+      <c r="E368" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A369" s="3">
+        <v>372</v>
+      </c>
+      <c r="B369" s="15">
+        <v>167003</v>
+      </c>
+      <c r="C369" s="4">
+        <v>0</v>
+      </c>
+      <c r="D369" s="12">
+        <v>0</v>
+      </c>
+      <c r="E369" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A370" s="3">
+        <v>373</v>
+      </c>
+      <c r="B370" s="15">
+        <v>167004</v>
+      </c>
+      <c r="C370" s="4">
+        <v>0</v>
+      </c>
+      <c r="D370" s="12">
+        <v>0</v>
+      </c>
+      <c r="E370" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A371" s="3">
+        <v>374</v>
+      </c>
+      <c r="B371" s="15">
+        <v>167005</v>
+      </c>
+      <c r="C371" s="4">
+        <v>0</v>
+      </c>
+      <c r="D371" s="12">
+        <v>0</v>
+      </c>
+      <c r="E371" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A372" s="3">
+        <v>375</v>
+      </c>
+      <c r="B372" s="15">
+        <v>167006</v>
+      </c>
+      <c r="C372" s="4">
+        <v>0</v>
+      </c>
+      <c r="D372" s="12">
+        <v>0</v>
+      </c>
+      <c r="E372" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A373" s="3">
+        <v>376</v>
+      </c>
+      <c r="B373" s="15">
+        <v>167007</v>
+      </c>
+      <c r="C373" s="4">
+        <v>0</v>
+      </c>
+      <c r="D373" s="12">
+        <v>0</v>
+      </c>
+      <c r="E373" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A374" s="3">
+        <v>377</v>
+      </c>
+      <c r="B374" s="15">
+        <v>168000</v>
+      </c>
+      <c r="C374" s="4">
+        <v>0</v>
+      </c>
+      <c r="D374" s="12">
+        <v>0</v>
+      </c>
+      <c r="E374" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A375" s="3">
+        <v>378</v>
+      </c>
+      <c r="B375" s="15">
+        <v>168001</v>
+      </c>
+      <c r="C375" s="4">
+        <v>0</v>
+      </c>
+      <c r="D375" s="12">
+        <v>0</v>
+      </c>
+      <c r="E375" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A376" s="3">
+        <v>379</v>
+      </c>
+      <c r="B376" s="15">
+        <v>168002</v>
+      </c>
+      <c r="C376" s="4">
+        <v>0</v>
+      </c>
+      <c r="D376" s="12">
+        <v>0</v>
+      </c>
+      <c r="E376" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A377" s="3">
+        <v>380</v>
+      </c>
+      <c r="B377" s="15">
+        <v>168003</v>
+      </c>
+      <c r="C377" s="4">
+        <v>0</v>
+      </c>
+      <c r="D377" s="12">
+        <v>0</v>
+      </c>
+      <c r="E377" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A378" s="3">
+        <v>381</v>
+      </c>
+      <c r="B378" s="15">
+        <v>168004</v>
+      </c>
+      <c r="C378" s="4">
+        <v>0</v>
+      </c>
+      <c r="D378" s="12">
+        <v>0</v>
+      </c>
+      <c r="E378" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A379" s="3">
+        <v>382</v>
+      </c>
+      <c r="B379" s="15">
+        <v>168005</v>
+      </c>
+      <c r="C379" s="4">
+        <v>0</v>
+      </c>
+      <c r="D379" s="12">
+        <v>0</v>
+      </c>
+      <c r="E379" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A380" s="3">
+        <v>383</v>
+      </c>
+      <c r="B380" s="15">
+        <v>168006</v>
+      </c>
+      <c r="C380" s="4">
+        <v>0</v>
+      </c>
+      <c r="D380" s="12">
+        <v>0</v>
+      </c>
+      <c r="E380" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A381" s="3">
+        <v>384</v>
+      </c>
+      <c r="B381" s="15">
+        <v>168007</v>
+      </c>
+      <c r="C381" s="4">
+        <v>0</v>
+      </c>
+      <c r="D381" s="12">
+        <v>0</v>
+      </c>
+      <c r="E381" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A382" s="3">
+        <v>385</v>
+      </c>
+      <c r="B382" s="15">
+        <v>169000</v>
+      </c>
+      <c r="C382" s="4">
+        <v>0</v>
+      </c>
+      <c r="D382" s="12">
+        <v>0</v>
+      </c>
+      <c r="E382" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A383" s="3">
+        <v>386</v>
+      </c>
+      <c r="B383" s="15">
+        <v>169001</v>
+      </c>
+      <c r="C383" s="4">
+        <v>0</v>
+      </c>
+      <c r="D383" s="12">
+        <v>0</v>
+      </c>
+      <c r="E383" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A384" s="3">
+        <v>387</v>
+      </c>
+      <c r="B384" s="15">
+        <v>169002</v>
+      </c>
+      <c r="C384" s="4">
+        <v>0</v>
+      </c>
+      <c r="D384" s="12">
+        <v>0</v>
+      </c>
+      <c r="E384" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A385" s="3">
+        <v>388</v>
+      </c>
+      <c r="B385" s="15">
+        <v>169003</v>
+      </c>
+      <c r="C385" s="4">
+        <v>0</v>
+      </c>
+      <c r="D385" s="12">
+        <v>0</v>
+      </c>
+      <c r="E385" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A386" s="3">
+        <v>389</v>
+      </c>
+      <c r="B386" s="15">
+        <v>169004</v>
+      </c>
+      <c r="C386" s="4">
+        <v>0</v>
+      </c>
+      <c r="D386" s="12">
+        <v>0</v>
+      </c>
+      <c r="E386" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A387" s="3">
+        <v>390</v>
+      </c>
+      <c r="B387" s="15">
+        <v>169005</v>
+      </c>
+      <c r="C387" s="4">
+        <v>0</v>
+      </c>
+      <c r="D387" s="12">
+        <v>0</v>
+      </c>
+      <c r="E387" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A388" s="3">
+        <v>391</v>
+      </c>
+      <c r="B388" s="15">
+        <v>169006</v>
+      </c>
+      <c r="C388" s="4">
+        <v>0</v>
+      </c>
+      <c r="D388" s="12">
+        <v>0</v>
+      </c>
+      <c r="E388" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A389" s="3">
+        <v>392</v>
+      </c>
+      <c r="B389" s="15">
+        <v>169007</v>
+      </c>
+      <c r="C389" s="4">
+        <v>0</v>
+      </c>
+      <c r="D389" s="12">
+        <v>0</v>
+      </c>
+      <c r="E389" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A390" s="3">
+        <v>393</v>
+      </c>
+      <c r="B390" s="4">
+        <v>171006</v>
+      </c>
+      <c r="C390" s="4">
+        <v>0</v>
+      </c>
+      <c r="D390" s="12">
+        <v>0</v>
+      </c>
+      <c r="E390" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A391" s="3">
+        <v>394</v>
+      </c>
+      <c r="B391" s="6">
+        <v>172006</v>
+      </c>
+      <c r="C391" s="4">
+        <v>0</v>
+      </c>
+      <c r="D391" s="12">
+        <v>0</v>
+      </c>
+      <c r="E391" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A392" s="3">
+        <v>395</v>
+      </c>
+      <c r="B392" s="4">
+        <v>173006</v>
+      </c>
+      <c r="C392" s="4">
+        <v>0</v>
+      </c>
+      <c r="D392" s="12">
+        <v>0</v>
+      </c>
+      <c r="E392" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A393" s="3">
+        <v>396</v>
+      </c>
+      <c r="B393" s="6">
+        <v>174006</v>
+      </c>
+      <c r="C393" s="4">
+        <v>0</v>
+      </c>
+      <c r="D393" s="12">
+        <v>0</v>
+      </c>
+      <c r="E393" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A394" s="3">
+        <v>397</v>
+      </c>
+      <c r="B394" s="4">
+        <v>175006</v>
+      </c>
+      <c r="C394" s="4">
+        <v>0</v>
+      </c>
+      <c r="D394" s="12">
+        <v>0</v>
+      </c>
+      <c r="E394" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A395" s="3">
+        <v>398</v>
+      </c>
+      <c r="B395" s="6">
+        <v>176006</v>
+      </c>
+      <c r="C395" s="4">
+        <v>0</v>
+      </c>
+      <c r="D395" s="12">
+        <v>0</v>
+      </c>
+      <c r="E395" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A396" s="3">
+        <v>399</v>
+      </c>
+      <c r="B396" s="6">
+        <v>177006</v>
+      </c>
+      <c r="C396" s="4">
+        <v>0</v>
+      </c>
+      <c r="D396" s="12">
+        <v>0</v>
+      </c>
+      <c r="E396" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A397" s="3">
+        <v>400</v>
+      </c>
+      <c r="B397" s="6">
+        <v>178006</v>
+      </c>
+      <c r="C397" s="4">
+        <v>0</v>
+      </c>
+      <c r="D397" s="12">
+        <v>0</v>
+      </c>
+      <c r="E397" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A398" s="3">
+        <v>401</v>
+      </c>
+      <c r="B398" s="6">
+        <v>179006</v>
+      </c>
+      <c r="C398" s="4">
+        <v>0</v>
+      </c>
+      <c r="D398" s="12">
+        <v>0</v>
+      </c>
+      <c r="E398" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A399" s="3">
+        <v>402</v>
+      </c>
+      <c r="B399" s="6">
+        <v>181006</v>
+      </c>
+      <c r="C399" s="4">
+        <v>0</v>
+      </c>
+      <c r="D399" s="12">
+        <v>0</v>
+      </c>
+      <c r="E399" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A400" s="3">
+        <v>403</v>
+      </c>
+      <c r="B400" s="6">
+        <v>182006</v>
+      </c>
+      <c r="C400" s="4">
+        <v>0</v>
+      </c>
+      <c r="D400" s="12">
+        <v>0</v>
+      </c>
+      <c r="E400" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A401" s="3">
+        <v>404</v>
+      </c>
+      <c r="B401" s="6">
+        <v>184006</v>
+      </c>
+      <c r="C401" s="4">
+        <v>0</v>
+      </c>
+      <c r="D401" s="12">
+        <v>0</v>
+      </c>
+      <c r="E401" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A402" s="3">
+        <v>405</v>
+      </c>
+      <c r="B402" s="6">
         <v>186006</v>
       </c>
-      <c r="D136" s="5">
-        <v>10</v>
-      </c>
-      <c r="E136" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="3">
-        <v>136</v>
-      </c>
-      <c r="B137" s="6">
+      <c r="C402" s="4">
+        <v>0</v>
+      </c>
+      <c r="D402" s="12">
+        <v>0</v>
+      </c>
+      <c r="E402" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A403" s="3">
+        <v>406</v>
+      </c>
+      <c r="B403" s="6">
         <v>187006</v>
       </c>
-      <c r="C137" s="6">
-        <v>187006</v>
-      </c>
-      <c r="D137" s="5">
-        <v>10</v>
-      </c>
-      <c r="E137" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="3">
-        <v>137</v>
-      </c>
-      <c r="B138" s="6">
+      <c r="C403" s="4">
+        <v>0</v>
+      </c>
+      <c r="D403" s="12">
+        <v>0</v>
+      </c>
+      <c r="E403" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A404" s="3">
+        <v>407</v>
+      </c>
+      <c r="B404" s="6">
         <v>188006</v>
       </c>
-      <c r="C138" s="6">
-        <v>188006</v>
-      </c>
-      <c r="D138" s="5">
-        <v>10</v>
-      </c>
-      <c r="E138" s="5">
+      <c r="C404" s="4">
+        <v>0</v>
+      </c>
+      <c r="D404" s="12">
+        <v>0</v>
+      </c>
+      <c r="E404" s="5">
         <v>4</v>
       </c>
     </row>

--- a/Table/Table_xls/z装备系统相关配置表/t套装效果表.xlsx
+++ b/Table/Table_xls/z装备系统相关配置表/t套装效果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>套装效果ID</t>
   </si>
@@ -41,12 +41,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -60,32 +60,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -94,56 +71,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,33 +86,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,10 +110,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,31 +247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +271,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,132 +427,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -444,17 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -470,11 +471,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +516,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -528,7 +555,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,8 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,205 +588,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,25 +816,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -819,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,77 +867,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,22 +986,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -987,12 +1023,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="117">
@@ -1115,6 +1145,11 @@
     <cellStyle name="常规 8" xfId="116"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1441,29 +1476,28 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E404"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D357" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D257" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E272" sqref="E272:E404"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.6296296296296" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.6296296296296" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.3796296296296" style="7" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
@@ -3787,11 +3821,11 @@
       <c r="B137" s="17">
         <v>110000</v>
       </c>
-      <c r="C137" s="17">
-        <v>0</v>
-      </c>
-      <c r="D137" s="18">
-        <v>10</v>
+      <c r="C137" s="18">
+        <v>0</v>
+      </c>
+      <c r="D137" s="19">
+        <v>30</v>
       </c>
       <c r="E137" s="16">
         <v>0</v>
@@ -3804,11 +3838,11 @@
       <c r="B138" s="17">
         <v>110001</v>
       </c>
-      <c r="C138" s="17">
-        <v>0</v>
-      </c>
-      <c r="D138" s="18">
-        <v>10</v>
+      <c r="C138" s="18">
+        <v>0</v>
+      </c>
+      <c r="D138" s="19">
+        <v>30</v>
       </c>
       <c r="E138" s="16">
         <v>0</v>
@@ -3821,11 +3855,11 @@
       <c r="B139" s="17">
         <v>110002</v>
       </c>
-      <c r="C139" s="17">
-        <v>0</v>
-      </c>
-      <c r="D139" s="18">
-        <v>10</v>
+      <c r="C139" s="18">
+        <v>0</v>
+      </c>
+      <c r="D139" s="19">
+        <v>30</v>
       </c>
       <c r="E139" s="16">
         <v>0</v>
@@ -3838,11 +3872,11 @@
       <c r="B140" s="17">
         <v>110003</v>
       </c>
-      <c r="C140" s="17">
-        <v>0</v>
-      </c>
-      <c r="D140" s="18">
-        <v>10</v>
+      <c r="C140" s="18">
+        <v>0</v>
+      </c>
+      <c r="D140" s="19">
+        <v>30</v>
       </c>
       <c r="E140" s="16">
         <v>0</v>
@@ -3855,11 +3889,11 @@
       <c r="B141" s="17">
         <v>110004</v>
       </c>
-      <c r="C141" s="17">
-        <v>0</v>
-      </c>
-      <c r="D141" s="18">
-        <v>10</v>
+      <c r="C141" s="18">
+        <v>0</v>
+      </c>
+      <c r="D141" s="19">
+        <v>30</v>
       </c>
       <c r="E141" s="16">
         <v>0</v>
@@ -3872,11 +3906,11 @@
       <c r="B142" s="17">
         <v>110005</v>
       </c>
-      <c r="C142" s="17">
-        <v>0</v>
-      </c>
-      <c r="D142" s="18">
-        <v>10</v>
+      <c r="C142" s="18">
+        <v>0</v>
+      </c>
+      <c r="D142" s="19">
+        <v>30</v>
       </c>
       <c r="E142" s="16">
         <v>0</v>
@@ -3889,11 +3923,11 @@
       <c r="B143" s="17">
         <v>110006</v>
       </c>
-      <c r="C143" s="17">
-        <v>0</v>
-      </c>
-      <c r="D143" s="18">
-        <v>10</v>
+      <c r="C143" s="18">
+        <v>0</v>
+      </c>
+      <c r="D143" s="19">
+        <v>30</v>
       </c>
       <c r="E143" s="16">
         <v>0</v>
@@ -3906,11 +3940,11 @@
       <c r="B144" s="17">
         <v>110007</v>
       </c>
-      <c r="C144" s="17">
-        <v>0</v>
-      </c>
-      <c r="D144" s="18">
-        <v>10</v>
+      <c r="C144" s="18">
+        <v>0</v>
+      </c>
+      <c r="D144" s="19">
+        <v>30</v>
       </c>
       <c r="E144" s="16">
         <v>0</v>
@@ -3920,14 +3954,14 @@
       <c r="A145" s="16">
         <v>146</v>
       </c>
-      <c r="B145" s="19">
+      <c r="B145" s="20">
         <v>120000</v>
       </c>
-      <c r="C145" s="17">
-        <v>0</v>
-      </c>
-      <c r="D145" s="18">
-        <v>10</v>
+      <c r="C145" s="18">
+        <v>0</v>
+      </c>
+      <c r="D145" s="19">
+        <v>30</v>
       </c>
       <c r="E145" s="16">
         <v>0</v>
@@ -3937,14 +3971,14 @@
       <c r="A146" s="16">
         <v>147</v>
       </c>
-      <c r="B146" s="19">
+      <c r="B146" s="20">
         <v>120001</v>
       </c>
-      <c r="C146" s="17">
-        <v>0</v>
-      </c>
-      <c r="D146" s="18">
-        <v>10</v>
+      <c r="C146" s="18">
+        <v>0</v>
+      </c>
+      <c r="D146" s="19">
+        <v>30</v>
       </c>
       <c r="E146" s="16">
         <v>0</v>
@@ -3954,14 +3988,14 @@
       <c r="A147" s="16">
         <v>148</v>
       </c>
-      <c r="B147" s="19">
+      <c r="B147" s="20">
         <v>120002</v>
       </c>
-      <c r="C147" s="17">
-        <v>0</v>
-      </c>
-      <c r="D147" s="18">
-        <v>10</v>
+      <c r="C147" s="18">
+        <v>0</v>
+      </c>
+      <c r="D147" s="19">
+        <v>30</v>
       </c>
       <c r="E147" s="16">
         <v>0</v>
@@ -3971,14 +4005,14 @@
       <c r="A148" s="16">
         <v>149</v>
       </c>
-      <c r="B148" s="19">
+      <c r="B148" s="20">
         <v>120003</v>
       </c>
-      <c r="C148" s="17">
-        <v>0</v>
-      </c>
-      <c r="D148" s="18">
-        <v>10</v>
+      <c r="C148" s="18">
+        <v>0</v>
+      </c>
+      <c r="D148" s="19">
+        <v>30</v>
       </c>
       <c r="E148" s="16">
         <v>0</v>
@@ -3988,14 +4022,14 @@
       <c r="A149" s="16">
         <v>150</v>
       </c>
-      <c r="B149" s="19">
+      <c r="B149" s="20">
         <v>120004</v>
       </c>
-      <c r="C149" s="17">
-        <v>0</v>
-      </c>
-      <c r="D149" s="18">
-        <v>10</v>
+      <c r="C149" s="18">
+        <v>0</v>
+      </c>
+      <c r="D149" s="19">
+        <v>30</v>
       </c>
       <c r="E149" s="16">
         <v>0</v>
@@ -4005,14 +4039,14 @@
       <c r="A150" s="16">
         <v>151</v>
       </c>
-      <c r="B150" s="19">
+      <c r="B150" s="20">
         <v>120005</v>
       </c>
-      <c r="C150" s="17">
-        <v>0</v>
-      </c>
-      <c r="D150" s="18">
-        <v>10</v>
+      <c r="C150" s="18">
+        <v>0</v>
+      </c>
+      <c r="D150" s="19">
+        <v>30</v>
       </c>
       <c r="E150" s="16">
         <v>0</v>
@@ -4022,14 +4056,14 @@
       <c r="A151" s="16">
         <v>152</v>
       </c>
-      <c r="B151" s="19">
+      <c r="B151" s="20">
         <v>120006</v>
       </c>
-      <c r="C151" s="17">
-        <v>0</v>
-      </c>
-      <c r="D151" s="18">
-        <v>10</v>
+      <c r="C151" s="18">
+        <v>0</v>
+      </c>
+      <c r="D151" s="19">
+        <v>30</v>
       </c>
       <c r="E151" s="16">
         <v>0</v>
@@ -4039,14 +4073,14 @@
       <c r="A152" s="16">
         <v>153</v>
       </c>
-      <c r="B152" s="19">
+      <c r="B152" s="20">
         <v>120007</v>
       </c>
-      <c r="C152" s="17">
-        <v>0</v>
-      </c>
-      <c r="D152" s="18">
-        <v>10</v>
+      <c r="C152" s="18">
+        <v>0</v>
+      </c>
+      <c r="D152" s="19">
+        <v>30</v>
       </c>
       <c r="E152" s="16">
         <v>0</v>
@@ -4059,11 +4093,11 @@
       <c r="B153" s="17">
         <v>130000</v>
       </c>
-      <c r="C153" s="17">
-        <v>0</v>
-      </c>
-      <c r="D153" s="18">
-        <v>10</v>
+      <c r="C153" s="18">
+        <v>0</v>
+      </c>
+      <c r="D153" s="19">
+        <v>30</v>
       </c>
       <c r="E153" s="16">
         <v>0</v>
@@ -4076,11 +4110,11 @@
       <c r="B154" s="17">
         <v>130001</v>
       </c>
-      <c r="C154" s="17">
-        <v>0</v>
-      </c>
-      <c r="D154" s="18">
-        <v>10</v>
+      <c r="C154" s="18">
+        <v>0</v>
+      </c>
+      <c r="D154" s="19">
+        <v>30</v>
       </c>
       <c r="E154" s="16">
         <v>0</v>
@@ -4093,11 +4127,11 @@
       <c r="B155" s="17">
         <v>130002</v>
       </c>
-      <c r="C155" s="17">
-        <v>0</v>
-      </c>
-      <c r="D155" s="18">
-        <v>10</v>
+      <c r="C155" s="18">
+        <v>0</v>
+      </c>
+      <c r="D155" s="19">
+        <v>30</v>
       </c>
       <c r="E155" s="16">
         <v>0</v>
@@ -4110,11 +4144,11 @@
       <c r="B156" s="17">
         <v>130003</v>
       </c>
-      <c r="C156" s="17">
-        <v>0</v>
-      </c>
-      <c r="D156" s="18">
-        <v>10</v>
+      <c r="C156" s="18">
+        <v>0</v>
+      </c>
+      <c r="D156" s="19">
+        <v>30</v>
       </c>
       <c r="E156" s="16">
         <v>0</v>
@@ -4127,11 +4161,11 @@
       <c r="B157" s="17">
         <v>130004</v>
       </c>
-      <c r="C157" s="17">
-        <v>0</v>
-      </c>
-      <c r="D157" s="18">
-        <v>10</v>
+      <c r="C157" s="18">
+        <v>0</v>
+      </c>
+      <c r="D157" s="19">
+        <v>30</v>
       </c>
       <c r="E157" s="16">
         <v>0</v>
@@ -4144,11 +4178,11 @@
       <c r="B158" s="17">
         <v>130005</v>
       </c>
-      <c r="C158" s="17">
-        <v>0</v>
-      </c>
-      <c r="D158" s="18">
-        <v>10</v>
+      <c r="C158" s="18">
+        <v>0</v>
+      </c>
+      <c r="D158" s="19">
+        <v>30</v>
       </c>
       <c r="E158" s="16">
         <v>0</v>
@@ -4161,11 +4195,11 @@
       <c r="B159" s="17">
         <v>130006</v>
       </c>
-      <c r="C159" s="17">
-        <v>0</v>
-      </c>
-      <c r="D159" s="18">
-        <v>10</v>
+      <c r="C159" s="18">
+        <v>0</v>
+      </c>
+      <c r="D159" s="19">
+        <v>30</v>
       </c>
       <c r="E159" s="16">
         <v>0</v>
@@ -4178,11 +4212,11 @@
       <c r="B160" s="17">
         <v>130007</v>
       </c>
-      <c r="C160" s="17">
-        <v>0</v>
-      </c>
-      <c r="D160" s="18">
-        <v>10</v>
+      <c r="C160" s="18">
+        <v>0</v>
+      </c>
+      <c r="D160" s="19">
+        <v>30</v>
       </c>
       <c r="E160" s="16">
         <v>0</v>
@@ -4192,14 +4226,14 @@
       <c r="A161" s="16">
         <v>162</v>
       </c>
-      <c r="B161" s="19">
+      <c r="B161" s="20">
         <v>140000</v>
       </c>
-      <c r="C161" s="17">
-        <v>0</v>
-      </c>
-      <c r="D161" s="18">
-        <v>10</v>
+      <c r="C161" s="18">
+        <v>0</v>
+      </c>
+      <c r="D161" s="19">
+        <v>30</v>
       </c>
       <c r="E161" s="16">
         <v>0</v>
@@ -4209,14 +4243,14 @@
       <c r="A162" s="16">
         <v>163</v>
       </c>
-      <c r="B162" s="19">
+      <c r="B162" s="20">
         <v>140001</v>
       </c>
-      <c r="C162" s="17">
-        <v>0</v>
-      </c>
-      <c r="D162" s="18">
-        <v>10</v>
+      <c r="C162" s="18">
+        <v>0</v>
+      </c>
+      <c r="D162" s="19">
+        <v>30</v>
       </c>
       <c r="E162" s="16">
         <v>0</v>
@@ -4226,14 +4260,14 @@
       <c r="A163" s="16">
         <v>164</v>
       </c>
-      <c r="B163" s="19">
+      <c r="B163" s="20">
         <v>140002</v>
       </c>
-      <c r="C163" s="17">
-        <v>0</v>
-      </c>
-      <c r="D163" s="18">
-        <v>10</v>
+      <c r="C163" s="18">
+        <v>0</v>
+      </c>
+      <c r="D163" s="19">
+        <v>30</v>
       </c>
       <c r="E163" s="16">
         <v>0</v>
@@ -4243,14 +4277,14 @@
       <c r="A164" s="16">
         <v>165</v>
       </c>
-      <c r="B164" s="19">
+      <c r="B164" s="20">
         <v>140003</v>
       </c>
-      <c r="C164" s="17">
-        <v>0</v>
-      </c>
-      <c r="D164" s="18">
-        <v>10</v>
+      <c r="C164" s="18">
+        <v>0</v>
+      </c>
+      <c r="D164" s="19">
+        <v>30</v>
       </c>
       <c r="E164" s="16">
         <v>0</v>
@@ -4260,14 +4294,14 @@
       <c r="A165" s="16">
         <v>166</v>
       </c>
-      <c r="B165" s="19">
+      <c r="B165" s="20">
         <v>140004</v>
       </c>
-      <c r="C165" s="17">
-        <v>0</v>
-      </c>
-      <c r="D165" s="18">
-        <v>10</v>
+      <c r="C165" s="18">
+        <v>0</v>
+      </c>
+      <c r="D165" s="19">
+        <v>30</v>
       </c>
       <c r="E165" s="16">
         <v>0</v>
@@ -4277,14 +4311,14 @@
       <c r="A166" s="16">
         <v>167</v>
       </c>
-      <c r="B166" s="19">
+      <c r="B166" s="20">
         <v>140005</v>
       </c>
-      <c r="C166" s="17">
-        <v>0</v>
-      </c>
-      <c r="D166" s="18">
-        <v>10</v>
+      <c r="C166" s="18">
+        <v>0</v>
+      </c>
+      <c r="D166" s="19">
+        <v>30</v>
       </c>
       <c r="E166" s="16">
         <v>0</v>
@@ -4294,14 +4328,14 @@
       <c r="A167" s="16">
         <v>168</v>
       </c>
-      <c r="B167" s="19">
+      <c r="B167" s="20">
         <v>140006</v>
       </c>
-      <c r="C167" s="17">
-        <v>0</v>
-      </c>
-      <c r="D167" s="18">
-        <v>10</v>
+      <c r="C167" s="18">
+        <v>0</v>
+      </c>
+      <c r="D167" s="19">
+        <v>30</v>
       </c>
       <c r="E167" s="16">
         <v>0</v>
@@ -4311,14 +4345,14 @@
       <c r="A168" s="16">
         <v>169</v>
       </c>
-      <c r="B168" s="19">
+      <c r="B168" s="20">
         <v>140007</v>
       </c>
-      <c r="C168" s="17">
-        <v>0</v>
-      </c>
-      <c r="D168" s="18">
-        <v>10</v>
+      <c r="C168" s="18">
+        <v>0</v>
+      </c>
+      <c r="D168" s="19">
+        <v>30</v>
       </c>
       <c r="E168" s="16">
         <v>0</v>
@@ -4331,11 +4365,11 @@
       <c r="B169" s="17">
         <v>150000</v>
       </c>
-      <c r="C169" s="17">
-        <v>0</v>
-      </c>
-      <c r="D169" s="18">
-        <v>10</v>
+      <c r="C169" s="18">
+        <v>0</v>
+      </c>
+      <c r="D169" s="19">
+        <v>30</v>
       </c>
       <c r="E169" s="16">
         <v>0</v>
@@ -4348,11 +4382,11 @@
       <c r="B170" s="17">
         <v>150001</v>
       </c>
-      <c r="C170" s="17">
-        <v>0</v>
-      </c>
-      <c r="D170" s="18">
-        <v>10</v>
+      <c r="C170" s="18">
+        <v>0</v>
+      </c>
+      <c r="D170" s="19">
+        <v>30</v>
       </c>
       <c r="E170" s="16">
         <v>0</v>
@@ -4365,11 +4399,11 @@
       <c r="B171" s="17">
         <v>150002</v>
       </c>
-      <c r="C171" s="17">
-        <v>0</v>
-      </c>
-      <c r="D171" s="18">
-        <v>10</v>
+      <c r="C171" s="18">
+        <v>0</v>
+      </c>
+      <c r="D171" s="19">
+        <v>30</v>
       </c>
       <c r="E171" s="16">
         <v>0</v>
@@ -4379,14 +4413,14 @@
       <c r="A172" s="16">
         <v>173</v>
       </c>
-      <c r="B172" s="19">
+      <c r="B172" s="20">
         <v>150003</v>
       </c>
-      <c r="C172" s="17">
-        <v>0</v>
-      </c>
-      <c r="D172" s="18">
-        <v>10</v>
+      <c r="C172" s="18">
+        <v>0</v>
+      </c>
+      <c r="D172" s="19">
+        <v>30</v>
       </c>
       <c r="E172" s="16">
         <v>0</v>
@@ -4399,11 +4433,11 @@
       <c r="B173" s="17">
         <v>150004</v>
       </c>
-      <c r="C173" s="17">
-        <v>0</v>
-      </c>
-      <c r="D173" s="18">
-        <v>10</v>
+      <c r="C173" s="18">
+        <v>0</v>
+      </c>
+      <c r="D173" s="19">
+        <v>30</v>
       </c>
       <c r="E173" s="16">
         <v>0</v>
@@ -4413,14 +4447,14 @@
       <c r="A174" s="16">
         <v>175</v>
       </c>
-      <c r="B174" s="19">
+      <c r="B174" s="20">
         <v>150005</v>
       </c>
-      <c r="C174" s="17">
-        <v>0</v>
-      </c>
-      <c r="D174" s="18">
-        <v>10</v>
+      <c r="C174" s="18">
+        <v>0</v>
+      </c>
+      <c r="D174" s="19">
+        <v>30</v>
       </c>
       <c r="E174" s="16">
         <v>0</v>
@@ -4433,11 +4467,11 @@
       <c r="B175" s="17">
         <v>150006</v>
       </c>
-      <c r="C175" s="17">
-        <v>0</v>
-      </c>
-      <c r="D175" s="18">
-        <v>10</v>
+      <c r="C175" s="18">
+        <v>0</v>
+      </c>
+      <c r="D175" s="19">
+        <v>30</v>
       </c>
       <c r="E175" s="16">
         <v>0</v>
@@ -4447,14 +4481,14 @@
       <c r="A176" s="16">
         <v>177</v>
       </c>
-      <c r="B176" s="19">
+      <c r="B176" s="20">
         <v>150007</v>
       </c>
-      <c r="C176" s="17">
-        <v>0</v>
-      </c>
-      <c r="D176" s="18">
-        <v>10</v>
+      <c r="C176" s="18">
+        <v>0</v>
+      </c>
+      <c r="D176" s="19">
+        <v>30</v>
       </c>
       <c r="E176" s="16">
         <v>0</v>
@@ -4464,14 +4498,14 @@
       <c r="A177" s="16">
         <v>178</v>
       </c>
-      <c r="B177" s="19">
+      <c r="B177" s="20">
         <v>160000</v>
       </c>
-      <c r="C177" s="17">
-        <v>0</v>
-      </c>
-      <c r="D177" s="18">
-        <v>10</v>
+      <c r="C177" s="18">
+        <v>0</v>
+      </c>
+      <c r="D177" s="19">
+        <v>30</v>
       </c>
       <c r="E177" s="16">
         <v>0</v>
@@ -4481,14 +4515,14 @@
       <c r="A178" s="16">
         <v>179</v>
       </c>
-      <c r="B178" s="19">
+      <c r="B178" s="20">
         <v>160001</v>
       </c>
-      <c r="C178" s="17">
-        <v>0</v>
-      </c>
-      <c r="D178" s="18">
-        <v>10</v>
+      <c r="C178" s="18">
+        <v>0</v>
+      </c>
+      <c r="D178" s="19">
+        <v>30</v>
       </c>
       <c r="E178" s="16">
         <v>0</v>
@@ -4498,14 +4532,14 @@
       <c r="A179" s="16">
         <v>180</v>
       </c>
-      <c r="B179" s="19">
+      <c r="B179" s="20">
         <v>160002</v>
       </c>
-      <c r="C179" s="17">
-        <v>0</v>
-      </c>
-      <c r="D179" s="18">
-        <v>10</v>
+      <c r="C179" s="18">
+        <v>0</v>
+      </c>
+      <c r="D179" s="19">
+        <v>30</v>
       </c>
       <c r="E179" s="16">
         <v>0</v>
@@ -4515,14 +4549,14 @@
       <c r="A180" s="16">
         <v>181</v>
       </c>
-      <c r="B180" s="19">
+      <c r="B180" s="20">
         <v>160003</v>
       </c>
-      <c r="C180" s="17">
-        <v>0</v>
-      </c>
-      <c r="D180" s="18">
-        <v>10</v>
+      <c r="C180" s="18">
+        <v>0</v>
+      </c>
+      <c r="D180" s="19">
+        <v>30</v>
       </c>
       <c r="E180" s="16">
         <v>0</v>
@@ -4532,14 +4566,14 @@
       <c r="A181" s="16">
         <v>182</v>
       </c>
-      <c r="B181" s="19">
+      <c r="B181" s="20">
         <v>160004</v>
       </c>
-      <c r="C181" s="17">
-        <v>0</v>
-      </c>
-      <c r="D181" s="18">
-        <v>10</v>
+      <c r="C181" s="18">
+        <v>0</v>
+      </c>
+      <c r="D181" s="19">
+        <v>30</v>
       </c>
       <c r="E181" s="16">
         <v>0</v>
@@ -4549,14 +4583,14 @@
       <c r="A182" s="16">
         <v>183</v>
       </c>
-      <c r="B182" s="19">
+      <c r="B182" s="20">
         <v>160005</v>
       </c>
-      <c r="C182" s="17">
-        <v>0</v>
-      </c>
-      <c r="D182" s="18">
-        <v>10</v>
+      <c r="C182" s="18">
+        <v>0</v>
+      </c>
+      <c r="D182" s="19">
+        <v>30</v>
       </c>
       <c r="E182" s="16">
         <v>0</v>
@@ -4566,14 +4600,14 @@
       <c r="A183" s="16">
         <v>184</v>
       </c>
-      <c r="B183" s="19">
+      <c r="B183" s="20">
         <v>160006</v>
       </c>
-      <c r="C183" s="17">
-        <v>0</v>
-      </c>
-      <c r="D183" s="18">
-        <v>10</v>
+      <c r="C183" s="18">
+        <v>0</v>
+      </c>
+      <c r="D183" s="19">
+        <v>30</v>
       </c>
       <c r="E183" s="16">
         <v>0</v>
@@ -4583,14 +4617,14 @@
       <c r="A184" s="16">
         <v>185</v>
       </c>
-      <c r="B184" s="19">
+      <c r="B184" s="20">
         <v>160007</v>
       </c>
-      <c r="C184" s="17">
-        <v>0</v>
-      </c>
-      <c r="D184" s="18">
-        <v>10</v>
+      <c r="C184" s="18">
+        <v>0</v>
+      </c>
+      <c r="D184" s="19">
+        <v>30</v>
       </c>
       <c r="E184" s="16">
         <v>0</v>
@@ -4600,14 +4634,14 @@
       <c r="A185" s="16">
         <v>186</v>
       </c>
-      <c r="B185" s="19">
+      <c r="B185" s="20">
         <v>161000</v>
       </c>
-      <c r="C185" s="17">
-        <v>0</v>
-      </c>
-      <c r="D185" s="18">
-        <v>10</v>
+      <c r="C185" s="18">
+        <v>0</v>
+      </c>
+      <c r="D185" s="19">
+        <v>30</v>
       </c>
       <c r="E185" s="16">
         <v>0</v>
@@ -4617,14 +4651,14 @@
       <c r="A186" s="16">
         <v>187</v>
       </c>
-      <c r="B186" s="19">
+      <c r="B186" s="20">
         <v>161001</v>
       </c>
-      <c r="C186" s="17">
-        <v>0</v>
-      </c>
-      <c r="D186" s="18">
-        <v>10</v>
+      <c r="C186" s="18">
+        <v>0</v>
+      </c>
+      <c r="D186" s="19">
+        <v>30</v>
       </c>
       <c r="E186" s="16">
         <v>0</v>
@@ -4634,14 +4668,14 @@
       <c r="A187" s="16">
         <v>188</v>
       </c>
-      <c r="B187" s="19">
+      <c r="B187" s="20">
         <v>161002</v>
       </c>
-      <c r="C187" s="17">
-        <v>0</v>
-      </c>
-      <c r="D187" s="18">
-        <v>10</v>
+      <c r="C187" s="18">
+        <v>0</v>
+      </c>
+      <c r="D187" s="19">
+        <v>30</v>
       </c>
       <c r="E187" s="16">
         <v>0</v>
@@ -4651,14 +4685,14 @@
       <c r="A188" s="16">
         <v>189</v>
       </c>
-      <c r="B188" s="19">
+      <c r="B188" s="20">
         <v>161003</v>
       </c>
-      <c r="C188" s="17">
-        <v>0</v>
-      </c>
-      <c r="D188" s="18">
-        <v>10</v>
+      <c r="C188" s="18">
+        <v>0</v>
+      </c>
+      <c r="D188" s="19">
+        <v>30</v>
       </c>
       <c r="E188" s="16">
         <v>0</v>
@@ -4668,14 +4702,14 @@
       <c r="A189" s="16">
         <v>190</v>
       </c>
-      <c r="B189" s="19">
+      <c r="B189" s="20">
         <v>161004</v>
       </c>
-      <c r="C189" s="17">
-        <v>0</v>
-      </c>
-      <c r="D189" s="18">
-        <v>10</v>
+      <c r="C189" s="18">
+        <v>0</v>
+      </c>
+      <c r="D189" s="19">
+        <v>30</v>
       </c>
       <c r="E189" s="16">
         <v>0</v>
@@ -4685,14 +4719,14 @@
       <c r="A190" s="16">
         <v>191</v>
       </c>
-      <c r="B190" s="19">
+      <c r="B190" s="20">
         <v>161005</v>
       </c>
-      <c r="C190" s="17">
-        <v>0</v>
-      </c>
-      <c r="D190" s="18">
-        <v>10</v>
+      <c r="C190" s="18">
+        <v>0</v>
+      </c>
+      <c r="D190" s="19">
+        <v>30</v>
       </c>
       <c r="E190" s="16">
         <v>0</v>
@@ -4702,14 +4736,14 @@
       <c r="A191" s="16">
         <v>192</v>
       </c>
-      <c r="B191" s="19">
+      <c r="B191" s="20">
         <v>161006</v>
       </c>
-      <c r="C191" s="17">
-        <v>0</v>
-      </c>
-      <c r="D191" s="18">
-        <v>10</v>
+      <c r="C191" s="18">
+        <v>0</v>
+      </c>
+      <c r="D191" s="19">
+        <v>30</v>
       </c>
       <c r="E191" s="16">
         <v>0</v>
@@ -4719,14 +4753,14 @@
       <c r="A192" s="16">
         <v>193</v>
       </c>
-      <c r="B192" s="19">
+      <c r="B192" s="20">
         <v>161007</v>
       </c>
-      <c r="C192" s="17">
-        <v>0</v>
-      </c>
-      <c r="D192" s="18">
-        <v>10</v>
+      <c r="C192" s="18">
+        <v>0</v>
+      </c>
+      <c r="D192" s="19">
+        <v>30</v>
       </c>
       <c r="E192" s="16">
         <v>0</v>
@@ -4736,14 +4770,14 @@
       <c r="A193" s="16">
         <v>194</v>
       </c>
-      <c r="B193" s="19">
+      <c r="B193" s="20">
         <v>162000</v>
       </c>
-      <c r="C193" s="17">
-        <v>0</v>
-      </c>
-      <c r="D193" s="18">
-        <v>10</v>
+      <c r="C193" s="18">
+        <v>0</v>
+      </c>
+      <c r="D193" s="19">
+        <v>30</v>
       </c>
       <c r="E193" s="16">
         <v>0</v>
@@ -4753,14 +4787,14 @@
       <c r="A194" s="16">
         <v>195</v>
       </c>
-      <c r="B194" s="19">
+      <c r="B194" s="20">
         <v>162001</v>
       </c>
-      <c r="C194" s="17">
-        <v>0</v>
-      </c>
-      <c r="D194" s="18">
-        <v>10</v>
+      <c r="C194" s="18">
+        <v>0</v>
+      </c>
+      <c r="D194" s="19">
+        <v>30</v>
       </c>
       <c r="E194" s="16">
         <v>0</v>
@@ -4770,14 +4804,14 @@
       <c r="A195" s="16">
         <v>196</v>
       </c>
-      <c r="B195" s="19">
+      <c r="B195" s="20">
         <v>162002</v>
       </c>
-      <c r="C195" s="17">
-        <v>0</v>
-      </c>
-      <c r="D195" s="18">
-        <v>10</v>
+      <c r="C195" s="18">
+        <v>0</v>
+      </c>
+      <c r="D195" s="19">
+        <v>30</v>
       </c>
       <c r="E195" s="16">
         <v>0</v>
@@ -4787,14 +4821,14 @@
       <c r="A196" s="16">
         <v>197</v>
       </c>
-      <c r="B196" s="19">
+      <c r="B196" s="20">
         <v>162003</v>
       </c>
-      <c r="C196" s="17">
-        <v>0</v>
-      </c>
-      <c r="D196" s="18">
-        <v>10</v>
+      <c r="C196" s="18">
+        <v>0</v>
+      </c>
+      <c r="D196" s="19">
+        <v>30</v>
       </c>
       <c r="E196" s="16">
         <v>0</v>
@@ -4804,14 +4838,14 @@
       <c r="A197" s="16">
         <v>198</v>
       </c>
-      <c r="B197" s="19">
+      <c r="B197" s="20">
         <v>162004</v>
       </c>
-      <c r="C197" s="17">
-        <v>0</v>
-      </c>
-      <c r="D197" s="18">
-        <v>10</v>
+      <c r="C197" s="18">
+        <v>0</v>
+      </c>
+      <c r="D197" s="19">
+        <v>30</v>
       </c>
       <c r="E197" s="16">
         <v>0</v>
@@ -4821,14 +4855,14 @@
       <c r="A198" s="16">
         <v>199</v>
       </c>
-      <c r="B198" s="19">
+      <c r="B198" s="20">
         <v>162005</v>
       </c>
-      <c r="C198" s="17">
-        <v>0</v>
-      </c>
-      <c r="D198" s="18">
-        <v>10</v>
+      <c r="C198" s="18">
+        <v>0</v>
+      </c>
+      <c r="D198" s="19">
+        <v>30</v>
       </c>
       <c r="E198" s="16">
         <v>0</v>
@@ -4838,14 +4872,14 @@
       <c r="A199" s="16">
         <v>200</v>
       </c>
-      <c r="B199" s="19">
+      <c r="B199" s="20">
         <v>162006</v>
       </c>
-      <c r="C199" s="17">
-        <v>0</v>
-      </c>
-      <c r="D199" s="18">
-        <v>10</v>
+      <c r="C199" s="18">
+        <v>0</v>
+      </c>
+      <c r="D199" s="19">
+        <v>30</v>
       </c>
       <c r="E199" s="16">
         <v>0</v>
@@ -4855,14 +4889,14 @@
       <c r="A200" s="16">
         <v>201</v>
       </c>
-      <c r="B200" s="19">
+      <c r="B200" s="20">
         <v>162007</v>
       </c>
-      <c r="C200" s="17">
-        <v>0</v>
-      </c>
-      <c r="D200" s="18">
-        <v>10</v>
+      <c r="C200" s="18">
+        <v>0</v>
+      </c>
+      <c r="D200" s="19">
+        <v>30</v>
       </c>
       <c r="E200" s="16">
         <v>0</v>
@@ -4872,14 +4906,14 @@
       <c r="A201" s="16">
         <v>202</v>
       </c>
-      <c r="B201" s="19">
+      <c r="B201" s="20">
         <v>163000</v>
       </c>
-      <c r="C201" s="17">
-        <v>0</v>
-      </c>
-      <c r="D201" s="18">
-        <v>10</v>
+      <c r="C201" s="18">
+        <v>0</v>
+      </c>
+      <c r="D201" s="19">
+        <v>30</v>
       </c>
       <c r="E201" s="16">
         <v>0</v>
@@ -4889,14 +4923,14 @@
       <c r="A202" s="16">
         <v>203</v>
       </c>
-      <c r="B202" s="19">
+      <c r="B202" s="20">
         <v>163001</v>
       </c>
-      <c r="C202" s="17">
-        <v>0</v>
-      </c>
-      <c r="D202" s="18">
-        <v>10</v>
+      <c r="C202" s="18">
+        <v>0</v>
+      </c>
+      <c r="D202" s="19">
+        <v>30</v>
       </c>
       <c r="E202" s="16">
         <v>0</v>
@@ -4906,14 +4940,14 @@
       <c r="A203" s="16">
         <v>204</v>
       </c>
-      <c r="B203" s="19">
+      <c r="B203" s="20">
         <v>163002</v>
       </c>
-      <c r="C203" s="17">
-        <v>0</v>
-      </c>
-      <c r="D203" s="18">
-        <v>10</v>
+      <c r="C203" s="18">
+        <v>0</v>
+      </c>
+      <c r="D203" s="19">
+        <v>30</v>
       </c>
       <c r="E203" s="16">
         <v>0</v>
@@ -4923,14 +4957,14 @@
       <c r="A204" s="16">
         <v>205</v>
       </c>
-      <c r="B204" s="19">
+      <c r="B204" s="20">
         <v>163003</v>
       </c>
-      <c r="C204" s="17">
-        <v>0</v>
-      </c>
-      <c r="D204" s="18">
-        <v>10</v>
+      <c r="C204" s="18">
+        <v>0</v>
+      </c>
+      <c r="D204" s="19">
+        <v>30</v>
       </c>
       <c r="E204" s="16">
         <v>0</v>
@@ -4940,14 +4974,14 @@
       <c r="A205" s="16">
         <v>206</v>
       </c>
-      <c r="B205" s="19">
+      <c r="B205" s="20">
         <v>163004</v>
       </c>
-      <c r="C205" s="17">
-        <v>0</v>
-      </c>
-      <c r="D205" s="18">
-        <v>10</v>
+      <c r="C205" s="18">
+        <v>0</v>
+      </c>
+      <c r="D205" s="19">
+        <v>30</v>
       </c>
       <c r="E205" s="16">
         <v>0</v>
@@ -4957,14 +4991,14 @@
       <c r="A206" s="16">
         <v>207</v>
       </c>
-      <c r="B206" s="19">
+      <c r="B206" s="20">
         <v>163005</v>
       </c>
-      <c r="C206" s="17">
-        <v>0</v>
-      </c>
-      <c r="D206" s="18">
-        <v>10</v>
+      <c r="C206" s="18">
+        <v>0</v>
+      </c>
+      <c r="D206" s="19">
+        <v>30</v>
       </c>
       <c r="E206" s="16">
         <v>0</v>
@@ -4974,14 +5008,14 @@
       <c r="A207" s="16">
         <v>208</v>
       </c>
-      <c r="B207" s="19">
+      <c r="B207" s="20">
         <v>163006</v>
       </c>
-      <c r="C207" s="17">
-        <v>0</v>
-      </c>
-      <c r="D207" s="18">
-        <v>10</v>
+      <c r="C207" s="18">
+        <v>0</v>
+      </c>
+      <c r="D207" s="19">
+        <v>30</v>
       </c>
       <c r="E207" s="16">
         <v>0</v>
@@ -4991,14 +5025,14 @@
       <c r="A208" s="16">
         <v>209</v>
       </c>
-      <c r="B208" s="19">
+      <c r="B208" s="20">
         <v>163007</v>
       </c>
-      <c r="C208" s="17">
-        <v>0</v>
-      </c>
-      <c r="D208" s="18">
-        <v>10</v>
+      <c r="C208" s="18">
+        <v>0</v>
+      </c>
+      <c r="D208" s="19">
+        <v>30</v>
       </c>
       <c r="E208" s="16">
         <v>0</v>
@@ -5008,14 +5042,14 @@
       <c r="A209" s="16">
         <v>212</v>
       </c>
-      <c r="B209" s="20">
-        <v>164002</v>
-      </c>
-      <c r="C209" s="17">
-        <v>0</v>
-      </c>
-      <c r="D209" s="18">
-        <v>10</v>
+      <c r="B209" s="21">
+        <v>164000</v>
+      </c>
+      <c r="C209" s="18">
+        <v>0</v>
+      </c>
+      <c r="D209" s="19">
+        <v>30</v>
       </c>
       <c r="E209" s="16">
         <v>0</v>
@@ -5025,14 +5059,14 @@
       <c r="A210" s="16">
         <v>213</v>
       </c>
-      <c r="B210" s="20">
-        <v>164003</v>
-      </c>
-      <c r="C210" s="17">
-        <v>0</v>
-      </c>
-      <c r="D210" s="18">
-        <v>10</v>
+      <c r="B210" s="21">
+        <v>164001</v>
+      </c>
+      <c r="C210" s="18">
+        <v>0</v>
+      </c>
+      <c r="D210" s="19">
+        <v>30</v>
       </c>
       <c r="E210" s="16">
         <v>0</v>
@@ -5042,14 +5076,14 @@
       <c r="A211" s="16">
         <v>214</v>
       </c>
-      <c r="B211" s="20">
-        <v>164004</v>
-      </c>
-      <c r="C211" s="17">
-        <v>0</v>
-      </c>
-      <c r="D211" s="18">
-        <v>10</v>
+      <c r="B211" s="21">
+        <v>164002</v>
+      </c>
+      <c r="C211" s="18">
+        <v>0</v>
+      </c>
+      <c r="D211" s="19">
+        <v>30</v>
       </c>
       <c r="E211" s="16">
         <v>0</v>
@@ -5059,14 +5093,14 @@
       <c r="A212" s="16">
         <v>215</v>
       </c>
-      <c r="B212" s="20">
-        <v>164005</v>
-      </c>
-      <c r="C212" s="17">
-        <v>0</v>
-      </c>
-      <c r="D212" s="18">
-        <v>10</v>
+      <c r="B212" s="21">
+        <v>164003</v>
+      </c>
+      <c r="C212" s="18">
+        <v>0</v>
+      </c>
+      <c r="D212" s="19">
+        <v>30</v>
       </c>
       <c r="E212" s="16">
         <v>0</v>
@@ -5076,14 +5110,14 @@
       <c r="A213" s="16">
         <v>216</v>
       </c>
-      <c r="B213" s="20">
-        <v>164006</v>
-      </c>
-      <c r="C213" s="17">
-        <v>0</v>
-      </c>
-      <c r="D213" s="18">
-        <v>10</v>
+      <c r="B213" s="21">
+        <v>164004</v>
+      </c>
+      <c r="C213" s="18">
+        <v>0</v>
+      </c>
+      <c r="D213" s="19">
+        <v>30</v>
       </c>
       <c r="E213" s="16">
         <v>0</v>
@@ -5093,14 +5127,14 @@
       <c r="A214" s="16">
         <v>217</v>
       </c>
-      <c r="B214" s="20">
-        <v>164007</v>
-      </c>
-      <c r="C214" s="17">
-        <v>0</v>
-      </c>
-      <c r="D214" s="18">
-        <v>10</v>
+      <c r="B214" s="21">
+        <v>164005</v>
+      </c>
+      <c r="C214" s="18">
+        <v>0</v>
+      </c>
+      <c r="D214" s="19">
+        <v>30</v>
       </c>
       <c r="E214" s="16">
         <v>0</v>
@@ -5110,14 +5144,14 @@
       <c r="A215" s="16">
         <v>218</v>
       </c>
-      <c r="B215" s="20">
-        <v>165000</v>
-      </c>
-      <c r="C215" s="17">
-        <v>0</v>
-      </c>
-      <c r="D215" s="18">
-        <v>10</v>
+      <c r="B215" s="21">
+        <v>164006</v>
+      </c>
+      <c r="C215" s="18">
+        <v>0</v>
+      </c>
+      <c r="D215" s="19">
+        <v>30</v>
       </c>
       <c r="E215" s="16">
         <v>0</v>
@@ -5127,14 +5161,14 @@
       <c r="A216" s="16">
         <v>219</v>
       </c>
-      <c r="B216" s="20">
-        <v>165001</v>
-      </c>
-      <c r="C216" s="17">
-        <v>0</v>
-      </c>
-      <c r="D216" s="18">
-        <v>10</v>
+      <c r="B216" s="21">
+        <v>164007</v>
+      </c>
+      <c r="C216" s="18">
+        <v>0</v>
+      </c>
+      <c r="D216" s="19">
+        <v>30</v>
       </c>
       <c r="E216" s="16">
         <v>0</v>
@@ -5144,14 +5178,14 @@
       <c r="A217" s="16">
         <v>220</v>
       </c>
-      <c r="B217" s="20">
-        <v>165002</v>
-      </c>
-      <c r="C217" s="17">
-        <v>0</v>
-      </c>
-      <c r="D217" s="18">
-        <v>10</v>
+      <c r="B217" s="21">
+        <v>165000</v>
+      </c>
+      <c r="C217" s="18">
+        <v>0</v>
+      </c>
+      <c r="D217" s="19">
+        <v>30</v>
       </c>
       <c r="E217" s="16">
         <v>0</v>
@@ -5161,14 +5195,14 @@
       <c r="A218" s="16">
         <v>221</v>
       </c>
-      <c r="B218" s="20">
-        <v>165003</v>
-      </c>
-      <c r="C218" s="17">
-        <v>0</v>
-      </c>
-      <c r="D218" s="18">
-        <v>10</v>
+      <c r="B218" s="21">
+        <v>165001</v>
+      </c>
+      <c r="C218" s="18">
+        <v>0</v>
+      </c>
+      <c r="D218" s="19">
+        <v>30</v>
       </c>
       <c r="E218" s="16">
         <v>0</v>
@@ -5178,14 +5212,14 @@
       <c r="A219" s="16">
         <v>222</v>
       </c>
-      <c r="B219" s="20">
-        <v>165004</v>
-      </c>
-      <c r="C219" s="17">
-        <v>0</v>
-      </c>
-      <c r="D219" s="18">
-        <v>10</v>
+      <c r="B219" s="21">
+        <v>165002</v>
+      </c>
+      <c r="C219" s="18">
+        <v>0</v>
+      </c>
+      <c r="D219" s="19">
+        <v>30</v>
       </c>
       <c r="E219" s="16">
         <v>0</v>
@@ -5195,14 +5229,14 @@
       <c r="A220" s="16">
         <v>223</v>
       </c>
-      <c r="B220" s="20">
-        <v>165005</v>
-      </c>
-      <c r="C220" s="17">
-        <v>0</v>
-      </c>
-      <c r="D220" s="18">
-        <v>10</v>
+      <c r="B220" s="21">
+        <v>165003</v>
+      </c>
+      <c r="C220" s="18">
+        <v>0</v>
+      </c>
+      <c r="D220" s="19">
+        <v>30</v>
       </c>
       <c r="E220" s="16">
         <v>0</v>
@@ -5212,14 +5246,14 @@
       <c r="A221" s="16">
         <v>224</v>
       </c>
-      <c r="B221" s="20">
-        <v>165006</v>
-      </c>
-      <c r="C221" s="17">
-        <v>0</v>
-      </c>
-      <c r="D221" s="18">
-        <v>10</v>
+      <c r="B221" s="21">
+        <v>165004</v>
+      </c>
+      <c r="C221" s="18">
+        <v>0</v>
+      </c>
+      <c r="D221" s="19">
+        <v>30</v>
       </c>
       <c r="E221" s="16">
         <v>0</v>
@@ -5229,14 +5263,14 @@
       <c r="A222" s="16">
         <v>225</v>
       </c>
-      <c r="B222" s="20">
-        <v>165007</v>
-      </c>
-      <c r="C222" s="17">
-        <v>0</v>
-      </c>
-      <c r="D222" s="18">
-        <v>10</v>
+      <c r="B222" s="21">
+        <v>165005</v>
+      </c>
+      <c r="C222" s="18">
+        <v>0</v>
+      </c>
+      <c r="D222" s="19">
+        <v>30</v>
       </c>
       <c r="E222" s="16">
         <v>0</v>
@@ -5246,14 +5280,14 @@
       <c r="A223" s="16">
         <v>226</v>
       </c>
-      <c r="B223" s="20">
-        <v>166000</v>
-      </c>
-      <c r="C223" s="17">
-        <v>0</v>
-      </c>
-      <c r="D223" s="18">
-        <v>10</v>
+      <c r="B223" s="21">
+        <v>165006</v>
+      </c>
+      <c r="C223" s="18">
+        <v>0</v>
+      </c>
+      <c r="D223" s="19">
+        <v>30</v>
       </c>
       <c r="E223" s="16">
         <v>0</v>
@@ -5263,14 +5297,14 @@
       <c r="A224" s="16">
         <v>227</v>
       </c>
-      <c r="B224" s="20">
-        <v>166001</v>
-      </c>
-      <c r="C224" s="17">
-        <v>0</v>
-      </c>
-      <c r="D224" s="18">
-        <v>10</v>
+      <c r="B224" s="21">
+        <v>165007</v>
+      </c>
+      <c r="C224" s="18">
+        <v>0</v>
+      </c>
+      <c r="D224" s="19">
+        <v>30</v>
       </c>
       <c r="E224" s="16">
         <v>0</v>
@@ -5280,14 +5314,14 @@
       <c r="A225" s="16">
         <v>228</v>
       </c>
-      <c r="B225" s="20">
-        <v>166002</v>
-      </c>
-      <c r="C225" s="17">
-        <v>0</v>
-      </c>
-      <c r="D225" s="18">
-        <v>10</v>
+      <c r="B225" s="21">
+        <v>166000</v>
+      </c>
+      <c r="C225" s="18">
+        <v>0</v>
+      </c>
+      <c r="D225" s="19">
+        <v>30</v>
       </c>
       <c r="E225" s="16">
         <v>0</v>
@@ -5297,14 +5331,14 @@
       <c r="A226" s="16">
         <v>229</v>
       </c>
-      <c r="B226" s="20">
-        <v>166003</v>
-      </c>
-      <c r="C226" s="17">
-        <v>0</v>
-      </c>
-      <c r="D226" s="18">
-        <v>10</v>
+      <c r="B226" s="21">
+        <v>166001</v>
+      </c>
+      <c r="C226" s="18">
+        <v>0</v>
+      </c>
+      <c r="D226" s="19">
+        <v>30</v>
       </c>
       <c r="E226" s="16">
         <v>0</v>
@@ -5314,14 +5348,14 @@
       <c r="A227" s="16">
         <v>230</v>
       </c>
-      <c r="B227" s="20">
-        <v>166004</v>
-      </c>
-      <c r="C227" s="17">
-        <v>0</v>
-      </c>
-      <c r="D227" s="18">
-        <v>10</v>
+      <c r="B227" s="21">
+        <v>166002</v>
+      </c>
+      <c r="C227" s="18">
+        <v>0</v>
+      </c>
+      <c r="D227" s="19">
+        <v>30</v>
       </c>
       <c r="E227" s="16">
         <v>0</v>
@@ -5331,14 +5365,14 @@
       <c r="A228" s="16">
         <v>231</v>
       </c>
-      <c r="B228" s="20">
-        <v>166005</v>
-      </c>
-      <c r="C228" s="17">
-        <v>0</v>
-      </c>
-      <c r="D228" s="18">
-        <v>10</v>
+      <c r="B228" s="21">
+        <v>166003</v>
+      </c>
+      <c r="C228" s="18">
+        <v>0</v>
+      </c>
+      <c r="D228" s="19">
+        <v>30</v>
       </c>
       <c r="E228" s="16">
         <v>0</v>
@@ -5348,14 +5382,14 @@
       <c r="A229" s="16">
         <v>232</v>
       </c>
-      <c r="B229" s="20">
-        <v>166006</v>
-      </c>
-      <c r="C229" s="17">
-        <v>0</v>
-      </c>
-      <c r="D229" s="18">
-        <v>10</v>
+      <c r="B229" s="21">
+        <v>166004</v>
+      </c>
+      <c r="C229" s="18">
+        <v>0</v>
+      </c>
+      <c r="D229" s="19">
+        <v>30</v>
       </c>
       <c r="E229" s="16">
         <v>0</v>
@@ -5365,14 +5399,14 @@
       <c r="A230" s="16">
         <v>233</v>
       </c>
-      <c r="B230" s="20">
-        <v>166007</v>
-      </c>
-      <c r="C230" s="17">
-        <v>0</v>
-      </c>
-      <c r="D230" s="18">
-        <v>10</v>
+      <c r="B230" s="21">
+        <v>166005</v>
+      </c>
+      <c r="C230" s="18">
+        <v>0</v>
+      </c>
+      <c r="D230" s="19">
+        <v>30</v>
       </c>
       <c r="E230" s="16">
         <v>0</v>
@@ -5382,14 +5416,14 @@
       <c r="A231" s="16">
         <v>234</v>
       </c>
-      <c r="B231" s="20">
-        <v>167000</v>
-      </c>
-      <c r="C231" s="17">
-        <v>0</v>
-      </c>
-      <c r="D231" s="18">
-        <v>10</v>
+      <c r="B231" s="21">
+        <v>166006</v>
+      </c>
+      <c r="C231" s="18">
+        <v>0</v>
+      </c>
+      <c r="D231" s="19">
+        <v>30</v>
       </c>
       <c r="E231" s="16">
         <v>0</v>
@@ -5399,14 +5433,14 @@
       <c r="A232" s="16">
         <v>235</v>
       </c>
-      <c r="B232" s="20">
-        <v>167001</v>
-      </c>
-      <c r="C232" s="17">
-        <v>0</v>
-      </c>
-      <c r="D232" s="18">
-        <v>10</v>
+      <c r="B232" s="21">
+        <v>166007</v>
+      </c>
+      <c r="C232" s="18">
+        <v>0</v>
+      </c>
+      <c r="D232" s="19">
+        <v>30</v>
       </c>
       <c r="E232" s="16">
         <v>0</v>
@@ -5416,14 +5450,14 @@
       <c r="A233" s="16">
         <v>236</v>
       </c>
-      <c r="B233" s="20">
-        <v>167002</v>
-      </c>
-      <c r="C233" s="17">
-        <v>0</v>
-      </c>
-      <c r="D233" s="18">
-        <v>10</v>
+      <c r="B233" s="21">
+        <v>167000</v>
+      </c>
+      <c r="C233" s="18">
+        <v>0</v>
+      </c>
+      <c r="D233" s="19">
+        <v>30</v>
       </c>
       <c r="E233" s="16">
         <v>0</v>
@@ -5433,14 +5467,14 @@
       <c r="A234" s="16">
         <v>237</v>
       </c>
-      <c r="B234" s="20">
-        <v>167003</v>
-      </c>
-      <c r="C234" s="17">
-        <v>0</v>
-      </c>
-      <c r="D234" s="18">
-        <v>10</v>
+      <c r="B234" s="21">
+        <v>167001</v>
+      </c>
+      <c r="C234" s="18">
+        <v>0</v>
+      </c>
+      <c r="D234" s="19">
+        <v>30</v>
       </c>
       <c r="E234" s="16">
         <v>0</v>
@@ -5450,14 +5484,14 @@
       <c r="A235" s="16">
         <v>238</v>
       </c>
-      <c r="B235" s="20">
-        <v>167004</v>
-      </c>
-      <c r="C235" s="17">
-        <v>0</v>
-      </c>
-      <c r="D235" s="18">
-        <v>10</v>
+      <c r="B235" s="21">
+        <v>167002</v>
+      </c>
+      <c r="C235" s="18">
+        <v>0</v>
+      </c>
+      <c r="D235" s="19">
+        <v>30</v>
       </c>
       <c r="E235" s="16">
         <v>0</v>
@@ -5467,14 +5501,14 @@
       <c r="A236" s="16">
         <v>239</v>
       </c>
-      <c r="B236" s="20">
-        <v>167005</v>
-      </c>
-      <c r="C236" s="17">
-        <v>0</v>
-      </c>
-      <c r="D236" s="18">
-        <v>10</v>
+      <c r="B236" s="21">
+        <v>167003</v>
+      </c>
+      <c r="C236" s="18">
+        <v>0</v>
+      </c>
+      <c r="D236" s="19">
+        <v>30</v>
       </c>
       <c r="E236" s="16">
         <v>0</v>
@@ -5484,14 +5518,14 @@
       <c r="A237" s="16">
         <v>240</v>
       </c>
-      <c r="B237" s="20">
-        <v>167006</v>
-      </c>
-      <c r="C237" s="17">
-        <v>0</v>
-      </c>
-      <c r="D237" s="18">
-        <v>10</v>
+      <c r="B237" s="21">
+        <v>167004</v>
+      </c>
+      <c r="C237" s="18">
+        <v>0</v>
+      </c>
+      <c r="D237" s="19">
+        <v>30</v>
       </c>
       <c r="E237" s="16">
         <v>0</v>
@@ -5501,14 +5535,14 @@
       <c r="A238" s="16">
         <v>241</v>
       </c>
-      <c r="B238" s="20">
-        <v>167007</v>
-      </c>
-      <c r="C238" s="17">
-        <v>0</v>
-      </c>
-      <c r="D238" s="18">
-        <v>10</v>
+      <c r="B238" s="21">
+        <v>167005</v>
+      </c>
+      <c r="C238" s="18">
+        <v>0</v>
+      </c>
+      <c r="D238" s="19">
+        <v>30</v>
       </c>
       <c r="E238" s="16">
         <v>0</v>
@@ -5518,14 +5552,14 @@
       <c r="A239" s="16">
         <v>242</v>
       </c>
-      <c r="B239" s="20">
-        <v>168000</v>
-      </c>
-      <c r="C239" s="17">
-        <v>0</v>
-      </c>
-      <c r="D239" s="18">
-        <v>10</v>
+      <c r="B239" s="21">
+        <v>167006</v>
+      </c>
+      <c r="C239" s="18">
+        <v>0</v>
+      </c>
+      <c r="D239" s="19">
+        <v>30</v>
       </c>
       <c r="E239" s="16">
         <v>0</v>
@@ -5535,14 +5569,14 @@
       <c r="A240" s="16">
         <v>243</v>
       </c>
-      <c r="B240" s="20">
-        <v>168001</v>
-      </c>
-      <c r="C240" s="17">
-        <v>0</v>
-      </c>
-      <c r="D240" s="18">
-        <v>10</v>
+      <c r="B240" s="21">
+        <v>167007</v>
+      </c>
+      <c r="C240" s="18">
+        <v>0</v>
+      </c>
+      <c r="D240" s="19">
+        <v>30</v>
       </c>
       <c r="E240" s="16">
         <v>0</v>
@@ -5552,14 +5586,14 @@
       <c r="A241" s="16">
         <v>244</v>
       </c>
-      <c r="B241" s="20">
-        <v>168002</v>
-      </c>
-      <c r="C241" s="17">
-        <v>0</v>
-      </c>
-      <c r="D241" s="18">
-        <v>10</v>
+      <c r="B241" s="21">
+        <v>168000</v>
+      </c>
+      <c r="C241" s="18">
+        <v>0</v>
+      </c>
+      <c r="D241" s="19">
+        <v>30</v>
       </c>
       <c r="E241" s="16">
         <v>0</v>
@@ -5569,14 +5603,14 @@
       <c r="A242" s="16">
         <v>245</v>
       </c>
-      <c r="B242" s="20">
-        <v>168003</v>
-      </c>
-      <c r="C242" s="17">
-        <v>0</v>
-      </c>
-      <c r="D242" s="18">
-        <v>10</v>
+      <c r="B242" s="21">
+        <v>168001</v>
+      </c>
+      <c r="C242" s="18">
+        <v>0</v>
+      </c>
+      <c r="D242" s="19">
+        <v>30</v>
       </c>
       <c r="E242" s="16">
         <v>0</v>
@@ -5586,14 +5620,14 @@
       <c r="A243" s="16">
         <v>246</v>
       </c>
-      <c r="B243" s="20">
-        <v>168004</v>
-      </c>
-      <c r="C243" s="17">
-        <v>0</v>
-      </c>
-      <c r="D243" s="18">
-        <v>10</v>
+      <c r="B243" s="21">
+        <v>168002</v>
+      </c>
+      <c r="C243" s="18">
+        <v>0</v>
+      </c>
+      <c r="D243" s="19">
+        <v>30</v>
       </c>
       <c r="E243" s="16">
         <v>0</v>
@@ -5603,14 +5637,14 @@
       <c r="A244" s="16">
         <v>247</v>
       </c>
-      <c r="B244" s="20">
-        <v>168005</v>
-      </c>
-      <c r="C244" s="17">
-        <v>0</v>
-      </c>
-      <c r="D244" s="18">
-        <v>10</v>
+      <c r="B244" s="21">
+        <v>168003</v>
+      </c>
+      <c r="C244" s="18">
+        <v>0</v>
+      </c>
+      <c r="D244" s="19">
+        <v>30</v>
       </c>
       <c r="E244" s="16">
         <v>0</v>
@@ -5620,14 +5654,14 @@
       <c r="A245" s="16">
         <v>248</v>
       </c>
-      <c r="B245" s="20">
-        <v>168006</v>
-      </c>
-      <c r="C245" s="17">
-        <v>0</v>
-      </c>
-      <c r="D245" s="18">
-        <v>10</v>
+      <c r="B245" s="21">
+        <v>168004</v>
+      </c>
+      <c r="C245" s="18">
+        <v>0</v>
+      </c>
+      <c r="D245" s="19">
+        <v>30</v>
       </c>
       <c r="E245" s="16">
         <v>0</v>
@@ -5637,14 +5671,14 @@
       <c r="A246" s="16">
         <v>249</v>
       </c>
-      <c r="B246" s="20">
-        <v>168007</v>
-      </c>
-      <c r="C246" s="17">
-        <v>0</v>
-      </c>
-      <c r="D246" s="18">
-        <v>10</v>
+      <c r="B246" s="21">
+        <v>168005</v>
+      </c>
+      <c r="C246" s="18">
+        <v>0</v>
+      </c>
+      <c r="D246" s="19">
+        <v>30</v>
       </c>
       <c r="E246" s="16">
         <v>0</v>
@@ -5654,14 +5688,14 @@
       <c r="A247" s="16">
         <v>250</v>
       </c>
-      <c r="B247" s="20">
-        <v>169000</v>
-      </c>
-      <c r="C247" s="17">
-        <v>0</v>
-      </c>
-      <c r="D247" s="18">
-        <v>10</v>
+      <c r="B247" s="21">
+        <v>168006</v>
+      </c>
+      <c r="C247" s="18">
+        <v>0</v>
+      </c>
+      <c r="D247" s="19">
+        <v>30</v>
       </c>
       <c r="E247" s="16">
         <v>0</v>
@@ -5671,14 +5705,14 @@
       <c r="A248" s="16">
         <v>251</v>
       </c>
-      <c r="B248" s="20">
-        <v>169001</v>
-      </c>
-      <c r="C248" s="17">
-        <v>0</v>
-      </c>
-      <c r="D248" s="18">
-        <v>10</v>
+      <c r="B248" s="21">
+        <v>168007</v>
+      </c>
+      <c r="C248" s="18">
+        <v>0</v>
+      </c>
+      <c r="D248" s="19">
+        <v>30</v>
       </c>
       <c r="E248" s="16">
         <v>0</v>
@@ -5688,14 +5722,14 @@
       <c r="A249" s="16">
         <v>252</v>
       </c>
-      <c r="B249" s="20">
-        <v>169002</v>
-      </c>
-      <c r="C249" s="17">
-        <v>0</v>
-      </c>
-      <c r="D249" s="18">
-        <v>10</v>
+      <c r="B249" s="21">
+        <v>169000</v>
+      </c>
+      <c r="C249" s="18">
+        <v>0</v>
+      </c>
+      <c r="D249" s="19">
+        <v>30</v>
       </c>
       <c r="E249" s="16">
         <v>0</v>
@@ -5705,14 +5739,14 @@
       <c r="A250" s="16">
         <v>253</v>
       </c>
-      <c r="B250" s="20">
-        <v>169003</v>
-      </c>
-      <c r="C250" s="17">
-        <v>0</v>
-      </c>
-      <c r="D250" s="18">
-        <v>10</v>
+      <c r="B250" s="21">
+        <v>169001</v>
+      </c>
+      <c r="C250" s="18">
+        <v>0</v>
+      </c>
+      <c r="D250" s="19">
+        <v>30</v>
       </c>
       <c r="E250" s="16">
         <v>0</v>
@@ -5722,14 +5756,14 @@
       <c r="A251" s="16">
         <v>254</v>
       </c>
-      <c r="B251" s="20">
-        <v>169004</v>
-      </c>
-      <c r="C251" s="17">
-        <v>0</v>
-      </c>
-      <c r="D251" s="18">
-        <v>10</v>
+      <c r="B251" s="21">
+        <v>169002</v>
+      </c>
+      <c r="C251" s="18">
+        <v>0</v>
+      </c>
+      <c r="D251" s="19">
+        <v>30</v>
       </c>
       <c r="E251" s="16">
         <v>0</v>
@@ -5739,14 +5773,14 @@
       <c r="A252" s="16">
         <v>255</v>
       </c>
-      <c r="B252" s="20">
-        <v>169005</v>
-      </c>
-      <c r="C252" s="17">
-        <v>0</v>
-      </c>
-      <c r="D252" s="18">
-        <v>10</v>
+      <c r="B252" s="21">
+        <v>169003</v>
+      </c>
+      <c r="C252" s="18">
+        <v>0</v>
+      </c>
+      <c r="D252" s="19">
+        <v>30</v>
       </c>
       <c r="E252" s="16">
         <v>0</v>
@@ -5756,14 +5790,14 @@
       <c r="A253" s="16">
         <v>256</v>
       </c>
-      <c r="B253" s="20">
-        <v>169006</v>
-      </c>
-      <c r="C253" s="17">
-        <v>0</v>
-      </c>
-      <c r="D253" s="18">
-        <v>10</v>
+      <c r="B253" s="21">
+        <v>169004</v>
+      </c>
+      <c r="C253" s="18">
+        <v>0</v>
+      </c>
+      <c r="D253" s="19">
+        <v>30</v>
       </c>
       <c r="E253" s="16">
         <v>0</v>
@@ -5773,14 +5807,14 @@
       <c r="A254" s="16">
         <v>257</v>
       </c>
-      <c r="B254" s="20">
-        <v>169007</v>
-      </c>
-      <c r="C254" s="17">
-        <v>0</v>
-      </c>
-      <c r="D254" s="18">
-        <v>10</v>
+      <c r="B254" s="21">
+        <v>169005</v>
+      </c>
+      <c r="C254" s="18">
+        <v>0</v>
+      </c>
+      <c r="D254" s="19">
+        <v>30</v>
       </c>
       <c r="E254" s="16">
         <v>0</v>
@@ -5790,14 +5824,14 @@
       <c r="A255" s="16">
         <v>258</v>
       </c>
-      <c r="B255" s="17">
-        <v>171006</v>
-      </c>
-      <c r="C255" s="17">
-        <v>0</v>
-      </c>
-      <c r="D255" s="18">
-        <v>10</v>
+      <c r="B255" s="21">
+        <v>169006</v>
+      </c>
+      <c r="C255" s="18">
+        <v>0</v>
+      </c>
+      <c r="D255" s="19">
+        <v>30</v>
       </c>
       <c r="E255" s="16">
         <v>0</v>
@@ -5807,14 +5841,14 @@
       <c r="A256" s="16">
         <v>259</v>
       </c>
-      <c r="B256" s="19">
-        <v>172006</v>
-      </c>
-      <c r="C256" s="17">
-        <v>0</v>
-      </c>
-      <c r="D256" s="18">
-        <v>10</v>
+      <c r="B256" s="21">
+        <v>169007</v>
+      </c>
+      <c r="C256" s="18">
+        <v>0</v>
+      </c>
+      <c r="D256" s="19">
+        <v>30</v>
       </c>
       <c r="E256" s="16">
         <v>0</v>
@@ -5824,14 +5858,14 @@
       <c r="A257" s="16">
         <v>260</v>
       </c>
-      <c r="B257" s="17">
-        <v>173006</v>
-      </c>
-      <c r="C257" s="17">
-        <v>0</v>
-      </c>
-      <c r="D257" s="18">
-        <v>10</v>
+      <c r="B257" s="22">
+        <v>171006</v>
+      </c>
+      <c r="C257" s="18">
+        <v>0</v>
+      </c>
+      <c r="D257" s="19">
+        <v>30</v>
       </c>
       <c r="E257" s="16">
         <v>0</v>
@@ -5841,14 +5875,14 @@
       <c r="A258" s="16">
         <v>261</v>
       </c>
-      <c r="B258" s="19">
-        <v>174006</v>
-      </c>
-      <c r="C258" s="17">
-        <v>0</v>
-      </c>
-      <c r="D258" s="18">
-        <v>10</v>
+      <c r="B258" s="23">
+        <v>172006</v>
+      </c>
+      <c r="C258" s="18">
+        <v>0</v>
+      </c>
+      <c r="D258" s="19">
+        <v>30</v>
       </c>
       <c r="E258" s="16">
         <v>0</v>
@@ -5858,14 +5892,14 @@
       <c r="A259" s="16">
         <v>262</v>
       </c>
-      <c r="B259" s="17">
-        <v>175006</v>
-      </c>
-      <c r="C259" s="17">
-        <v>0</v>
-      </c>
-      <c r="D259" s="18">
-        <v>10</v>
+      <c r="B259" s="22">
+        <v>173006</v>
+      </c>
+      <c r="C259" s="18">
+        <v>0</v>
+      </c>
+      <c r="D259" s="19">
+        <v>30</v>
       </c>
       <c r="E259" s="16">
         <v>0</v>
@@ -5875,14 +5909,14 @@
       <c r="A260" s="16">
         <v>263</v>
       </c>
-      <c r="B260" s="19">
-        <v>176006</v>
-      </c>
-      <c r="C260" s="17">
-        <v>0</v>
-      </c>
-      <c r="D260" s="18">
-        <v>10</v>
+      <c r="B260" s="23">
+        <v>174006</v>
+      </c>
+      <c r="C260" s="18">
+        <v>0</v>
+      </c>
+      <c r="D260" s="19">
+        <v>30</v>
       </c>
       <c r="E260" s="16">
         <v>0</v>
@@ -5892,14 +5926,14 @@
       <c r="A261" s="16">
         <v>264</v>
       </c>
-      <c r="B261" s="19">
-        <v>177006</v>
-      </c>
-      <c r="C261" s="17">
-        <v>0</v>
-      </c>
-      <c r="D261" s="18">
-        <v>10</v>
+      <c r="B261" s="22">
+        <v>175006</v>
+      </c>
+      <c r="C261" s="18">
+        <v>0</v>
+      </c>
+      <c r="D261" s="19">
+        <v>30</v>
       </c>
       <c r="E261" s="16">
         <v>0</v>
@@ -5909,14 +5943,14 @@
       <c r="A262" s="16">
         <v>265</v>
       </c>
-      <c r="B262" s="19">
-        <v>178006</v>
-      </c>
-      <c r="C262" s="17">
-        <v>0</v>
-      </c>
-      <c r="D262" s="18">
-        <v>10</v>
+      <c r="B262" s="23">
+        <v>176006</v>
+      </c>
+      <c r="C262" s="18">
+        <v>0</v>
+      </c>
+      <c r="D262" s="19">
+        <v>30</v>
       </c>
       <c r="E262" s="16">
         <v>0</v>
@@ -5926,14 +5960,14 @@
       <c r="A263" s="16">
         <v>266</v>
       </c>
-      <c r="B263" s="19">
-        <v>179006</v>
-      </c>
-      <c r="C263" s="17">
-        <v>0</v>
-      </c>
-      <c r="D263" s="18">
-        <v>10</v>
+      <c r="B263" s="20">
+        <v>177006</v>
+      </c>
+      <c r="C263" s="18">
+        <v>0</v>
+      </c>
+      <c r="D263" s="19">
+        <v>30</v>
       </c>
       <c r="E263" s="16">
         <v>0</v>
@@ -5943,14 +5977,14 @@
       <c r="A264" s="16">
         <v>267</v>
       </c>
-      <c r="B264" s="19">
-        <v>181006</v>
-      </c>
-      <c r="C264" s="17">
-        <v>0</v>
-      </c>
-      <c r="D264" s="18">
-        <v>10</v>
+      <c r="B264" s="20">
+        <v>178006</v>
+      </c>
+      <c r="C264" s="18">
+        <v>0</v>
+      </c>
+      <c r="D264" s="19">
+        <v>30</v>
       </c>
       <c r="E264" s="16">
         <v>0</v>
@@ -5960,14 +5994,14 @@
       <c r="A265" s="16">
         <v>268</v>
       </c>
-      <c r="B265" s="19">
-        <v>182006</v>
-      </c>
-      <c r="C265" s="17">
-        <v>0</v>
-      </c>
-      <c r="D265" s="18">
-        <v>10</v>
+      <c r="B265" s="20">
+        <v>179006</v>
+      </c>
+      <c r="C265" s="18">
+        <v>0</v>
+      </c>
+      <c r="D265" s="19">
+        <v>30</v>
       </c>
       <c r="E265" s="16">
         <v>0</v>
@@ -5977,14 +6011,14 @@
       <c r="A266" s="16">
         <v>269</v>
       </c>
-      <c r="B266" s="19">
-        <v>184006</v>
-      </c>
-      <c r="C266" s="17">
-        <v>0</v>
-      </c>
-      <c r="D266" s="18">
-        <v>10</v>
+      <c r="B266" s="20">
+        <v>181006</v>
+      </c>
+      <c r="C266" s="18">
+        <v>0</v>
+      </c>
+      <c r="D266" s="19">
+        <v>30</v>
       </c>
       <c r="E266" s="16">
         <v>0</v>
@@ -5994,14 +6028,14 @@
       <c r="A267" s="16">
         <v>270</v>
       </c>
-      <c r="B267" s="19">
-        <v>186006</v>
-      </c>
-      <c r="C267" s="17">
-        <v>0</v>
-      </c>
-      <c r="D267" s="18">
-        <v>10</v>
+      <c r="B267" s="20">
+        <v>182006</v>
+      </c>
+      <c r="C267" s="18">
+        <v>0</v>
+      </c>
+      <c r="D267" s="19">
+        <v>30</v>
       </c>
       <c r="E267" s="16">
         <v>0</v>
@@ -6011,14 +6045,14 @@
       <c r="A268" s="16">
         <v>271</v>
       </c>
-      <c r="B268" s="19">
-        <v>187006</v>
-      </c>
-      <c r="C268" s="17">
-        <v>0</v>
-      </c>
-      <c r="D268" s="18">
-        <v>10</v>
+      <c r="B268" s="20">
+        <v>184006</v>
+      </c>
+      <c r="C268" s="18">
+        <v>0</v>
+      </c>
+      <c r="D268" s="19">
+        <v>30</v>
       </c>
       <c r="E268" s="16">
         <v>0</v>
@@ -6028,14 +6062,14 @@
       <c r="A269" s="16">
         <v>272</v>
       </c>
-      <c r="B269" s="19">
-        <v>188006</v>
-      </c>
-      <c r="C269" s="17">
-        <v>0</v>
-      </c>
-      <c r="D269" s="18">
-        <v>10</v>
+      <c r="B269" s="20">
+        <v>186006</v>
+      </c>
+      <c r="C269" s="18">
+        <v>0</v>
+      </c>
+      <c r="D269" s="19">
+        <v>30</v>
       </c>
       <c r="E269" s="16">
         <v>0</v>
@@ -6045,14 +6079,14 @@
       <c r="A270" s="16">
         <v>273</v>
       </c>
-      <c r="B270" s="17">
-        <v>110000</v>
-      </c>
-      <c r="C270" s="17">
-        <v>0</v>
-      </c>
-      <c r="D270" s="18">
-        <v>10</v>
+      <c r="B270" s="20">
+        <v>187006</v>
+      </c>
+      <c r="C270" s="18">
+        <v>0</v>
+      </c>
+      <c r="D270" s="19">
+        <v>30</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -6062,2282 +6096,2318 @@
       <c r="A271" s="16">
         <v>274</v>
       </c>
-      <c r="B271" s="17">
+      <c r="B271" s="20">
+        <v>188006</v>
+      </c>
+      <c r="C271" s="18">
+        <v>0</v>
+      </c>
+      <c r="D271" s="19">
+        <v>30</v>
+      </c>
+      <c r="E271" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" s="6" customFormat="1" spans="1:5">
+      <c r="A272" s="24">
+        <v>275</v>
+      </c>
+      <c r="B272" s="17">
+        <v>110000</v>
+      </c>
+      <c r="C272" s="25">
+        <v>0</v>
+      </c>
+      <c r="D272" s="26">
+        <v>0</v>
+      </c>
+      <c r="E272" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" s="6" customFormat="1" spans="1:5">
+      <c r="A273" s="24">
+        <v>276</v>
+      </c>
+      <c r="B273" s="17">
         <v>110001</v>
       </c>
-      <c r="C271" s="17">
-        <v>0</v>
-      </c>
-      <c r="D271" s="18">
-        <v>10</v>
-      </c>
-      <c r="E271" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" s="6" customFormat="1" spans="1:5">
-      <c r="A272" s="21">
-        <v>275</v>
-      </c>
-      <c r="B272" s="22">
+      <c r="C273" s="25">
+        <v>0</v>
+      </c>
+      <c r="D273" s="26">
+        <v>0</v>
+      </c>
+      <c r="E273" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" s="6" customFormat="1" spans="1:5">
+      <c r="A274" s="24">
+        <v>277</v>
+      </c>
+      <c r="B274" s="17">
         <v>110002</v>
       </c>
-      <c r="C272" s="22">
-        <v>0</v>
-      </c>
-      <c r="D272" s="23">
-        <v>0</v>
-      </c>
-      <c r="E272" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" s="6" customFormat="1" spans="1:5">
-      <c r="A273" s="21">
-        <v>276</v>
-      </c>
-      <c r="B273" s="22">
+      <c r="C274" s="25">
+        <v>0</v>
+      </c>
+      <c r="D274" s="26">
+        <v>0</v>
+      </c>
+      <c r="E274" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" s="6" customFormat="1" spans="1:5">
+      <c r="A275" s="24">
+        <v>278</v>
+      </c>
+      <c r="B275" s="17">
         <v>110003</v>
       </c>
-      <c r="C273" s="22">
-        <v>0</v>
-      </c>
-      <c r="D273" s="23">
-        <v>0</v>
-      </c>
-      <c r="E273" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" s="6" customFormat="1" spans="1:5">
-      <c r="A274" s="21">
-        <v>277</v>
-      </c>
-      <c r="B274" s="22">
+      <c r="C275" s="25">
+        <v>0</v>
+      </c>
+      <c r="D275" s="26">
+        <v>0</v>
+      </c>
+      <c r="E275" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" s="6" customFormat="1" spans="1:5">
+      <c r="A276" s="24">
+        <v>279</v>
+      </c>
+      <c r="B276" s="17">
         <v>110004</v>
       </c>
-      <c r="C274" s="22">
-        <v>0</v>
-      </c>
-      <c r="D274" s="23">
-        <v>0</v>
-      </c>
-      <c r="E274" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" s="6" customFormat="1" spans="1:5">
-      <c r="A275" s="21">
-        <v>278</v>
-      </c>
-      <c r="B275" s="22">
+      <c r="C276" s="25">
+        <v>0</v>
+      </c>
+      <c r="D276" s="26">
+        <v>0</v>
+      </c>
+      <c r="E276" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" s="6" customFormat="1" spans="1:5">
+      <c r="A277" s="24">
+        <v>280</v>
+      </c>
+      <c r="B277" s="17">
         <v>110005</v>
       </c>
-      <c r="C275" s="22">
-        <v>0</v>
-      </c>
-      <c r="D275" s="23">
-        <v>0</v>
-      </c>
-      <c r="E275" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" s="6" customFormat="1" spans="1:5">
-      <c r="A276" s="21">
-        <v>279</v>
-      </c>
-      <c r="B276" s="22">
+      <c r="C277" s="25">
+        <v>0</v>
+      </c>
+      <c r="D277" s="26">
+        <v>0</v>
+      </c>
+      <c r="E277" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" s="6" customFormat="1" spans="1:5">
+      <c r="A278" s="24">
+        <v>281</v>
+      </c>
+      <c r="B278" s="17">
         <v>110006</v>
       </c>
-      <c r="C276" s="22">
-        <v>0</v>
-      </c>
-      <c r="D276" s="23">
-        <v>0</v>
-      </c>
-      <c r="E276" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" s="6" customFormat="1" spans="1:5">
-      <c r="A277" s="21">
-        <v>280</v>
-      </c>
-      <c r="B277" s="22">
+      <c r="C278" s="25">
+        <v>0</v>
+      </c>
+      <c r="D278" s="26">
+        <v>0</v>
+      </c>
+      <c r="E278" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" s="6" customFormat="1" spans="1:5">
+      <c r="A279" s="24">
+        <v>282</v>
+      </c>
+      <c r="B279" s="17">
         <v>110007</v>
       </c>
-      <c r="C277" s="22">
-        <v>0</v>
-      </c>
-      <c r="D277" s="23">
-        <v>0</v>
-      </c>
-      <c r="E277" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" s="6" customFormat="1" spans="1:5">
-      <c r="A278" s="21">
-        <v>281</v>
-      </c>
-      <c r="B278" s="25">
+      <c r="C279" s="25">
+        <v>0</v>
+      </c>
+      <c r="D279" s="26">
+        <v>0</v>
+      </c>
+      <c r="E279" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" s="6" customFormat="1" spans="1:5">
+      <c r="A280" s="24">
+        <v>283</v>
+      </c>
+      <c r="B280" s="20">
         <v>120000</v>
       </c>
-      <c r="C278" s="22">
-        <v>0</v>
-      </c>
-      <c r="D278" s="23">
-        <v>0</v>
-      </c>
-      <c r="E278" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" s="6" customFormat="1" spans="1:5">
-      <c r="A279" s="21">
-        <v>282</v>
-      </c>
-      <c r="B279" s="25">
+      <c r="C280" s="25">
+        <v>0</v>
+      </c>
+      <c r="D280" s="26">
+        <v>0</v>
+      </c>
+      <c r="E280" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" s="6" customFormat="1" spans="1:5">
+      <c r="A281" s="24">
+        <v>284</v>
+      </c>
+      <c r="B281" s="20">
         <v>120001</v>
       </c>
-      <c r="C279" s="22">
-        <v>0</v>
-      </c>
-      <c r="D279" s="23">
-        <v>0</v>
-      </c>
-      <c r="E279" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" s="6" customFormat="1" spans="1:5">
-      <c r="A280" s="21">
-        <v>283</v>
-      </c>
-      <c r="B280" s="25">
+      <c r="C281" s="25">
+        <v>0</v>
+      </c>
+      <c r="D281" s="26">
+        <v>0</v>
+      </c>
+      <c r="E281" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" s="6" customFormat="1" spans="1:5">
+      <c r="A282" s="24">
+        <v>285</v>
+      </c>
+      <c r="B282" s="20">
         <v>120002</v>
       </c>
-      <c r="C280" s="22">
-        <v>0</v>
-      </c>
-      <c r="D280" s="23">
-        <v>0</v>
-      </c>
-      <c r="E280" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" s="6" customFormat="1" spans="1:5">
-      <c r="A281" s="21">
-        <v>284</v>
-      </c>
-      <c r="B281" s="25">
+      <c r="C282" s="25">
+        <v>0</v>
+      </c>
+      <c r="D282" s="26">
+        <v>0</v>
+      </c>
+      <c r="E282" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" s="6" customFormat="1" spans="1:5">
+      <c r="A283" s="24">
+        <v>286</v>
+      </c>
+      <c r="B283" s="20">
         <v>120003</v>
       </c>
-      <c r="C281" s="22">
-        <v>0</v>
-      </c>
-      <c r="D281" s="23">
-        <v>0</v>
-      </c>
-      <c r="E281" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" s="6" customFormat="1" spans="1:5">
-      <c r="A282" s="21">
-        <v>285</v>
-      </c>
-      <c r="B282" s="25">
+      <c r="C283" s="25">
+        <v>0</v>
+      </c>
+      <c r="D283" s="26">
+        <v>0</v>
+      </c>
+      <c r="E283" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" s="6" customFormat="1" spans="1:5">
+      <c r="A284" s="24">
+        <v>287</v>
+      </c>
+      <c r="B284" s="20">
         <v>120004</v>
       </c>
-      <c r="C282" s="22">
-        <v>0</v>
-      </c>
-      <c r="D282" s="23">
-        <v>0</v>
-      </c>
-      <c r="E282" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" s="6" customFormat="1" spans="1:5">
-      <c r="A283" s="21">
-        <v>286</v>
-      </c>
-      <c r="B283" s="25">
+      <c r="C284" s="25">
+        <v>0</v>
+      </c>
+      <c r="D284" s="26">
+        <v>0</v>
+      </c>
+      <c r="E284" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" s="6" customFormat="1" spans="1:5">
+      <c r="A285" s="24">
+        <v>288</v>
+      </c>
+      <c r="B285" s="20">
         <v>120005</v>
       </c>
-      <c r="C283" s="22">
-        <v>0</v>
-      </c>
-      <c r="D283" s="23">
-        <v>0</v>
-      </c>
-      <c r="E283" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" s="6" customFormat="1" spans="1:5">
-      <c r="A284" s="21">
-        <v>287</v>
-      </c>
-      <c r="B284" s="25">
+      <c r="C285" s="25">
+        <v>0</v>
+      </c>
+      <c r="D285" s="26">
+        <v>0</v>
+      </c>
+      <c r="E285" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" s="6" customFormat="1" spans="1:5">
+      <c r="A286" s="24">
+        <v>289</v>
+      </c>
+      <c r="B286" s="20">
         <v>120006</v>
       </c>
-      <c r="C284" s="22">
-        <v>0</v>
-      </c>
-      <c r="D284" s="23">
-        <v>0</v>
-      </c>
-      <c r="E284" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" s="6" customFormat="1" spans="1:5">
-      <c r="A285" s="21">
-        <v>288</v>
-      </c>
-      <c r="B285" s="25">
+      <c r="C286" s="25">
+        <v>0</v>
+      </c>
+      <c r="D286" s="26">
+        <v>0</v>
+      </c>
+      <c r="E286" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" s="6" customFormat="1" spans="1:5">
+      <c r="A287" s="24">
+        <v>290</v>
+      </c>
+      <c r="B287" s="20">
         <v>120007</v>
       </c>
-      <c r="C285" s="22">
-        <v>0</v>
-      </c>
-      <c r="D285" s="23">
-        <v>0</v>
-      </c>
-      <c r="E285" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" s="6" customFormat="1" spans="1:5">
-      <c r="A286" s="21">
-        <v>289</v>
-      </c>
-      <c r="B286" s="22">
+      <c r="C287" s="25">
+        <v>0</v>
+      </c>
+      <c r="D287" s="26">
+        <v>0</v>
+      </c>
+      <c r="E287" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" s="6" customFormat="1" spans="1:5">
+      <c r="A288" s="24">
+        <v>291</v>
+      </c>
+      <c r="B288" s="17">
         <v>130000</v>
       </c>
-      <c r="C286" s="22">
-        <v>0</v>
-      </c>
-      <c r="D286" s="23">
-        <v>0</v>
-      </c>
-      <c r="E286" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" s="6" customFormat="1" spans="1:5">
-      <c r="A287" s="21">
-        <v>290</v>
-      </c>
-      <c r="B287" s="22">
+      <c r="C288" s="25">
+        <v>0</v>
+      </c>
+      <c r="D288" s="26">
+        <v>0</v>
+      </c>
+      <c r="E288" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" s="6" customFormat="1" spans="1:5">
+      <c r="A289" s="24">
+        <v>292</v>
+      </c>
+      <c r="B289" s="17">
         <v>130001</v>
       </c>
-      <c r="C287" s="22">
-        <v>0</v>
-      </c>
-      <c r="D287" s="23">
-        <v>0</v>
-      </c>
-      <c r="E287" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" s="6" customFormat="1" spans="1:5">
-      <c r="A288" s="21">
-        <v>291</v>
-      </c>
-      <c r="B288" s="22">
+      <c r="C289" s="25">
+        <v>0</v>
+      </c>
+      <c r="D289" s="26">
+        <v>0</v>
+      </c>
+      <c r="E289" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" s="6" customFormat="1" spans="1:5">
+      <c r="A290" s="24">
+        <v>293</v>
+      </c>
+      <c r="B290" s="17">
         <v>130002</v>
       </c>
-      <c r="C288" s="22">
-        <v>0</v>
-      </c>
-      <c r="D288" s="23">
-        <v>0</v>
-      </c>
-      <c r="E288" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" s="6" customFormat="1" spans="1:5">
-      <c r="A289" s="21">
-        <v>292</v>
-      </c>
-      <c r="B289" s="22">
+      <c r="C290" s="25">
+        <v>0</v>
+      </c>
+      <c r="D290" s="26">
+        <v>0</v>
+      </c>
+      <c r="E290" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" s="6" customFormat="1" spans="1:5">
+      <c r="A291" s="24">
+        <v>294</v>
+      </c>
+      <c r="B291" s="17">
         <v>130003</v>
       </c>
-      <c r="C289" s="22">
-        <v>0</v>
-      </c>
-      <c r="D289" s="23">
-        <v>0</v>
-      </c>
-      <c r="E289" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" s="6" customFormat="1" spans="1:5">
-      <c r="A290" s="21">
-        <v>293</v>
-      </c>
-      <c r="B290" s="22">
+      <c r="C291" s="25">
+        <v>0</v>
+      </c>
+      <c r="D291" s="26">
+        <v>0</v>
+      </c>
+      <c r="E291" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" s="6" customFormat="1" spans="1:5">
+      <c r="A292" s="24">
+        <v>295</v>
+      </c>
+      <c r="B292" s="17">
         <v>130004</v>
       </c>
-      <c r="C290" s="22">
-        <v>0</v>
-      </c>
-      <c r="D290" s="23">
-        <v>0</v>
-      </c>
-      <c r="E290" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" s="6" customFormat="1" spans="1:5">
-      <c r="A291" s="21">
-        <v>294</v>
-      </c>
-      <c r="B291" s="22">
+      <c r="C292" s="25">
+        <v>0</v>
+      </c>
+      <c r="D292" s="26">
+        <v>0</v>
+      </c>
+      <c r="E292" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" s="6" customFormat="1" spans="1:5">
+      <c r="A293" s="24">
+        <v>296</v>
+      </c>
+      <c r="B293" s="17">
         <v>130005</v>
       </c>
-      <c r="C291" s="22">
-        <v>0</v>
-      </c>
-      <c r="D291" s="23">
-        <v>0</v>
-      </c>
-      <c r="E291" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" s="6" customFormat="1" spans="1:5">
-      <c r="A292" s="21">
-        <v>295</v>
-      </c>
-      <c r="B292" s="22">
+      <c r="C293" s="25">
+        <v>0</v>
+      </c>
+      <c r="D293" s="26">
+        <v>0</v>
+      </c>
+      <c r="E293" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" s="6" customFormat="1" spans="1:5">
+      <c r="A294" s="24">
+        <v>297</v>
+      </c>
+      <c r="B294" s="17">
         <v>130006</v>
       </c>
-      <c r="C292" s="22">
-        <v>0</v>
-      </c>
-      <c r="D292" s="23">
-        <v>0</v>
-      </c>
-      <c r="E292" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" s="6" customFormat="1" spans="1:5">
-      <c r="A293" s="21">
-        <v>296</v>
-      </c>
-      <c r="B293" s="22">
+      <c r="C294" s="25">
+        <v>0</v>
+      </c>
+      <c r="D294" s="26">
+        <v>0</v>
+      </c>
+      <c r="E294" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" s="6" customFormat="1" spans="1:5">
+      <c r="A295" s="24">
+        <v>298</v>
+      </c>
+      <c r="B295" s="17">
         <v>130007</v>
       </c>
-      <c r="C293" s="22">
-        <v>0</v>
-      </c>
-      <c r="D293" s="23">
-        <v>0</v>
-      </c>
-      <c r="E293" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" s="6" customFormat="1" spans="1:5">
-      <c r="A294" s="21">
-        <v>297</v>
-      </c>
-      <c r="B294" s="25">
+      <c r="C295" s="25">
+        <v>0</v>
+      </c>
+      <c r="D295" s="26">
+        <v>0</v>
+      </c>
+      <c r="E295" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" s="6" customFormat="1" spans="1:5">
+      <c r="A296" s="24">
+        <v>299</v>
+      </c>
+      <c r="B296" s="20">
         <v>140000</v>
       </c>
-      <c r="C294" s="22">
-        <v>0</v>
-      </c>
-      <c r="D294" s="23">
-        <v>0</v>
-      </c>
-      <c r="E294" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" s="6" customFormat="1" spans="1:5">
-      <c r="A295" s="21">
-        <v>298</v>
-      </c>
-      <c r="B295" s="25">
+      <c r="C296" s="25">
+        <v>0</v>
+      </c>
+      <c r="D296" s="26">
+        <v>0</v>
+      </c>
+      <c r="E296" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" s="6" customFormat="1" spans="1:5">
+      <c r="A297" s="24">
+        <v>300</v>
+      </c>
+      <c r="B297" s="20">
         <v>140001</v>
       </c>
-      <c r="C295" s="22">
-        <v>0</v>
-      </c>
-      <c r="D295" s="23">
-        <v>0</v>
-      </c>
-      <c r="E295" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" s="6" customFormat="1" spans="1:5">
-      <c r="A296" s="21">
-        <v>299</v>
-      </c>
-      <c r="B296" s="25">
+      <c r="C297" s="25">
+        <v>0</v>
+      </c>
+      <c r="D297" s="26">
+        <v>0</v>
+      </c>
+      <c r="E297" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" s="6" customFormat="1" spans="1:5">
+      <c r="A298" s="24">
+        <v>301</v>
+      </c>
+      <c r="B298" s="20">
         <v>140002</v>
       </c>
-      <c r="C296" s="22">
-        <v>0</v>
-      </c>
-      <c r="D296" s="23">
-        <v>0</v>
-      </c>
-      <c r="E296" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" s="6" customFormat="1" spans="1:5">
-      <c r="A297" s="21">
-        <v>300</v>
-      </c>
-      <c r="B297" s="25">
+      <c r="C298" s="25">
+        <v>0</v>
+      </c>
+      <c r="D298" s="26">
+        <v>0</v>
+      </c>
+      <c r="E298" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" s="6" customFormat="1" spans="1:5">
+      <c r="A299" s="24">
+        <v>302</v>
+      </c>
+      <c r="B299" s="20">
         <v>140003</v>
       </c>
-      <c r="C297" s="22">
-        <v>0</v>
-      </c>
-      <c r="D297" s="23">
-        <v>0</v>
-      </c>
-      <c r="E297" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" s="6" customFormat="1" spans="1:5">
-      <c r="A298" s="21">
-        <v>301</v>
-      </c>
-      <c r="B298" s="25">
+      <c r="C299" s="25">
+        <v>0</v>
+      </c>
+      <c r="D299" s="26">
+        <v>0</v>
+      </c>
+      <c r="E299" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" s="6" customFormat="1" spans="1:5">
+      <c r="A300" s="24">
+        <v>303</v>
+      </c>
+      <c r="B300" s="20">
         <v>140004</v>
       </c>
-      <c r="C298" s="22">
-        <v>0</v>
-      </c>
-      <c r="D298" s="23">
-        <v>0</v>
-      </c>
-      <c r="E298" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" s="6" customFormat="1" spans="1:5">
-      <c r="A299" s="21">
-        <v>302</v>
-      </c>
-      <c r="B299" s="25">
+      <c r="C300" s="25">
+        <v>0</v>
+      </c>
+      <c r="D300" s="26">
+        <v>0</v>
+      </c>
+      <c r="E300" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" s="6" customFormat="1" spans="1:5">
+      <c r="A301" s="24">
+        <v>304</v>
+      </c>
+      <c r="B301" s="20">
         <v>140005</v>
       </c>
-      <c r="C299" s="22">
-        <v>0</v>
-      </c>
-      <c r="D299" s="23">
-        <v>0</v>
-      </c>
-      <c r="E299" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" s="6" customFormat="1" spans="1:5">
-      <c r="A300" s="21">
-        <v>303</v>
-      </c>
-      <c r="B300" s="25">
+      <c r="C301" s="25">
+        <v>0</v>
+      </c>
+      <c r="D301" s="26">
+        <v>0</v>
+      </c>
+      <c r="E301" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" s="6" customFormat="1" spans="1:5">
+      <c r="A302" s="24">
+        <v>305</v>
+      </c>
+      <c r="B302" s="20">
         <v>140006</v>
       </c>
-      <c r="C300" s="22">
-        <v>0</v>
-      </c>
-      <c r="D300" s="23">
-        <v>0</v>
-      </c>
-      <c r="E300" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" s="6" customFormat="1" spans="1:5">
-      <c r="A301" s="21">
-        <v>304</v>
-      </c>
-      <c r="B301" s="25">
+      <c r="C302" s="25">
+        <v>0</v>
+      </c>
+      <c r="D302" s="26">
+        <v>0</v>
+      </c>
+      <c r="E302" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" s="6" customFormat="1" spans="1:5">
+      <c r="A303" s="24">
+        <v>306</v>
+      </c>
+      <c r="B303" s="20">
         <v>140007</v>
       </c>
-      <c r="C301" s="22">
-        <v>0</v>
-      </c>
-      <c r="D301" s="23">
-        <v>0</v>
-      </c>
-      <c r="E301" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" s="6" customFormat="1" spans="1:5">
-      <c r="A302" s="21">
-        <v>305</v>
-      </c>
-      <c r="B302" s="22">
+      <c r="C303" s="25">
+        <v>0</v>
+      </c>
+      <c r="D303" s="26">
+        <v>0</v>
+      </c>
+      <c r="E303" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" s="6" customFormat="1" spans="1:5">
+      <c r="A304" s="24">
+        <v>307</v>
+      </c>
+      <c r="B304" s="17">
         <v>150000</v>
       </c>
-      <c r="C302" s="22">
-        <v>0</v>
-      </c>
-      <c r="D302" s="23">
-        <v>0</v>
-      </c>
-      <c r="E302" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" s="6" customFormat="1" spans="1:5">
-      <c r="A303" s="21">
-        <v>306</v>
-      </c>
-      <c r="B303" s="22">
+      <c r="C304" s="25">
+        <v>0</v>
+      </c>
+      <c r="D304" s="26">
+        <v>0</v>
+      </c>
+      <c r="E304" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" s="6" customFormat="1" spans="1:5">
+      <c r="A305" s="24">
+        <v>308</v>
+      </c>
+      <c r="B305" s="17">
         <v>150001</v>
       </c>
-      <c r="C303" s="22">
-        <v>0</v>
-      </c>
-      <c r="D303" s="23">
-        <v>0</v>
-      </c>
-      <c r="E303" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" s="6" customFormat="1" spans="1:5">
-      <c r="A304" s="21">
-        <v>307</v>
-      </c>
-      <c r="B304" s="22">
+      <c r="C305" s="25">
+        <v>0</v>
+      </c>
+      <c r="D305" s="26">
+        <v>0</v>
+      </c>
+      <c r="E305" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" s="6" customFormat="1" spans="1:5">
+      <c r="A306" s="24">
+        <v>309</v>
+      </c>
+      <c r="B306" s="17">
         <v>150002</v>
       </c>
-      <c r="C304" s="22">
-        <v>0</v>
-      </c>
-      <c r="D304" s="23">
-        <v>0</v>
-      </c>
-      <c r="E304" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" s="6" customFormat="1" spans="1:5">
-      <c r="A305" s="21">
-        <v>308</v>
-      </c>
-      <c r="B305" s="25">
+      <c r="C306" s="25">
+        <v>0</v>
+      </c>
+      <c r="D306" s="26">
+        <v>0</v>
+      </c>
+      <c r="E306" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" s="6" customFormat="1" spans="1:5">
+      <c r="A307" s="24">
+        <v>310</v>
+      </c>
+      <c r="B307" s="20">
         <v>150003</v>
       </c>
-      <c r="C305" s="22">
-        <v>0</v>
-      </c>
-      <c r="D305" s="23">
-        <v>0</v>
-      </c>
-      <c r="E305" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" s="6" customFormat="1" spans="1:5">
-      <c r="A306" s="21">
-        <v>309</v>
-      </c>
-      <c r="B306" s="22">
+      <c r="C307" s="25">
+        <v>0</v>
+      </c>
+      <c r="D307" s="26">
+        <v>0</v>
+      </c>
+      <c r="E307" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" s="6" customFormat="1" spans="1:5">
+      <c r="A308" s="24">
+        <v>311</v>
+      </c>
+      <c r="B308" s="17">
         <v>150004</v>
       </c>
-      <c r="C306" s="22">
-        <v>0</v>
-      </c>
-      <c r="D306" s="23">
-        <v>0</v>
-      </c>
-      <c r="E306" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" s="6" customFormat="1" spans="1:5">
-      <c r="A307" s="21">
-        <v>310</v>
-      </c>
-      <c r="B307" s="25">
+      <c r="C308" s="25">
+        <v>0</v>
+      </c>
+      <c r="D308" s="26">
+        <v>0</v>
+      </c>
+      <c r="E308" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" s="6" customFormat="1" spans="1:5">
+      <c r="A309" s="24">
+        <v>312</v>
+      </c>
+      <c r="B309" s="20">
         <v>150005</v>
       </c>
-      <c r="C307" s="22">
-        <v>0</v>
-      </c>
-      <c r="D307" s="23">
-        <v>0</v>
-      </c>
-      <c r="E307" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" s="6" customFormat="1" spans="1:5">
-      <c r="A308" s="21">
-        <v>311</v>
-      </c>
-      <c r="B308" s="22">
+      <c r="C309" s="25">
+        <v>0</v>
+      </c>
+      <c r="D309" s="26">
+        <v>0</v>
+      </c>
+      <c r="E309" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" s="6" customFormat="1" spans="1:5">
+      <c r="A310" s="24">
+        <v>313</v>
+      </c>
+      <c r="B310" s="17">
         <v>150006</v>
       </c>
-      <c r="C308" s="22">
-        <v>0</v>
-      </c>
-      <c r="D308" s="23">
-        <v>0</v>
-      </c>
-      <c r="E308" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" s="6" customFormat="1" spans="1:5">
-      <c r="A309" s="21">
-        <v>312</v>
-      </c>
-      <c r="B309" s="25">
+      <c r="C310" s="25">
+        <v>0</v>
+      </c>
+      <c r="D310" s="26">
+        <v>0</v>
+      </c>
+      <c r="E310" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" s="6" customFormat="1" spans="1:5">
+      <c r="A311" s="24">
+        <v>314</v>
+      </c>
+      <c r="B311" s="20">
         <v>150007</v>
       </c>
-      <c r="C309" s="22">
-        <v>0</v>
-      </c>
-      <c r="D309" s="23">
-        <v>0</v>
-      </c>
-      <c r="E309" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" s="6" customFormat="1" spans="1:5">
-      <c r="A310" s="21">
-        <v>313</v>
-      </c>
-      <c r="B310" s="25">
+      <c r="C311" s="25">
+        <v>0</v>
+      </c>
+      <c r="D311" s="26">
+        <v>0</v>
+      </c>
+      <c r="E311" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" s="6" customFormat="1" spans="1:5">
+      <c r="A312" s="24">
+        <v>315</v>
+      </c>
+      <c r="B312" s="20">
         <v>160000</v>
       </c>
-      <c r="C310" s="22">
-        <v>0</v>
-      </c>
-      <c r="D310" s="23">
-        <v>0</v>
-      </c>
-      <c r="E310" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" s="6" customFormat="1" spans="1:5">
-      <c r="A311" s="21">
-        <v>314</v>
-      </c>
-      <c r="B311" s="25">
+      <c r="C312" s="25">
+        <v>0</v>
+      </c>
+      <c r="D312" s="26">
+        <v>0</v>
+      </c>
+      <c r="E312" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" s="6" customFormat="1" spans="1:5">
+      <c r="A313" s="24">
+        <v>316</v>
+      </c>
+      <c r="B313" s="20">
         <v>160001</v>
       </c>
-      <c r="C311" s="22">
-        <v>0</v>
-      </c>
-      <c r="D311" s="23">
-        <v>0</v>
-      </c>
-      <c r="E311" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" s="6" customFormat="1" spans="1:5">
-      <c r="A312" s="21">
-        <v>315</v>
-      </c>
-      <c r="B312" s="25">
+      <c r="C313" s="25">
+        <v>0</v>
+      </c>
+      <c r="D313" s="26">
+        <v>0</v>
+      </c>
+      <c r="E313" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" s="6" customFormat="1" spans="1:5">
+      <c r="A314" s="24">
+        <v>317</v>
+      </c>
+      <c r="B314" s="20">
         <v>160002</v>
       </c>
-      <c r="C312" s="22">
-        <v>0</v>
-      </c>
-      <c r="D312" s="23">
-        <v>0</v>
-      </c>
-      <c r="E312" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" s="6" customFormat="1" spans="1:5">
-      <c r="A313" s="21">
-        <v>316</v>
-      </c>
-      <c r="B313" s="25">
+      <c r="C314" s="25">
+        <v>0</v>
+      </c>
+      <c r="D314" s="26">
+        <v>0</v>
+      </c>
+      <c r="E314" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" s="6" customFormat="1" spans="1:5">
+      <c r="A315" s="24">
+        <v>318</v>
+      </c>
+      <c r="B315" s="20">
         <v>160003</v>
       </c>
-      <c r="C313" s="22">
-        <v>0</v>
-      </c>
-      <c r="D313" s="23">
-        <v>0</v>
-      </c>
-      <c r="E313" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" s="6" customFormat="1" spans="1:5">
-      <c r="A314" s="21">
-        <v>317</v>
-      </c>
-      <c r="B314" s="25">
+      <c r="C315" s="25">
+        <v>0</v>
+      </c>
+      <c r="D315" s="26">
+        <v>0</v>
+      </c>
+      <c r="E315" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" s="6" customFormat="1" spans="1:5">
+      <c r="A316" s="24">
+        <v>319</v>
+      </c>
+      <c r="B316" s="20">
         <v>160004</v>
       </c>
-      <c r="C314" s="22">
-        <v>0</v>
-      </c>
-      <c r="D314" s="23">
-        <v>0</v>
-      </c>
-      <c r="E314" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" s="6" customFormat="1" spans="1:5">
-      <c r="A315" s="21">
-        <v>318</v>
-      </c>
-      <c r="B315" s="25">
+      <c r="C316" s="25">
+        <v>0</v>
+      </c>
+      <c r="D316" s="26">
+        <v>0</v>
+      </c>
+      <c r="E316" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" s="6" customFormat="1" spans="1:5">
+      <c r="A317" s="24">
+        <v>320</v>
+      </c>
+      <c r="B317" s="20">
         <v>160005</v>
       </c>
-      <c r="C315" s="22">
-        <v>0</v>
-      </c>
-      <c r="D315" s="23">
-        <v>0</v>
-      </c>
-      <c r="E315" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" s="6" customFormat="1" spans="1:5">
-      <c r="A316" s="21">
-        <v>319</v>
-      </c>
-      <c r="B316" s="25">
+      <c r="C317" s="25">
+        <v>0</v>
+      </c>
+      <c r="D317" s="26">
+        <v>0</v>
+      </c>
+      <c r="E317" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" s="6" customFormat="1" spans="1:5">
+      <c r="A318" s="24">
+        <v>321</v>
+      </c>
+      <c r="B318" s="20">
         <v>160006</v>
       </c>
-      <c r="C316" s="22">
-        <v>0</v>
-      </c>
-      <c r="D316" s="23">
-        <v>0</v>
-      </c>
-      <c r="E316" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" s="6" customFormat="1" spans="1:5">
-      <c r="A317" s="21">
-        <v>320</v>
-      </c>
-      <c r="B317" s="25">
+      <c r="C318" s="25">
+        <v>0</v>
+      </c>
+      <c r="D318" s="26">
+        <v>0</v>
+      </c>
+      <c r="E318" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" s="6" customFormat="1" spans="1:5">
+      <c r="A319" s="24">
+        <v>322</v>
+      </c>
+      <c r="B319" s="20">
         <v>160007</v>
       </c>
-      <c r="C317" s="22">
-        <v>0</v>
-      </c>
-      <c r="D317" s="23">
-        <v>0</v>
-      </c>
-      <c r="E317" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" s="6" customFormat="1" spans="1:5">
-      <c r="A318" s="21">
-        <v>321</v>
-      </c>
-      <c r="B318" s="25">
+      <c r="C319" s="25">
+        <v>0</v>
+      </c>
+      <c r="D319" s="26">
+        <v>0</v>
+      </c>
+      <c r="E319" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" s="6" customFormat="1" spans="1:5">
+      <c r="A320" s="24">
+        <v>323</v>
+      </c>
+      <c r="B320" s="20">
         <v>161000</v>
       </c>
-      <c r="C318" s="22">
-        <v>0</v>
-      </c>
-      <c r="D318" s="23">
-        <v>0</v>
-      </c>
-      <c r="E318" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" s="6" customFormat="1" spans="1:5">
-      <c r="A319" s="21">
-        <v>322</v>
-      </c>
-      <c r="B319" s="25">
+      <c r="C320" s="25">
+        <v>0</v>
+      </c>
+      <c r="D320" s="26">
+        <v>0</v>
+      </c>
+      <c r="E320" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" s="6" customFormat="1" spans="1:5">
+      <c r="A321" s="24">
+        <v>324</v>
+      </c>
+      <c r="B321" s="20">
         <v>161001</v>
       </c>
-      <c r="C319" s="22">
-        <v>0</v>
-      </c>
-      <c r="D319" s="23">
-        <v>0</v>
-      </c>
-      <c r="E319" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" s="6" customFormat="1" spans="1:5">
-      <c r="A320" s="21">
-        <v>323</v>
-      </c>
-      <c r="B320" s="25">
+      <c r="C321" s="25">
+        <v>0</v>
+      </c>
+      <c r="D321" s="26">
+        <v>0</v>
+      </c>
+      <c r="E321" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" s="6" customFormat="1" spans="1:5">
+      <c r="A322" s="24">
+        <v>325</v>
+      </c>
+      <c r="B322" s="20">
         <v>161002</v>
       </c>
-      <c r="C320" s="22">
-        <v>0</v>
-      </c>
-      <c r="D320" s="23">
-        <v>0</v>
-      </c>
-      <c r="E320" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" s="6" customFormat="1" spans="1:5">
-      <c r="A321" s="21">
-        <v>324</v>
-      </c>
-      <c r="B321" s="25">
+      <c r="C322" s="25">
+        <v>0</v>
+      </c>
+      <c r="D322" s="26">
+        <v>0</v>
+      </c>
+      <c r="E322" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" s="6" customFormat="1" spans="1:5">
+      <c r="A323" s="24">
+        <v>326</v>
+      </c>
+      <c r="B323" s="20">
         <v>161003</v>
       </c>
-      <c r="C321" s="22">
-        <v>0</v>
-      </c>
-      <c r="D321" s="23">
-        <v>0</v>
-      </c>
-      <c r="E321" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" s="6" customFormat="1" spans="1:5">
-      <c r="A322" s="21">
-        <v>325</v>
-      </c>
-      <c r="B322" s="25">
+      <c r="C323" s="25">
+        <v>0</v>
+      </c>
+      <c r="D323" s="26">
+        <v>0</v>
+      </c>
+      <c r="E323" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" s="6" customFormat="1" spans="1:5">
+      <c r="A324" s="24">
+        <v>327</v>
+      </c>
+      <c r="B324" s="20">
         <v>161004</v>
       </c>
-      <c r="C322" s="22">
-        <v>0</v>
-      </c>
-      <c r="D322" s="23">
-        <v>0</v>
-      </c>
-      <c r="E322" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" s="6" customFormat="1" spans="1:5">
-      <c r="A323" s="21">
-        <v>326</v>
-      </c>
-      <c r="B323" s="25">
+      <c r="C324" s="25">
+        <v>0</v>
+      </c>
+      <c r="D324" s="26">
+        <v>0</v>
+      </c>
+      <c r="E324" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" s="6" customFormat="1" spans="1:5">
+      <c r="A325" s="24">
+        <v>328</v>
+      </c>
+      <c r="B325" s="20">
         <v>161005</v>
       </c>
-      <c r="C323" s="22">
-        <v>0</v>
-      </c>
-      <c r="D323" s="23">
-        <v>0</v>
-      </c>
-      <c r="E323" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" s="6" customFormat="1" spans="1:5">
-      <c r="A324" s="21">
-        <v>327</v>
-      </c>
-      <c r="B324" s="25">
+      <c r="C325" s="25">
+        <v>0</v>
+      </c>
+      <c r="D325" s="26">
+        <v>0</v>
+      </c>
+      <c r="E325" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" s="6" customFormat="1" spans="1:5">
+      <c r="A326" s="24">
+        <v>329</v>
+      </c>
+      <c r="B326" s="20">
         <v>161006</v>
       </c>
-      <c r="C324" s="22">
-        <v>0</v>
-      </c>
-      <c r="D324" s="23">
-        <v>0</v>
-      </c>
-      <c r="E324" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" s="6" customFormat="1" spans="1:5">
-      <c r="A325" s="21">
-        <v>328</v>
-      </c>
-      <c r="B325" s="25">
+      <c r="C326" s="25">
+        <v>0</v>
+      </c>
+      <c r="D326" s="26">
+        <v>0</v>
+      </c>
+      <c r="E326" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" s="6" customFormat="1" spans="1:5">
+      <c r="A327" s="24">
+        <v>330</v>
+      </c>
+      <c r="B327" s="20">
         <v>161007</v>
       </c>
-      <c r="C325" s="22">
-        <v>0</v>
-      </c>
-      <c r="D325" s="23">
-        <v>0</v>
-      </c>
-      <c r="E325" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" s="6" customFormat="1" spans="1:5">
-      <c r="A326" s="21">
-        <v>329</v>
-      </c>
-      <c r="B326" s="25">
+      <c r="C327" s="25">
+        <v>0</v>
+      </c>
+      <c r="D327" s="26">
+        <v>0</v>
+      </c>
+      <c r="E327" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" s="6" customFormat="1" spans="1:5">
+      <c r="A328" s="24">
+        <v>331</v>
+      </c>
+      <c r="B328" s="20">
         <v>162000</v>
       </c>
-      <c r="C326" s="22">
-        <v>0</v>
-      </c>
-      <c r="D326" s="23">
-        <v>0</v>
-      </c>
-      <c r="E326" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" s="6" customFormat="1" spans="1:5">
-      <c r="A327" s="21">
-        <v>330</v>
-      </c>
-      <c r="B327" s="25">
+      <c r="C328" s="25">
+        <v>0</v>
+      </c>
+      <c r="D328" s="26">
+        <v>0</v>
+      </c>
+      <c r="E328" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" s="6" customFormat="1" spans="1:5">
+      <c r="A329" s="24">
+        <v>332</v>
+      </c>
+      <c r="B329" s="20">
         <v>162001</v>
       </c>
-      <c r="C327" s="22">
-        <v>0</v>
-      </c>
-      <c r="D327" s="23">
-        <v>0</v>
-      </c>
-      <c r="E327" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" s="6" customFormat="1" spans="1:5">
-      <c r="A328" s="21">
-        <v>331</v>
-      </c>
-      <c r="B328" s="25">
+      <c r="C329" s="25">
+        <v>0</v>
+      </c>
+      <c r="D329" s="26">
+        <v>0</v>
+      </c>
+      <c r="E329" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" s="6" customFormat="1" spans="1:5">
+      <c r="A330" s="24">
+        <v>333</v>
+      </c>
+      <c r="B330" s="20">
         <v>162002</v>
       </c>
-      <c r="C328" s="22">
-        <v>0</v>
-      </c>
-      <c r="D328" s="23">
-        <v>0</v>
-      </c>
-      <c r="E328" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" s="6" customFormat="1" spans="1:5">
-      <c r="A329" s="21">
-        <v>332</v>
-      </c>
-      <c r="B329" s="25">
+      <c r="C330" s="25">
+        <v>0</v>
+      </c>
+      <c r="D330" s="26">
+        <v>0</v>
+      </c>
+      <c r="E330" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" s="6" customFormat="1" spans="1:5">
+      <c r="A331" s="24">
+        <v>334</v>
+      </c>
+      <c r="B331" s="20">
         <v>162003</v>
       </c>
-      <c r="C329" s="22">
-        <v>0</v>
-      </c>
-      <c r="D329" s="23">
-        <v>0</v>
-      </c>
-      <c r="E329" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" s="6" customFormat="1" spans="1:5">
-      <c r="A330" s="21">
-        <v>333</v>
-      </c>
-      <c r="B330" s="25">
+      <c r="C331" s="25">
+        <v>0</v>
+      </c>
+      <c r="D331" s="26">
+        <v>0</v>
+      </c>
+      <c r="E331" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" s="6" customFormat="1" spans="1:5">
+      <c r="A332" s="24">
+        <v>335</v>
+      </c>
+      <c r="B332" s="20">
         <v>162004</v>
       </c>
-      <c r="C330" s="22">
-        <v>0</v>
-      </c>
-      <c r="D330" s="23">
-        <v>0</v>
-      </c>
-      <c r="E330" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" s="6" customFormat="1" spans="1:5">
-      <c r="A331" s="21">
-        <v>334</v>
-      </c>
-      <c r="B331" s="25">
+      <c r="C332" s="25">
+        <v>0</v>
+      </c>
+      <c r="D332" s="26">
+        <v>0</v>
+      </c>
+      <c r="E332" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" s="6" customFormat="1" spans="1:5">
+      <c r="A333" s="24">
+        <v>336</v>
+      </c>
+      <c r="B333" s="20">
         <v>162005</v>
       </c>
-      <c r="C331" s="22">
-        <v>0</v>
-      </c>
-      <c r="D331" s="23">
-        <v>0</v>
-      </c>
-      <c r="E331" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" s="6" customFormat="1" spans="1:5">
-      <c r="A332" s="21">
-        <v>335</v>
-      </c>
-      <c r="B332" s="25">
+      <c r="C333" s="25">
+        <v>0</v>
+      </c>
+      <c r="D333" s="26">
+        <v>0</v>
+      </c>
+      <c r="E333" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" s="6" customFormat="1" spans="1:5">
+      <c r="A334" s="24">
+        <v>337</v>
+      </c>
+      <c r="B334" s="20">
         <v>162006</v>
       </c>
-      <c r="C332" s="22">
-        <v>0</v>
-      </c>
-      <c r="D332" s="23">
-        <v>0</v>
-      </c>
-      <c r="E332" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" s="6" customFormat="1" spans="1:5">
-      <c r="A333" s="21">
-        <v>336</v>
-      </c>
-      <c r="B333" s="25">
+      <c r="C334" s="25">
+        <v>0</v>
+      </c>
+      <c r="D334" s="26">
+        <v>0</v>
+      </c>
+      <c r="E334" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" s="6" customFormat="1" spans="1:5">
+      <c r="A335" s="24">
+        <v>338</v>
+      </c>
+      <c r="B335" s="20">
         <v>162007</v>
       </c>
-      <c r="C333" s="22">
-        <v>0</v>
-      </c>
-      <c r="D333" s="23">
-        <v>0</v>
-      </c>
-      <c r="E333" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" s="6" customFormat="1" spans="1:5">
-      <c r="A334" s="21">
-        <v>337</v>
-      </c>
-      <c r="B334" s="25">
+      <c r="C335" s="25">
+        <v>0</v>
+      </c>
+      <c r="D335" s="26">
+        <v>0</v>
+      </c>
+      <c r="E335" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" s="6" customFormat="1" spans="1:5">
+      <c r="A336" s="24">
+        <v>339</v>
+      </c>
+      <c r="B336" s="20">
         <v>163000</v>
       </c>
-      <c r="C334" s="22">
-        <v>0</v>
-      </c>
-      <c r="D334" s="23">
-        <v>0</v>
-      </c>
-      <c r="E334" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" s="6" customFormat="1" spans="1:5">
-      <c r="A335" s="21">
-        <v>338</v>
-      </c>
-      <c r="B335" s="25">
+      <c r="C336" s="25">
+        <v>0</v>
+      </c>
+      <c r="D336" s="26">
+        <v>0</v>
+      </c>
+      <c r="E336" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" s="6" customFormat="1" spans="1:5">
+      <c r="A337" s="24">
+        <v>340</v>
+      </c>
+      <c r="B337" s="20">
         <v>163001</v>
       </c>
-      <c r="C335" s="22">
-        <v>0</v>
-      </c>
-      <c r="D335" s="23">
-        <v>0</v>
-      </c>
-      <c r="E335" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" s="6" customFormat="1" spans="1:5">
-      <c r="A336" s="21">
-        <v>339</v>
-      </c>
-      <c r="B336" s="25">
+      <c r="C337" s="25">
+        <v>0</v>
+      </c>
+      <c r="D337" s="26">
+        <v>0</v>
+      </c>
+      <c r="E337" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" s="6" customFormat="1" spans="1:5">
+      <c r="A338" s="24">
+        <v>341</v>
+      </c>
+      <c r="B338" s="20">
         <v>163002</v>
       </c>
-      <c r="C336" s="22">
-        <v>0</v>
-      </c>
-      <c r="D336" s="23">
-        <v>0</v>
-      </c>
-      <c r="E336" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" s="6" customFormat="1" spans="1:5">
-      <c r="A337" s="21">
-        <v>340</v>
-      </c>
-      <c r="B337" s="25">
+      <c r="C338" s="25">
+        <v>0</v>
+      </c>
+      <c r="D338" s="26">
+        <v>0</v>
+      </c>
+      <c r="E338" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" s="6" customFormat="1" spans="1:5">
+      <c r="A339" s="24">
+        <v>342</v>
+      </c>
+      <c r="B339" s="20">
         <v>163003</v>
       </c>
-      <c r="C337" s="22">
-        <v>0</v>
-      </c>
-      <c r="D337" s="23">
-        <v>0</v>
-      </c>
-      <c r="E337" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" s="6" customFormat="1" spans="1:5">
-      <c r="A338" s="21">
-        <v>341</v>
-      </c>
-      <c r="B338" s="25">
+      <c r="C339" s="25">
+        <v>0</v>
+      </c>
+      <c r="D339" s="26">
+        <v>0</v>
+      </c>
+      <c r="E339" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" s="6" customFormat="1" spans="1:5">
+      <c r="A340" s="24">
+        <v>343</v>
+      </c>
+      <c r="B340" s="20">
         <v>163004</v>
       </c>
-      <c r="C338" s="22">
-        <v>0</v>
-      </c>
-      <c r="D338" s="23">
-        <v>0</v>
-      </c>
-      <c r="E338" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" s="6" customFormat="1" spans="1:5">
-      <c r="A339" s="21">
-        <v>342</v>
-      </c>
-      <c r="B339" s="25">
+      <c r="C340" s="25">
+        <v>0</v>
+      </c>
+      <c r="D340" s="26">
+        <v>0</v>
+      </c>
+      <c r="E340" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" s="6" customFormat="1" spans="1:5">
+      <c r="A341" s="24">
+        <v>344</v>
+      </c>
+      <c r="B341" s="20">
         <v>163005</v>
       </c>
-      <c r="C339" s="22">
-        <v>0</v>
-      </c>
-      <c r="D339" s="23">
-        <v>0</v>
-      </c>
-      <c r="E339" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" s="6" customFormat="1" spans="1:5">
-      <c r="A340" s="21">
-        <v>343</v>
-      </c>
-      <c r="B340" s="25">
+      <c r="C341" s="25">
+        <v>0</v>
+      </c>
+      <c r="D341" s="26">
+        <v>0</v>
+      </c>
+      <c r="E341" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" s="6" customFormat="1" spans="1:5">
+      <c r="A342" s="24">
+        <v>345</v>
+      </c>
+      <c r="B342" s="20">
         <v>163006</v>
       </c>
-      <c r="C340" s="22">
-        <v>0</v>
-      </c>
-      <c r="D340" s="23">
-        <v>0</v>
-      </c>
-      <c r="E340" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" s="6" customFormat="1" spans="1:5">
-      <c r="A341" s="21">
-        <v>344</v>
-      </c>
-      <c r="B341" s="25">
+      <c r="C342" s="25">
+        <v>0</v>
+      </c>
+      <c r="D342" s="26">
+        <v>0</v>
+      </c>
+      <c r="E342" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" s="6" customFormat="1" spans="1:5">
+      <c r="A343" s="24">
+        <v>346</v>
+      </c>
+      <c r="B343" s="20">
         <v>163007</v>
       </c>
-      <c r="C341" s="22">
-        <v>0</v>
-      </c>
-      <c r="D341" s="23">
-        <v>0</v>
-      </c>
-      <c r="E341" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" s="6" customFormat="1" spans="1:5">
-      <c r="A342" s="21">
-        <v>345</v>
-      </c>
-      <c r="B342" s="26">
+      <c r="C343" s="25">
+        <v>0</v>
+      </c>
+      <c r="D343" s="26">
+        <v>0</v>
+      </c>
+      <c r="E343" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" s="6" customFormat="1" spans="1:5">
+      <c r="A344" s="24">
+        <v>347</v>
+      </c>
+      <c r="B344" s="21">
         <v>164000</v>
       </c>
-      <c r="C342" s="22">
-        <v>0</v>
-      </c>
-      <c r="D342" s="23">
-        <v>0</v>
-      </c>
-      <c r="E342" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" s="6" customFormat="1" spans="1:5">
-      <c r="A343" s="21">
-        <v>346</v>
-      </c>
-      <c r="B343" s="26">
+      <c r="C344" s="25">
+        <v>0</v>
+      </c>
+      <c r="D344" s="26">
+        <v>0</v>
+      </c>
+      <c r="E344" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" s="6" customFormat="1" spans="1:5">
+      <c r="A345" s="24">
+        <v>348</v>
+      </c>
+      <c r="B345" s="21">
         <v>164001</v>
       </c>
-      <c r="C343" s="22">
-        <v>0</v>
-      </c>
-      <c r="D343" s="23">
-        <v>0</v>
-      </c>
-      <c r="E343" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" s="6" customFormat="1" spans="1:5">
-      <c r="A344" s="21">
-        <v>347</v>
-      </c>
-      <c r="B344" s="26">
+      <c r="C345" s="25">
+        <v>0</v>
+      </c>
+      <c r="D345" s="26">
+        <v>0</v>
+      </c>
+      <c r="E345" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" s="6" customFormat="1" spans="1:5">
+      <c r="A346" s="24">
+        <v>349</v>
+      </c>
+      <c r="B346" s="21">
         <v>164002</v>
       </c>
-      <c r="C344" s="22">
-        <v>0</v>
-      </c>
-      <c r="D344" s="23">
-        <v>0</v>
-      </c>
-      <c r="E344" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" s="6" customFormat="1" spans="1:5">
-      <c r="A345" s="21">
-        <v>348</v>
-      </c>
-      <c r="B345" s="26">
+      <c r="C346" s="25">
+        <v>0</v>
+      </c>
+      <c r="D346" s="26">
+        <v>0</v>
+      </c>
+      <c r="E346" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" s="6" customFormat="1" spans="1:5">
+      <c r="A347" s="24">
+        <v>350</v>
+      </c>
+      <c r="B347" s="21">
         <v>164003</v>
       </c>
-      <c r="C345" s="22">
-        <v>0</v>
-      </c>
-      <c r="D345" s="23">
-        <v>0</v>
-      </c>
-      <c r="E345" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" s="6" customFormat="1" spans="1:5">
-      <c r="A346" s="21">
-        <v>349</v>
-      </c>
-      <c r="B346" s="26">
+      <c r="C347" s="25">
+        <v>0</v>
+      </c>
+      <c r="D347" s="26">
+        <v>0</v>
+      </c>
+      <c r="E347" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" s="6" customFormat="1" spans="1:5">
+      <c r="A348" s="24">
+        <v>351</v>
+      </c>
+      <c r="B348" s="21">
         <v>164004</v>
       </c>
-      <c r="C346" s="22">
-        <v>0</v>
-      </c>
-      <c r="D346" s="23">
-        <v>0</v>
-      </c>
-      <c r="E346" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" s="6" customFormat="1" spans="1:5">
-      <c r="A347" s="21">
-        <v>350</v>
-      </c>
-      <c r="B347" s="26">
+      <c r="C348" s="25">
+        <v>0</v>
+      </c>
+      <c r="D348" s="26">
+        <v>0</v>
+      </c>
+      <c r="E348" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" s="6" customFormat="1" spans="1:5">
+      <c r="A349" s="24">
+        <v>352</v>
+      </c>
+      <c r="B349" s="21">
         <v>164005</v>
       </c>
-      <c r="C347" s="22">
-        <v>0</v>
-      </c>
-      <c r="D347" s="23">
-        <v>0</v>
-      </c>
-      <c r="E347" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" s="6" customFormat="1" spans="1:5">
-      <c r="A348" s="21">
-        <v>351</v>
-      </c>
-      <c r="B348" s="26">
+      <c r="C349" s="25">
+        <v>0</v>
+      </c>
+      <c r="D349" s="26">
+        <v>0</v>
+      </c>
+      <c r="E349" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" s="6" customFormat="1" spans="1:5">
+      <c r="A350" s="24">
+        <v>353</v>
+      </c>
+      <c r="B350" s="21">
         <v>164006</v>
       </c>
-      <c r="C348" s="22">
-        <v>0</v>
-      </c>
-      <c r="D348" s="23">
-        <v>0</v>
-      </c>
-      <c r="E348" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" s="6" customFormat="1" spans="1:5">
-      <c r="A349" s="21">
-        <v>352</v>
-      </c>
-      <c r="B349" s="26">
+      <c r="C350" s="25">
+        <v>0</v>
+      </c>
+      <c r="D350" s="26">
+        <v>0</v>
+      </c>
+      <c r="E350" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" s="6" customFormat="1" spans="1:5">
+      <c r="A351" s="24">
+        <v>354</v>
+      </c>
+      <c r="B351" s="21">
         <v>164007</v>
       </c>
-      <c r="C349" s="22">
-        <v>0</v>
-      </c>
-      <c r="D349" s="23">
-        <v>0</v>
-      </c>
-      <c r="E349" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" s="6" customFormat="1" spans="1:5">
-      <c r="A350" s="21">
-        <v>353</v>
-      </c>
-      <c r="B350" s="26">
+      <c r="C351" s="25">
+        <v>0</v>
+      </c>
+      <c r="D351" s="26">
+        <v>0</v>
+      </c>
+      <c r="E351" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" s="6" customFormat="1" spans="1:5">
+      <c r="A352" s="24">
+        <v>355</v>
+      </c>
+      <c r="B352" s="21">
         <v>165000</v>
       </c>
-      <c r="C350" s="22">
-        <v>0</v>
-      </c>
-      <c r="D350" s="23">
-        <v>0</v>
-      </c>
-      <c r="E350" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" s="6" customFormat="1" spans="1:5">
-      <c r="A351" s="21">
-        <v>354</v>
-      </c>
-      <c r="B351" s="26">
+      <c r="C352" s="25">
+        <v>0</v>
+      </c>
+      <c r="D352" s="26">
+        <v>0</v>
+      </c>
+      <c r="E352" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" s="6" customFormat="1" spans="1:5">
+      <c r="A353" s="24">
+        <v>356</v>
+      </c>
+      <c r="B353" s="21">
         <v>165001</v>
       </c>
-      <c r="C351" s="22">
-        <v>0</v>
-      </c>
-      <c r="D351" s="23">
-        <v>0</v>
-      </c>
-      <c r="E351" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" s="6" customFormat="1" spans="1:5">
-      <c r="A352" s="21">
-        <v>355</v>
-      </c>
-      <c r="B352" s="26">
+      <c r="C353" s="25">
+        <v>0</v>
+      </c>
+      <c r="D353" s="26">
+        <v>0</v>
+      </c>
+      <c r="E353" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" s="6" customFormat="1" spans="1:5">
+      <c r="A354" s="24">
+        <v>357</v>
+      </c>
+      <c r="B354" s="21">
         <v>165002</v>
       </c>
-      <c r="C352" s="22">
-        <v>0</v>
-      </c>
-      <c r="D352" s="23">
-        <v>0</v>
-      </c>
-      <c r="E352" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" s="6" customFormat="1" spans="1:5">
-      <c r="A353" s="21">
-        <v>356</v>
-      </c>
-      <c r="B353" s="26">
+      <c r="C354" s="25">
+        <v>0</v>
+      </c>
+      <c r="D354" s="26">
+        <v>0</v>
+      </c>
+      <c r="E354" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" s="6" customFormat="1" spans="1:5">
+      <c r="A355" s="24">
+        <v>358</v>
+      </c>
+      <c r="B355" s="21">
         <v>165003</v>
       </c>
-      <c r="C353" s="22">
-        <v>0</v>
-      </c>
-      <c r="D353" s="23">
-        <v>0</v>
-      </c>
-      <c r="E353" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" s="6" customFormat="1" spans="1:5">
-      <c r="A354" s="21">
-        <v>357</v>
-      </c>
-      <c r="B354" s="26">
+      <c r="C355" s="25">
+        <v>0</v>
+      </c>
+      <c r="D355" s="26">
+        <v>0</v>
+      </c>
+      <c r="E355" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" s="6" customFormat="1" spans="1:5">
+      <c r="A356" s="24">
+        <v>359</v>
+      </c>
+      <c r="B356" s="21">
         <v>165004</v>
       </c>
-      <c r="C354" s="22">
-        <v>0</v>
-      </c>
-      <c r="D354" s="23">
-        <v>0</v>
-      </c>
-      <c r="E354" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" s="6" customFormat="1" spans="1:5">
-      <c r="A355" s="21">
-        <v>358</v>
-      </c>
-      <c r="B355" s="26">
+      <c r="C356" s="25">
+        <v>0</v>
+      </c>
+      <c r="D356" s="26">
+        <v>0</v>
+      </c>
+      <c r="E356" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" s="6" customFormat="1" spans="1:5">
+      <c r="A357" s="24">
+        <v>360</v>
+      </c>
+      <c r="B357" s="21">
         <v>165005</v>
       </c>
-      <c r="C355" s="22">
-        <v>0</v>
-      </c>
-      <c r="D355" s="23">
-        <v>0</v>
-      </c>
-      <c r="E355" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" s="6" customFormat="1" spans="1:5">
-      <c r="A356" s="21">
-        <v>359</v>
-      </c>
-      <c r="B356" s="26">
+      <c r="C357" s="25">
+        <v>0</v>
+      </c>
+      <c r="D357" s="26">
+        <v>0</v>
+      </c>
+      <c r="E357" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" s="6" customFormat="1" spans="1:5">
+      <c r="A358" s="24">
+        <v>361</v>
+      </c>
+      <c r="B358" s="21">
         <v>165006</v>
       </c>
-      <c r="C356" s="22">
-        <v>0</v>
-      </c>
-      <c r="D356" s="23">
-        <v>0</v>
-      </c>
-      <c r="E356" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" s="6" customFormat="1" spans="1:5">
-      <c r="A357" s="21">
-        <v>360</v>
-      </c>
-      <c r="B357" s="26">
+      <c r="C358" s="25">
+        <v>0</v>
+      </c>
+      <c r="D358" s="26">
+        <v>0</v>
+      </c>
+      <c r="E358" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" s="6" customFormat="1" spans="1:5">
+      <c r="A359" s="24">
+        <v>362</v>
+      </c>
+      <c r="B359" s="21">
         <v>165007</v>
       </c>
-      <c r="C357" s="22">
-        <v>0</v>
-      </c>
-      <c r="D357" s="23">
-        <v>0</v>
-      </c>
-      <c r="E357" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" s="6" customFormat="1" spans="1:5">
-      <c r="A358" s="21">
-        <v>361</v>
-      </c>
-      <c r="B358" s="26">
+      <c r="C359" s="25">
+        <v>0</v>
+      </c>
+      <c r="D359" s="26">
+        <v>0</v>
+      </c>
+      <c r="E359" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" s="6" customFormat="1" spans="1:5">
+      <c r="A360" s="24">
+        <v>363</v>
+      </c>
+      <c r="B360" s="21">
         <v>166000</v>
       </c>
-      <c r="C358" s="22">
-        <v>0</v>
-      </c>
-      <c r="D358" s="23">
-        <v>0</v>
-      </c>
-      <c r="E358" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" s="6" customFormat="1" spans="1:5">
-      <c r="A359" s="21">
-        <v>362</v>
-      </c>
-      <c r="B359" s="26">
+      <c r="C360" s="25">
+        <v>0</v>
+      </c>
+      <c r="D360" s="26">
+        <v>0</v>
+      </c>
+      <c r="E360" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" s="6" customFormat="1" spans="1:5">
+      <c r="A361" s="24">
+        <v>364</v>
+      </c>
+      <c r="B361" s="21">
         <v>166001</v>
       </c>
-      <c r="C359" s="22">
-        <v>0</v>
-      </c>
-      <c r="D359" s="23">
-        <v>0</v>
-      </c>
-      <c r="E359" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" s="6" customFormat="1" spans="1:5">
-      <c r="A360" s="21">
-        <v>363</v>
-      </c>
-      <c r="B360" s="26">
+      <c r="C361" s="25">
+        <v>0</v>
+      </c>
+      <c r="D361" s="26">
+        <v>0</v>
+      </c>
+      <c r="E361" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" s="6" customFormat="1" spans="1:5">
+      <c r="A362" s="24">
+        <v>365</v>
+      </c>
+      <c r="B362" s="21">
         <v>166002</v>
       </c>
-      <c r="C360" s="22">
-        <v>0</v>
-      </c>
-      <c r="D360" s="23">
-        <v>0</v>
-      </c>
-      <c r="E360" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" s="6" customFormat="1" spans="1:5">
-      <c r="A361" s="21">
-        <v>364</v>
-      </c>
-      <c r="B361" s="26">
+      <c r="C362" s="25">
+        <v>0</v>
+      </c>
+      <c r="D362" s="26">
+        <v>0</v>
+      </c>
+      <c r="E362" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" s="6" customFormat="1" spans="1:5">
+      <c r="A363" s="24">
+        <v>366</v>
+      </c>
+      <c r="B363" s="21">
         <v>166003</v>
       </c>
-      <c r="C361" s="22">
-        <v>0</v>
-      </c>
-      <c r="D361" s="23">
-        <v>0</v>
-      </c>
-      <c r="E361" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" s="6" customFormat="1" spans="1:5">
-      <c r="A362" s="21">
-        <v>365</v>
-      </c>
-      <c r="B362" s="26">
+      <c r="C363" s="25">
+        <v>0</v>
+      </c>
+      <c r="D363" s="26">
+        <v>0</v>
+      </c>
+      <c r="E363" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" s="6" customFormat="1" spans="1:5">
+      <c r="A364" s="24">
+        <v>367</v>
+      </c>
+      <c r="B364" s="21">
         <v>166004</v>
       </c>
-      <c r="C362" s="22">
-        <v>0</v>
-      </c>
-      <c r="D362" s="23">
-        <v>0</v>
-      </c>
-      <c r="E362" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" s="6" customFormat="1" spans="1:5">
-      <c r="A363" s="21">
-        <v>366</v>
-      </c>
-      <c r="B363" s="26">
+      <c r="C364" s="25">
+        <v>0</v>
+      </c>
+      <c r="D364" s="26">
+        <v>0</v>
+      </c>
+      <c r="E364" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" s="6" customFormat="1" spans="1:5">
+      <c r="A365" s="24">
+        <v>368</v>
+      </c>
+      <c r="B365" s="21">
         <v>166005</v>
       </c>
-      <c r="C363" s="22">
-        <v>0</v>
-      </c>
-      <c r="D363" s="23">
-        <v>0</v>
-      </c>
-      <c r="E363" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" s="6" customFormat="1" spans="1:5">
-      <c r="A364" s="21">
-        <v>367</v>
-      </c>
-      <c r="B364" s="26">
+      <c r="C365" s="25">
+        <v>0</v>
+      </c>
+      <c r="D365" s="26">
+        <v>0</v>
+      </c>
+      <c r="E365" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" s="6" customFormat="1" spans="1:5">
+      <c r="A366" s="24">
+        <v>369</v>
+      </c>
+      <c r="B366" s="21">
         <v>166006</v>
       </c>
-      <c r="C364" s="22">
-        <v>0</v>
-      </c>
-      <c r="D364" s="23">
-        <v>0</v>
-      </c>
-      <c r="E364" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" s="6" customFormat="1" spans="1:5">
-      <c r="A365" s="21">
-        <v>368</v>
-      </c>
-      <c r="B365" s="26">
+      <c r="C366" s="25">
+        <v>0</v>
+      </c>
+      <c r="D366" s="26">
+        <v>0</v>
+      </c>
+      <c r="E366" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" s="6" customFormat="1" spans="1:5">
+      <c r="A367" s="24">
+        <v>370</v>
+      </c>
+      <c r="B367" s="21">
         <v>166007</v>
       </c>
-      <c r="C365" s="22">
-        <v>0</v>
-      </c>
-      <c r="D365" s="23">
-        <v>0</v>
-      </c>
-      <c r="E365" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" s="6" customFormat="1" spans="1:5">
-      <c r="A366" s="21">
-        <v>369</v>
-      </c>
-      <c r="B366" s="26">
+      <c r="C367" s="25">
+        <v>0</v>
+      </c>
+      <c r="D367" s="26">
+        <v>0</v>
+      </c>
+      <c r="E367" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" s="6" customFormat="1" spans="1:5">
+      <c r="A368" s="24">
+        <v>371</v>
+      </c>
+      <c r="B368" s="21">
         <v>167000</v>
       </c>
-      <c r="C366" s="22">
-        <v>0</v>
-      </c>
-      <c r="D366" s="23">
-        <v>0</v>
-      </c>
-      <c r="E366" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" s="6" customFormat="1" spans="1:5">
-      <c r="A367" s="21">
-        <v>370</v>
-      </c>
-      <c r="B367" s="26">
+      <c r="C368" s="25">
+        <v>0</v>
+      </c>
+      <c r="D368" s="26">
+        <v>0</v>
+      </c>
+      <c r="E368" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" s="6" customFormat="1" spans="1:5">
+      <c r="A369" s="24">
+        <v>372</v>
+      </c>
+      <c r="B369" s="21">
         <v>167001</v>
       </c>
-      <c r="C367" s="22">
-        <v>0</v>
-      </c>
-      <c r="D367" s="23">
-        <v>0</v>
-      </c>
-      <c r="E367" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" s="6" customFormat="1" spans="1:5">
-      <c r="A368" s="21">
-        <v>371</v>
-      </c>
-      <c r="B368" s="26">
+      <c r="C369" s="25">
+        <v>0</v>
+      </c>
+      <c r="D369" s="26">
+        <v>0</v>
+      </c>
+      <c r="E369" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" s="6" customFormat="1" spans="1:5">
+      <c r="A370" s="24">
+        <v>373</v>
+      </c>
+      <c r="B370" s="21">
         <v>167002</v>
       </c>
-      <c r="C368" s="22">
-        <v>0</v>
-      </c>
-      <c r="D368" s="23">
-        <v>0</v>
-      </c>
-      <c r="E368" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" s="6" customFormat="1" spans="1:5">
-      <c r="A369" s="21">
-        <v>372</v>
-      </c>
-      <c r="B369" s="26">
+      <c r="C370" s="25">
+        <v>0</v>
+      </c>
+      <c r="D370" s="26">
+        <v>0</v>
+      </c>
+      <c r="E370" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" s="6" customFormat="1" spans="1:5">
+      <c r="A371" s="24">
+        <v>374</v>
+      </c>
+      <c r="B371" s="21">
         <v>167003</v>
       </c>
-      <c r="C369" s="22">
-        <v>0</v>
-      </c>
-      <c r="D369" s="23">
-        <v>0</v>
-      </c>
-      <c r="E369" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" s="6" customFormat="1" spans="1:5">
-      <c r="A370" s="21">
-        <v>373</v>
-      </c>
-      <c r="B370" s="26">
+      <c r="C371" s="25">
+        <v>0</v>
+      </c>
+      <c r="D371" s="26">
+        <v>0</v>
+      </c>
+      <c r="E371" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" s="6" customFormat="1" spans="1:5">
+      <c r="A372" s="24">
+        <v>375</v>
+      </c>
+      <c r="B372" s="21">
         <v>167004</v>
       </c>
-      <c r="C370" s="22">
-        <v>0</v>
-      </c>
-      <c r="D370" s="23">
-        <v>0</v>
-      </c>
-      <c r="E370" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" s="6" customFormat="1" spans="1:5">
-      <c r="A371" s="21">
-        <v>374</v>
-      </c>
-      <c r="B371" s="26">
+      <c r="C372" s="25">
+        <v>0</v>
+      </c>
+      <c r="D372" s="26">
+        <v>0</v>
+      </c>
+      <c r="E372" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" s="6" customFormat="1" spans="1:5">
+      <c r="A373" s="24">
+        <v>376</v>
+      </c>
+      <c r="B373" s="21">
         <v>167005</v>
       </c>
-      <c r="C371" s="22">
-        <v>0</v>
-      </c>
-      <c r="D371" s="23">
-        <v>0</v>
-      </c>
-      <c r="E371" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" s="6" customFormat="1" spans="1:5">
-      <c r="A372" s="21">
-        <v>375</v>
-      </c>
-      <c r="B372" s="26">
+      <c r="C373" s="25">
+        <v>0</v>
+      </c>
+      <c r="D373" s="26">
+        <v>0</v>
+      </c>
+      <c r="E373" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" s="6" customFormat="1" spans="1:5">
+      <c r="A374" s="24">
+        <v>377</v>
+      </c>
+      <c r="B374" s="21">
         <v>167006</v>
       </c>
-      <c r="C372" s="22">
-        <v>0</v>
-      </c>
-      <c r="D372" s="23">
-        <v>0</v>
-      </c>
-      <c r="E372" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" s="6" customFormat="1" spans="1:5">
-      <c r="A373" s="21">
-        <v>376</v>
-      </c>
-      <c r="B373" s="26">
+      <c r="C374" s="25">
+        <v>0</v>
+      </c>
+      <c r="D374" s="26">
+        <v>0</v>
+      </c>
+      <c r="E374" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" s="6" customFormat="1" spans="1:5">
+      <c r="A375" s="24">
+        <v>378</v>
+      </c>
+      <c r="B375" s="21">
         <v>167007</v>
       </c>
-      <c r="C373" s="22">
-        <v>0</v>
-      </c>
-      <c r="D373" s="23">
-        <v>0</v>
-      </c>
-      <c r="E373" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" s="6" customFormat="1" spans="1:5">
-      <c r="A374" s="21">
-        <v>377</v>
-      </c>
-      <c r="B374" s="26">
+      <c r="C375" s="25">
+        <v>0</v>
+      </c>
+      <c r="D375" s="26">
+        <v>0</v>
+      </c>
+      <c r="E375" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" s="6" customFormat="1" spans="1:5">
+      <c r="A376" s="24">
+        <v>379</v>
+      </c>
+      <c r="B376" s="21">
         <v>168000</v>
       </c>
-      <c r="C374" s="22">
-        <v>0</v>
-      </c>
-      <c r="D374" s="23">
-        <v>0</v>
-      </c>
-      <c r="E374" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" s="6" customFormat="1" spans="1:5">
-      <c r="A375" s="21">
-        <v>378</v>
-      </c>
-      <c r="B375" s="26">
+      <c r="C376" s="25">
+        <v>0</v>
+      </c>
+      <c r="D376" s="26">
+        <v>0</v>
+      </c>
+      <c r="E376" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" s="6" customFormat="1" spans="1:5">
+      <c r="A377" s="24">
+        <v>380</v>
+      </c>
+      <c r="B377" s="21">
         <v>168001</v>
       </c>
-      <c r="C375" s="22">
-        <v>0</v>
-      </c>
-      <c r="D375" s="23">
-        <v>0</v>
-      </c>
-      <c r="E375" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" s="6" customFormat="1" spans="1:5">
-      <c r="A376" s="21">
-        <v>379</v>
-      </c>
-      <c r="B376" s="26">
+      <c r="C377" s="25">
+        <v>0</v>
+      </c>
+      <c r="D377" s="26">
+        <v>0</v>
+      </c>
+      <c r="E377" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" s="6" customFormat="1" spans="1:5">
+      <c r="A378" s="24">
+        <v>381</v>
+      </c>
+      <c r="B378" s="21">
         <v>168002</v>
       </c>
-      <c r="C376" s="22">
-        <v>0</v>
-      </c>
-      <c r="D376" s="23">
-        <v>0</v>
-      </c>
-      <c r="E376" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" s="6" customFormat="1" spans="1:5">
-      <c r="A377" s="21">
-        <v>380</v>
-      </c>
-      <c r="B377" s="26">
+      <c r="C378" s="25">
+        <v>0</v>
+      </c>
+      <c r="D378" s="26">
+        <v>0</v>
+      </c>
+      <c r="E378" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" s="6" customFormat="1" spans="1:5">
+      <c r="A379" s="24">
+        <v>382</v>
+      </c>
+      <c r="B379" s="21">
         <v>168003</v>
       </c>
-      <c r="C377" s="22">
-        <v>0</v>
-      </c>
-      <c r="D377" s="23">
-        <v>0</v>
-      </c>
-      <c r="E377" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" s="6" customFormat="1" spans="1:5">
-      <c r="A378" s="21">
-        <v>381</v>
-      </c>
-      <c r="B378" s="26">
+      <c r="C379" s="25">
+        <v>0</v>
+      </c>
+      <c r="D379" s="26">
+        <v>0</v>
+      </c>
+      <c r="E379" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" s="6" customFormat="1" spans="1:5">
+      <c r="A380" s="24">
+        <v>383</v>
+      </c>
+      <c r="B380" s="21">
         <v>168004</v>
       </c>
-      <c r="C378" s="22">
-        <v>0</v>
-      </c>
-      <c r="D378" s="23">
-        <v>0</v>
-      </c>
-      <c r="E378" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" s="6" customFormat="1" spans="1:5">
-      <c r="A379" s="21">
-        <v>382</v>
-      </c>
-      <c r="B379" s="26">
+      <c r="C380" s="25">
+        <v>0</v>
+      </c>
+      <c r="D380" s="26">
+        <v>0</v>
+      </c>
+      <c r="E380" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" s="6" customFormat="1" spans="1:5">
+      <c r="A381" s="24">
+        <v>384</v>
+      </c>
+      <c r="B381" s="21">
         <v>168005</v>
       </c>
-      <c r="C379" s="22">
-        <v>0</v>
-      </c>
-      <c r="D379" s="23">
-        <v>0</v>
-      </c>
-      <c r="E379" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" s="6" customFormat="1" spans="1:5">
-      <c r="A380" s="21">
-        <v>383</v>
-      </c>
-      <c r="B380" s="26">
+      <c r="C381" s="25">
+        <v>0</v>
+      </c>
+      <c r="D381" s="26">
+        <v>0</v>
+      </c>
+      <c r="E381" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" s="6" customFormat="1" spans="1:5">
+      <c r="A382" s="24">
+        <v>385</v>
+      </c>
+      <c r="B382" s="21">
         <v>168006</v>
       </c>
-      <c r="C380" s="22">
-        <v>0</v>
-      </c>
-      <c r="D380" s="23">
-        <v>0</v>
-      </c>
-      <c r="E380" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" s="6" customFormat="1" spans="1:5">
-      <c r="A381" s="21">
-        <v>384</v>
-      </c>
-      <c r="B381" s="26">
+      <c r="C382" s="25">
+        <v>0</v>
+      </c>
+      <c r="D382" s="26">
+        <v>0</v>
+      </c>
+      <c r="E382" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" s="6" customFormat="1" spans="1:5">
+      <c r="A383" s="24">
+        <v>386</v>
+      </c>
+      <c r="B383" s="21">
         <v>168007</v>
       </c>
-      <c r="C381" s="22">
-        <v>0</v>
-      </c>
-      <c r="D381" s="23">
-        <v>0</v>
-      </c>
-      <c r="E381" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" s="6" customFormat="1" spans="1:5">
-      <c r="A382" s="21">
-        <v>385</v>
-      </c>
-      <c r="B382" s="26">
+      <c r="C383" s="25">
+        <v>0</v>
+      </c>
+      <c r="D383" s="26">
+        <v>0</v>
+      </c>
+      <c r="E383" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" s="6" customFormat="1" spans="1:5">
+      <c r="A384" s="24">
+        <v>387</v>
+      </c>
+      <c r="B384" s="21">
         <v>169000</v>
       </c>
-      <c r="C382" s="22">
-        <v>0</v>
-      </c>
-      <c r="D382" s="23">
-        <v>0</v>
-      </c>
-      <c r="E382" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" s="6" customFormat="1" spans="1:5">
-      <c r="A383" s="21">
-        <v>386</v>
-      </c>
-      <c r="B383" s="26">
+      <c r="C384" s="25">
+        <v>0</v>
+      </c>
+      <c r="D384" s="26">
+        <v>0</v>
+      </c>
+      <c r="E384" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" s="6" customFormat="1" spans="1:5">
+      <c r="A385" s="24">
+        <v>388</v>
+      </c>
+      <c r="B385" s="21">
         <v>169001</v>
       </c>
-      <c r="C383" s="22">
-        <v>0</v>
-      </c>
-      <c r="D383" s="23">
-        <v>0</v>
-      </c>
-      <c r="E383" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" s="6" customFormat="1" spans="1:5">
-      <c r="A384" s="21">
-        <v>387</v>
-      </c>
-      <c r="B384" s="26">
+      <c r="C385" s="25">
+        <v>0</v>
+      </c>
+      <c r="D385" s="26">
+        <v>0</v>
+      </c>
+      <c r="E385" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" s="6" customFormat="1" spans="1:5">
+      <c r="A386" s="24">
+        <v>389</v>
+      </c>
+      <c r="B386" s="21">
         <v>169002</v>
       </c>
-      <c r="C384" s="22">
-        <v>0</v>
-      </c>
-      <c r="D384" s="23">
-        <v>0</v>
-      </c>
-      <c r="E384" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" s="6" customFormat="1" spans="1:5">
-      <c r="A385" s="21">
-        <v>388</v>
-      </c>
-      <c r="B385" s="26">
+      <c r="C386" s="25">
+        <v>0</v>
+      </c>
+      <c r="D386" s="26">
+        <v>0</v>
+      </c>
+      <c r="E386" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" s="6" customFormat="1" spans="1:5">
+      <c r="A387" s="24">
+        <v>390</v>
+      </c>
+      <c r="B387" s="21">
         <v>169003</v>
       </c>
-      <c r="C385" s="22">
-        <v>0</v>
-      </c>
-      <c r="D385" s="23">
-        <v>0</v>
-      </c>
-      <c r="E385" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" s="6" customFormat="1" spans="1:5">
-      <c r="A386" s="21">
-        <v>389</v>
-      </c>
-      <c r="B386" s="26">
+      <c r="C387" s="25">
+        <v>0</v>
+      </c>
+      <c r="D387" s="26">
+        <v>0</v>
+      </c>
+      <c r="E387" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" s="6" customFormat="1" spans="1:5">
+      <c r="A388" s="24">
+        <v>391</v>
+      </c>
+      <c r="B388" s="21">
         <v>169004</v>
       </c>
-      <c r="C386" s="22">
-        <v>0</v>
-      </c>
-      <c r="D386" s="23">
-        <v>0</v>
-      </c>
-      <c r="E386" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" s="6" customFormat="1" spans="1:5">
-      <c r="A387" s="21">
-        <v>390</v>
-      </c>
-      <c r="B387" s="26">
+      <c r="C388" s="25">
+        <v>0</v>
+      </c>
+      <c r="D388" s="26">
+        <v>0</v>
+      </c>
+      <c r="E388" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" s="6" customFormat="1" spans="1:5">
+      <c r="A389" s="24">
+        <v>392</v>
+      </c>
+      <c r="B389" s="21">
         <v>169005</v>
       </c>
-      <c r="C387" s="22">
-        <v>0</v>
-      </c>
-      <c r="D387" s="23">
-        <v>0</v>
-      </c>
-      <c r="E387" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" s="6" customFormat="1" spans="1:5">
-      <c r="A388" s="21">
-        <v>391</v>
-      </c>
-      <c r="B388" s="26">
+      <c r="C389" s="25">
+        <v>0</v>
+      </c>
+      <c r="D389" s="26">
+        <v>0</v>
+      </c>
+      <c r="E389" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" s="6" customFormat="1" spans="1:5">
+      <c r="A390" s="24">
+        <v>393</v>
+      </c>
+      <c r="B390" s="21">
         <v>169006</v>
       </c>
-      <c r="C388" s="22">
-        <v>0</v>
-      </c>
-      <c r="D388" s="23">
-        <v>0</v>
-      </c>
-      <c r="E388" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" s="6" customFormat="1" spans="1:5">
-      <c r="A389" s="21">
-        <v>392</v>
-      </c>
-      <c r="B389" s="26">
+      <c r="C390" s="25">
+        <v>0</v>
+      </c>
+      <c r="D390" s="26">
+        <v>0</v>
+      </c>
+      <c r="E390" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" s="6" customFormat="1" spans="1:5">
+      <c r="A391" s="24">
+        <v>394</v>
+      </c>
+      <c r="B391" s="21">
         <v>169007</v>
       </c>
-      <c r="C389" s="22">
-        <v>0</v>
-      </c>
-      <c r="D389" s="23">
-        <v>0</v>
-      </c>
-      <c r="E389" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" s="6" customFormat="1" spans="1:5">
-      <c r="A390" s="21">
-        <v>393</v>
-      </c>
-      <c r="B390" s="22">
+      <c r="C391" s="25">
+        <v>0</v>
+      </c>
+      <c r="D391" s="26">
+        <v>0</v>
+      </c>
+      <c r="E391" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" s="6" customFormat="1" spans="1:5">
+      <c r="A392" s="24">
+        <v>395</v>
+      </c>
+      <c r="B392" s="22">
         <v>171006</v>
       </c>
-      <c r="C390" s="22">
-        <v>0</v>
-      </c>
-      <c r="D390" s="23">
-        <v>0</v>
-      </c>
-      <c r="E390" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" s="6" customFormat="1" spans="1:5">
-      <c r="A391" s="21">
-        <v>394</v>
-      </c>
-      <c r="B391" s="25">
+      <c r="C392" s="25">
+        <v>0</v>
+      </c>
+      <c r="D392" s="26">
+        <v>0</v>
+      </c>
+      <c r="E392" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" s="6" customFormat="1" spans="1:5">
+      <c r="A393" s="24">
+        <v>396</v>
+      </c>
+      <c r="B393" s="23">
         <v>172006</v>
       </c>
-      <c r="C391" s="22">
-        <v>0</v>
-      </c>
-      <c r="D391" s="23">
-        <v>0</v>
-      </c>
-      <c r="E391" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" s="6" customFormat="1" spans="1:5">
-      <c r="A392" s="21">
-        <v>395</v>
-      </c>
-      <c r="B392" s="22">
+      <c r="C393" s="25">
+        <v>0</v>
+      </c>
+      <c r="D393" s="26">
+        <v>0</v>
+      </c>
+      <c r="E393" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" s="6" customFormat="1" spans="1:5">
+      <c r="A394" s="24">
+        <v>397</v>
+      </c>
+      <c r="B394" s="22">
         <v>173006</v>
       </c>
-      <c r="C392" s="22">
-        <v>0</v>
-      </c>
-      <c r="D392" s="23">
-        <v>0</v>
-      </c>
-      <c r="E392" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" s="6" customFormat="1" spans="1:5">
-      <c r="A393" s="21">
-        <v>396</v>
-      </c>
-      <c r="B393" s="25">
+      <c r="C394" s="25">
+        <v>0</v>
+      </c>
+      <c r="D394" s="26">
+        <v>0</v>
+      </c>
+      <c r="E394" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" s="6" customFormat="1" spans="1:5">
+      <c r="A395" s="24">
+        <v>398</v>
+      </c>
+      <c r="B395" s="23">
         <v>174006</v>
       </c>
-      <c r="C393" s="22">
-        <v>0</v>
-      </c>
-      <c r="D393" s="23">
-        <v>0</v>
-      </c>
-      <c r="E393" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" s="6" customFormat="1" spans="1:5">
-      <c r="A394" s="21">
-        <v>397</v>
-      </c>
-      <c r="B394" s="22">
+      <c r="C395" s="25">
+        <v>0</v>
+      </c>
+      <c r="D395" s="26">
+        <v>0</v>
+      </c>
+      <c r="E395" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" s="6" customFormat="1" spans="1:5">
+      <c r="A396" s="24">
+        <v>399</v>
+      </c>
+      <c r="B396" s="22">
         <v>175006</v>
       </c>
-      <c r="C394" s="22">
-        <v>0</v>
-      </c>
-      <c r="D394" s="23">
-        <v>0</v>
-      </c>
-      <c r="E394" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" s="6" customFormat="1" spans="1:5">
-      <c r="A395" s="21">
-        <v>398</v>
-      </c>
-      <c r="B395" s="25">
+      <c r="C396" s="25">
+        <v>0</v>
+      </c>
+      <c r="D396" s="26">
+        <v>0</v>
+      </c>
+      <c r="E396" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" s="6" customFormat="1" spans="1:5">
+      <c r="A397" s="24">
+        <v>400</v>
+      </c>
+      <c r="B397" s="23">
         <v>176006</v>
       </c>
-      <c r="C395" s="22">
-        <v>0</v>
-      </c>
-      <c r="D395" s="23">
-        <v>0</v>
-      </c>
-      <c r="E395" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" s="6" customFormat="1" spans="1:5">
-      <c r="A396" s="21">
-        <v>399</v>
-      </c>
-      <c r="B396" s="25">
+      <c r="C397" s="25">
+        <v>0</v>
+      </c>
+      <c r="D397" s="26">
+        <v>0</v>
+      </c>
+      <c r="E397" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" s="6" customFormat="1" spans="1:5">
+      <c r="A398" s="24">
+        <v>401</v>
+      </c>
+      <c r="B398" s="20">
         <v>177006</v>
       </c>
-      <c r="C396" s="22">
-        <v>0</v>
-      </c>
-      <c r="D396" s="23">
-        <v>0</v>
-      </c>
-      <c r="E396" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" s="6" customFormat="1" spans="1:5">
-      <c r="A397" s="21">
-        <v>400</v>
-      </c>
-      <c r="B397" s="25">
+      <c r="C398" s="25">
+        <v>0</v>
+      </c>
+      <c r="D398" s="26">
+        <v>0</v>
+      </c>
+      <c r="E398" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" s="6" customFormat="1" spans="1:5">
+      <c r="A399" s="24">
+        <v>402</v>
+      </c>
+      <c r="B399" s="20">
         <v>178006</v>
       </c>
-      <c r="C397" s="22">
-        <v>0</v>
-      </c>
-      <c r="D397" s="23">
-        <v>0</v>
-      </c>
-      <c r="E397" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" s="6" customFormat="1" spans="1:5">
-      <c r="A398" s="21">
-        <v>401</v>
-      </c>
-      <c r="B398" s="25">
+      <c r="C399" s="25">
+        <v>0</v>
+      </c>
+      <c r="D399" s="26">
+        <v>0</v>
+      </c>
+      <c r="E399" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" s="6" customFormat="1" spans="1:5">
+      <c r="A400" s="24">
+        <v>403</v>
+      </c>
+      <c r="B400" s="20">
         <v>179006</v>
       </c>
-      <c r="C398" s="22">
-        <v>0</v>
-      </c>
-      <c r="D398" s="23">
-        <v>0</v>
-      </c>
-      <c r="E398" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" s="6" customFormat="1" spans="1:5">
-      <c r="A399" s="21">
-        <v>402</v>
-      </c>
-      <c r="B399" s="25">
+      <c r="C400" s="25">
+        <v>0</v>
+      </c>
+      <c r="D400" s="26">
+        <v>0</v>
+      </c>
+      <c r="E400" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" s="6" customFormat="1" spans="1:5">
+      <c r="A401" s="24">
+        <v>404</v>
+      </c>
+      <c r="B401" s="20">
         <v>181006</v>
       </c>
-      <c r="C399" s="22">
-        <v>0</v>
-      </c>
-      <c r="D399" s="23">
-        <v>0</v>
-      </c>
-      <c r="E399" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" s="6" customFormat="1" spans="1:5">
-      <c r="A400" s="21">
-        <v>403</v>
-      </c>
-      <c r="B400" s="25">
+      <c r="C401" s="25">
+        <v>0</v>
+      </c>
+      <c r="D401" s="26">
+        <v>0</v>
+      </c>
+      <c r="E401" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" s="6" customFormat="1" spans="1:5">
+      <c r="A402" s="24">
+        <v>405</v>
+      </c>
+      <c r="B402" s="20">
         <v>182006</v>
       </c>
-      <c r="C400" s="22">
-        <v>0</v>
-      </c>
-      <c r="D400" s="23">
-        <v>0</v>
-      </c>
-      <c r="E400" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" s="6" customFormat="1" spans="1:5">
-      <c r="A401" s="21">
-        <v>404</v>
-      </c>
-      <c r="B401" s="25">
+      <c r="C402" s="25">
+        <v>0</v>
+      </c>
+      <c r="D402" s="26">
+        <v>0</v>
+      </c>
+      <c r="E402" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" s="6" customFormat="1" spans="1:5">
+      <c r="A403" s="24">
+        <v>406</v>
+      </c>
+      <c r="B403" s="20">
         <v>184006</v>
       </c>
-      <c r="C401" s="22">
-        <v>0</v>
-      </c>
-      <c r="D401" s="23">
-        <v>0</v>
-      </c>
-      <c r="E401" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" s="6" customFormat="1" spans="1:5">
-      <c r="A402" s="21">
-        <v>405</v>
-      </c>
-      <c r="B402" s="25">
+      <c r="C403" s="25">
+        <v>0</v>
+      </c>
+      <c r="D403" s="26">
+        <v>0</v>
+      </c>
+      <c r="E403" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" s="6" customFormat="1" spans="1:5">
+      <c r="A404" s="24">
+        <v>407</v>
+      </c>
+      <c r="B404" s="20">
         <v>186006</v>
       </c>
-      <c r="C402" s="22">
-        <v>0</v>
-      </c>
-      <c r="D402" s="23">
-        <v>0</v>
-      </c>
-      <c r="E402" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" s="6" customFormat="1" spans="1:5">
-      <c r="A403" s="21">
-        <v>406</v>
-      </c>
-      <c r="B403" s="25">
+      <c r="C404" s="25">
+        <v>0</v>
+      </c>
+      <c r="D404" s="26">
+        <v>0</v>
+      </c>
+      <c r="E404" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="24">
+        <v>408</v>
+      </c>
+      <c r="B405" s="20">
         <v>187006</v>
       </c>
-      <c r="C403" s="22">
-        <v>0</v>
-      </c>
-      <c r="D403" s="23">
-        <v>0</v>
-      </c>
-      <c r="E403" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" s="6" customFormat="1" spans="1:5">
-      <c r="A404" s="21">
-        <v>407</v>
-      </c>
-      <c r="B404" s="25">
+      <c r="C405" s="25">
+        <v>0</v>
+      </c>
+      <c r="D405" s="26">
+        <v>0</v>
+      </c>
+      <c r="E405" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="24">
+        <v>409</v>
+      </c>
+      <c r="B406" s="20">
         <v>188006</v>
       </c>
-      <c r="C404" s="22">
-        <v>0</v>
-      </c>
-      <c r="D404" s="23">
-        <v>0</v>
-      </c>
-      <c r="E404" s="24">
+      <c r="C406" s="25">
+        <v>0</v>
+      </c>
+      <c r="D406" s="26">
+        <v>0</v>
+      </c>
+      <c r="E406" s="27">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E404"/>
+  <autoFilter ref="A1:E404">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
@@ -8345,7 +8415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -8353,7 +8423,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -8362,7 +8432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -8370,7 +8440,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
